--- a/0-VisuStella插件说明.xlsx
+++ b/0-VisuStella插件说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="其他" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1132">
   <si>
     <t>初始自带</t>
   </si>
@@ -443,7 +443,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>#135</t>
+    <t>#137.1</t>
   </si>
   <si>
     <t>#0</t>
@@ -461,7 +461,7 @@
     <t>Wave 1</t>
   </si>
   <si>
-    <t>1.81</t>
+    <t>1.82</t>
   </si>
   <si>
     <t>#1</t>
@@ -476,7 +476,7 @@
     <t>https://youtu.be/-vvmD_4qNMw</t>
   </si>
   <si>
-    <t>1.82</t>
+    <t>1.83</t>
   </si>
   <si>
     <t>#2</t>
@@ -503,7 +503,7 @@
     <t>未改插件参数（需要重新导入插件）</t>
   </si>
   <si>
-    <t>1.47</t>
+    <t>1.49</t>
   </si>
   <si>
     <t>#4</t>
@@ -515,7 +515,7 @@
     <t>信息核心</t>
   </si>
   <si>
-    <t>1.57</t>
+    <t>1.58</t>
   </si>
   <si>
     <t>#5</t>
@@ -527,7 +527,7 @@
     <t>事件和移动核心</t>
   </si>
   <si>
-    <t>1.51</t>
+    <t>1.52</t>
   </si>
   <si>
     <t>#6</t>
@@ -539,7 +539,7 @@
     <t>物品和装备核心</t>
   </si>
   <si>
-    <t>1.43</t>
+    <t>1.45</t>
   </si>
   <si>
     <t>#7</t>
@@ -551,6 +551,9 @@
     <t>技能和状态核心</t>
   </si>
   <si>
+    <t>1.24</t>
+  </si>
+  <si>
     <t>#8</t>
   </si>
   <si>
@@ -677,6 +680,9 @@
     <t>点击图片触发公共事件，暂时OFF</t>
   </si>
   <si>
+    <t>1.30</t>
+  </si>
+  <si>
     <t>#19</t>
   </si>
   <si>
@@ -705,9 +711,6 @@
   </si>
   <si>
     <t>Wave 3</t>
-  </si>
-  <si>
-    <t>1.30</t>
   </si>
   <si>
     <t>#22</t>
@@ -762,7 +765,7 @@
     <t>武器技能</t>
   </si>
   <si>
-    <t>1.18</t>
+    <t>1.19</t>
   </si>
   <si>
     <t>#25</t>
@@ -772,9 +775,6 @@
   </si>
   <si>
     <t>嘲讽系统</t>
-  </si>
-  <si>
-    <t>1.24</t>
   </si>
   <si>
     <t>#26</t>
@@ -816,7 +816,7 @@
     <t>自由放置</t>
   </si>
   <si>
-    <t>地图美化，暂时OFF</t>
+    <t>地图美化，完爆「无限图层」！</t>
   </si>
   <si>
     <t>#29</t>
@@ -997,6 +997,9 @@
   </si>
   <si>
     <t>设定数据库中敌人的 「属性有效度」</t>
+  </si>
+  <si>
+    <t>1.14</t>
   </si>
   <si>
     <t>#42</t>
@@ -1327,6 +1330,9 @@
     <t>暂时没想好干什么用，或许可以考虑做路标？</t>
   </si>
   <si>
+    <t>1.11</t>
+  </si>
+  <si>
     <t>#62</t>
   </si>
   <si>
@@ -1415,9 +1421,6 @@
   </si>
   <si>
     <t>防御点数、破防状态</t>
-  </si>
-  <si>
-    <t>1.11</t>
   </si>
   <si>
     <t>#69</t>
@@ -1596,7 +1599,7 @@
 自定义构造 3</t>
   </si>
   <si>
-    <t>1.00</t>
+    <t>1.01</t>
   </si>
   <si>
     <t>Tutorial Panel Sys</t>
@@ -1615,10 +1618,6 @@
   </si>
   <si>
     <t>独特的地砖效果</t>
-  </si>
-  <si>
-    <t>考虑中
-$20</t>
   </si>
   <si>
     <t>Custom Construct Series Vol. 4
@@ -1643,10 +1642,16 @@
     <t>没搞明白</t>
   </si>
   <si>
+    <t>1.00</t>
+  </si>
+  <si>
     <t>Dice Rolls and RNG Seeds</t>
   </si>
   <si>
     <t>Roll点 &amp; 随机数种子</t>
+  </si>
+  <si>
+    <t>DND的扔骰子</t>
   </si>
   <si>
     <t>Enchanted Explorers Series Volume 1
@@ -1870,7 +1875,7 @@
     <t>运动效果</t>
   </si>
   <si>
-    <t>尘云、足迹、脚步声。智能闪烁，智能跳跃，智能冲刺</t>
+    <t>【暂时off了】尘云、足迹、脚步声。智能闪烁，智能跳跃，智能冲刺</t>
   </si>
   <si>
     <t>Weather Effects</t>
@@ -1883,9 +1888,6 @@
   </si>
   <si>
     <t>灯光效果</t>
-  </si>
-  <si>
-    <t>文档未翻译完，暂时off了</t>
   </si>
   <si>
     <t>Wanderlust Series 2
@@ -1895,10 +1897,22 @@
     <t>Date &amp; Time System</t>
   </si>
   <si>
+    <t>日期&amp;时间系统</t>
+  </si>
+  <si>
+    <t>文档未翻译完，只翻译了概述</t>
+  </si>
+  <si>
     <t>Picture Effects</t>
   </si>
   <si>
+    <t>图片效果</t>
+  </si>
+  <si>
     <t>Tile Grafter System</t>
+  </si>
+  <si>
+    <t>瓷砖移植系统</t>
   </si>
   <si>
     <t>Mechanical Bundle Series Access Keys</t>
@@ -1988,6 +2002,10 @@
     <t>闪避次数、反射次数等</t>
   </si>
   <si>
+    <t>考虑中
+$20</t>
+  </si>
+  <si>
     <t>Battle Technician Series Vol. 3
 战斗技巧 3</t>
   </si>
@@ -2085,9 +2103,6 @@
 作战十字军 2</t>
   </si>
   <si>
-    <t>1.01</t>
-  </si>
-  <si>
     <t>Item Throw Skills</t>
   </si>
   <si>
@@ -2097,18 +2112,21 @@
     <t>类似仙剑投掷。但和大锤掷斧、细菌佛飞刀冲突。需要改俩人技能，先不考虑</t>
   </si>
   <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>Item Concoction Skills</t>
+  </si>
+  <si>
+    <t>物品调和技能！</t>
+  </si>
+  <si>
+    <t>药师调和！！！！</t>
+  </si>
+  <si>
     <t>1.02</t>
   </si>
   <si>
-    <t>Item Concoction Skills</t>
-  </si>
-  <si>
-    <t>物品调和技能！</t>
-  </si>
-  <si>
-    <t>药师调和！！！！</t>
-  </si>
-  <si>
     <t>Item Amplify Skills</t>
   </si>
   <si>
@@ -2127,7 +2145,7 @@
     <t>Frontview UI</t>
   </si>
   <si>
-    <t>可以与sideview一起使用</t>
+    <t>（未翻译）可以与sideview一起使用</t>
   </si>
   <si>
     <t>Field Skills</t>
@@ -2304,7 +2322,8 @@
     <t>商店的背景、半身像立绘（支持表情、语音等）</t>
   </si>
   <si>
-    <t>Grande series</t>
+    <t>Grande series
+大系列</t>
   </si>
   <si>
     <t>Equip Passive System</t>
@@ -2313,6 +2332,9 @@
     <t>装备被动系统</t>
   </si>
   <si>
+    <t>状态这个好</t>
+  </si>
+  <si>
     <t>Equip Medal System</t>
   </si>
   <si>
@@ -2323,6 +2345,9 @@
   </si>
   <si>
     <t>战斗网格系统</t>
+  </si>
+  <si>
+    <t>未翻译完，暂不打算用</t>
   </si>
   <si>
     <t>中文</t>
@@ -3669,7 +3694,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3752,6 +3777,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
@@ -3759,11 +3800,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="0.4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3780,14 +3837,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4676,137 +4725,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5005,6 +5054,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -5023,6 +5075,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -5038,23 +5093,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5072,16 +5140,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5090,7 +5158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5102,6 +5170,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -5114,8 +5185,14 @@
     <xf numFmtId="24" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5131,9 +5208,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -5159,6 +5233,9 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -5167,6 +5244,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -5195,10 +5275,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="6" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5208,7 +5295,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -5220,6 +5307,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5240,6 +5330,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -5265,8 +5376,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5274,7 +5385,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5282,12 +5393,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5298,6 +5414,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="28" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5320,6 +5437,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5327,7 +5445,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5337,6 +5456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5348,20 +5468,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5373,6 +5495,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5382,6 +5505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5391,25 +5515,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5419,23 +5549,26 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -5581,8 +5714,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -5601,7 +5734,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1390650" y="14592300"/>
+          <a:off x="723900" y="14592300"/>
           <a:ext cx="2752725" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6501,14 +6634,14 @@
   <sheetPr/>
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="132" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="142" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="9.625" customWidth="1"/>
     <col min="5" max="5" width="42.125" customWidth="1"/>
@@ -6517,770 +6650,770 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="2:7">
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="166" t="s">
+      <c r="C1" s="188" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="167" t="s">
+      <c r="D1" s="189" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="167" t="s">
+      <c r="E1" s="189" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="167" t="s">
+      <c r="F1" s="189" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="167" t="s">
+      <c r="G1" s="189" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="191" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="259" t="s">
+      <c r="D2" s="299" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="259" t="s">
+      <c r="E2" s="299" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="170" t="s">
+      <c r="F2" s="192" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="170"/>
+      <c r="G2" s="192"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="194" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="173">
+      <c r="D3" s="195">
         <v>0</v>
       </c>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="196" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="174" t="s">
+      <c r="F3" s="197" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="175" t="s">
+      <c r="G3" s="196" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="132"/>
+      <c r="H3" s="142"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="79"/>
-      <c r="B4" s="176" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="198" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="199" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="178">
+      <c r="D4" s="200">
         <v>1</v>
       </c>
-      <c r="E4" s="179" t="s">
+      <c r="E4" s="201" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="180" t="s">
+      <c r="F4" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="180"/>
-      <c r="H4" s="132"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="142"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="79"/>
-      <c r="B5" s="181" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="203" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="177" t="s">
+      <c r="C5" s="199" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="182">
+      <c r="D5" s="204">
         <v>1</v>
       </c>
-      <c r="E5" s="179" t="s">
+      <c r="E5" s="201" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="179" t="s">
+      <c r="F5" s="205" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="179" t="s">
+      <c r="G5" s="205" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="132"/>
+      <c r="H5" s="142"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="79"/>
-      <c r="B6" s="181" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="203" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="199" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="178">
+      <c r="D6" s="200">
         <v>1</v>
       </c>
-      <c r="E6" s="179" t="s">
+      <c r="E6" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="180" t="s">
+      <c r="F6" s="202" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="180"/>
-      <c r="H6" s="132"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="142"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79"/>
-      <c r="B7" s="183" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="206" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="199" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="182">
+      <c r="D7" s="204">
         <v>1</v>
       </c>
-      <c r="E7" s="179" t="s">
+      <c r="E7" s="201" t="s">
         <v>161</v>
       </c>
-      <c r="F7" s="179" t="s">
+      <c r="F7" s="205" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="179"/>
+      <c r="G7" s="205"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="79"/>
-      <c r="B8" s="183" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="207" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="199" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="178">
+      <c r="D8" s="200">
         <v>1</v>
       </c>
-      <c r="E8" s="179" t="s">
+      <c r="E8" s="201" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="180" t="s">
+      <c r="F8" s="202" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="180"/>
-      <c r="H8" s="132"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="142"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79"/>
-      <c r="B9" s="181" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="203" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="199" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="182">
+      <c r="D9" s="204">
         <v>1</v>
       </c>
-      <c r="E9" s="179" t="s">
+      <c r="E9" s="201" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="179" t="s">
+      <c r="F9" s="205" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="179"/>
+      <c r="G9" s="205"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79"/>
-      <c r="B10" s="181" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="177" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="203" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="178">
+      <c r="C10" s="199" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="200">
         <v>1</v>
       </c>
-      <c r="E10" s="184" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" s="180" t="s">
+      <c r="E10" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="180"/>
+      <c r="F10" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="202"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79"/>
-      <c r="B11" s="181" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="177" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="203" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="182">
+      <c r="C11" s="199" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="204">
         <v>1</v>
       </c>
-      <c r="E11" s="179" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="179" t="s">
+      <c r="E11" s="209" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="179"/>
-    </row>
-    <row r="12" s="163" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A12" s="185"/>
-      <c r="B12" s="186" t="s">
+      <c r="F11" s="205" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="187" t="s">
+      <c r="G11" s="205"/>
+    </row>
+    <row r="12" s="185" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A12" s="210"/>
+      <c r="B12" s="211" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="188">
+      <c r="C12" s="212" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="213">
         <v>1</v>
       </c>
-      <c r="E12" s="189" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="189" t="s">
+      <c r="E12" s="214" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="189"/>
-      <c r="H12" s="164"/>
+      <c r="F12" s="215" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="215"/>
+      <c r="H12" s="186"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="190"/>
-      <c r="C13" s="191" t="s">
+      <c r="A13" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="192">
+      <c r="B13" s="216"/>
+      <c r="C13" s="217" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="218">
         <v>4</v>
       </c>
-      <c r="E13" s="193" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="193" t="s">
+      <c r="E13" s="219" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="193" t="s">
+      <c r="F13" s="219" t="s">
         <v>186</v>
       </c>
+      <c r="G13" s="219" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="79"/>
-      <c r="B14" s="181" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="194" t="s">
+      <c r="A14" s="80"/>
+      <c r="B14" s="203" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="195">
+      <c r="C14" s="220" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="221">
         <v>2</v>
       </c>
-      <c r="E14" s="196" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="196" t="s">
+      <c r="E14" s="222" t="s">
         <v>190</v>
       </c>
-      <c r="G14" s="196" t="s">
+      <c r="F14" s="222" t="s">
         <v>191</v>
       </c>
-      <c r="H14" s="132"/>
+      <c r="G14" s="222" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" s="142"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="79"/>
-      <c r="B15" s="197">
+      <c r="A15" s="80"/>
+      <c r="B15" s="223">
+        <v>1.21</v>
+      </c>
+      <c r="C15" s="224" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="204">
+        <v>3</v>
+      </c>
+      <c r="E15" s="201" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="205" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="205"/>
+    </row>
+    <row r="16" s="142" customFormat="1" spans="1:7">
+      <c r="A16" s="80"/>
+      <c r="B16" s="223">
+        <v>1.07</v>
+      </c>
+      <c r="C16" s="225" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="226">
+        <v>4</v>
+      </c>
+      <c r="E16" s="227" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="228" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="228" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="80"/>
+      <c r="B17" s="223"/>
+      <c r="C17" s="229" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="230">
+        <v>5</v>
+      </c>
+      <c r="E17" s="231" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="231" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="231" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="80"/>
+      <c r="B18" s="223">
+        <v>1.17</v>
+      </c>
+      <c r="C18" s="232" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="200">
+        <v>2</v>
+      </c>
+      <c r="E18" s="233" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="202" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18" s="202"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="80"/>
+      <c r="B19" s="223">
         <v>1.19</v>
       </c>
-      <c r="C15" s="198" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="182">
+      <c r="C19" s="224" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="204">
         <v>3</v>
       </c>
-      <c r="E15" s="179" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="179" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="179"/>
-    </row>
-    <row r="16" s="132" customFormat="1" spans="1:7">
-      <c r="A16" s="79"/>
-      <c r="B16" s="197">
-        <v>1.07</v>
-      </c>
-      <c r="C16" s="199" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="200">
+      <c r="E19" s="209" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="205" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="205"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="80"/>
+      <c r="B20" s="223"/>
+      <c r="C20" s="225" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="226">
         <v>4</v>
       </c>
-      <c r="E16" s="201" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="201" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="201" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="79"/>
-      <c r="B17" s="197"/>
-      <c r="C17" s="202" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="203">
-        <v>5</v>
-      </c>
-      <c r="E17" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="F17" s="204" t="s">
-        <v>201</v>
-      </c>
-      <c r="G17" s="204" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="79"/>
-      <c r="B18" s="197">
-        <v>1.17</v>
-      </c>
-      <c r="C18" s="205" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="178">
+      <c r="E20" s="234" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="228" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="228" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="80"/>
+      <c r="B21" s="203" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="224" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="204">
         <v>2</v>
       </c>
-      <c r="E18" s="180" t="s">
-        <v>204</v>
-      </c>
-      <c r="F18" s="180" t="s">
-        <v>205</v>
-      </c>
-      <c r="G18" s="180"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="79"/>
-      <c r="B19" s="197">
-        <v>1.19</v>
-      </c>
-      <c r="C19" s="198" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="182">
+      <c r="E21" s="209" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="205" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="205"/>
+      <c r="H21" s="142"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="80"/>
+      <c r="B22" s="223">
+        <v>1.06</v>
+      </c>
+      <c r="C22" s="232" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="200">
         <v>3</v>
       </c>
-      <c r="E19" s="179" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="179" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="179"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="79"/>
-      <c r="B20" s="197"/>
-      <c r="C20" s="199" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="200">
+      <c r="E22" s="233" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="202" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="202"/>
+    </row>
+    <row r="23" s="185" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A23" s="210"/>
+      <c r="B23" s="235"/>
+      <c r="C23" s="236" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="237">
         <v>4</v>
       </c>
-      <c r="E20" s="206" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" s="201" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="201" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="79"/>
-      <c r="B21" s="197">
-        <v>1.29</v>
-      </c>
-      <c r="C21" s="198" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="182">
+      <c r="E23" s="238" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" s="239" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="239"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="240" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="241" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="242" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="243">
         <v>2</v>
       </c>
-      <c r="E21" s="179" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" s="179" t="s">
-        <v>215</v>
-      </c>
-      <c r="G21" s="179"/>
-      <c r="H21" s="132"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="79"/>
-      <c r="B22" s="197">
+      <c r="E24" s="244" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="245" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="245" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" s="142"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="240"/>
+      <c r="B25" s="203" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="224" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="204">
+        <v>3</v>
+      </c>
+      <c r="E25" s="209" t="s">
+        <v>231</v>
+      </c>
+      <c r="F25" s="205" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="205"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="240"/>
+      <c r="B26" s="223">
+        <v>1.04</v>
+      </c>
+      <c r="C26" s="232" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" s="200">
+        <v>4</v>
+      </c>
+      <c r="E26" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="202" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" s="202"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="240"/>
+      <c r="B27" s="203" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="224" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="204">
+        <v>2</v>
+      </c>
+      <c r="E27" s="201" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="205" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" s="205"/>
+      <c r="H27" s="142"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="240"/>
+      <c r="B28" s="203" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="232" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="200">
+        <v>3</v>
+      </c>
+      <c r="E28" s="246" t="s">
+        <v>241</v>
+      </c>
+      <c r="F28" s="202" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="202" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="142"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="240"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="224" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="204">
+        <v>4</v>
+      </c>
+      <c r="E29" s="205" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" s="205" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" s="205" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" spans="1:7">
+      <c r="A30" s="240"/>
+      <c r="B30" s="223"/>
+      <c r="C30" s="247" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="248" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="249" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="250" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" s="251" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="240"/>
+      <c r="B31" s="223">
         <v>1.06</v>
       </c>
-      <c r="C22" s="205" t="s">
-        <v>216</v>
-      </c>
-      <c r="D22" s="178">
+      <c r="C31" s="224" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" s="204">
         <v>3</v>
       </c>
-      <c r="E22" s="180" t="s">
-        <v>217</v>
-      </c>
-      <c r="F22" s="180" t="s">
-        <v>218</v>
-      </c>
-      <c r="G22" s="180"/>
-    </row>
-    <row r="23" s="163" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A23" s="185"/>
-      <c r="B23" s="207"/>
-      <c r="C23" s="208" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="209">
+      <c r="E31" s="209" t="s">
+        <v>254</v>
+      </c>
+      <c r="F31" s="205" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" s="205" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" s="185" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A32" s="252"/>
+      <c r="B32" s="235">
+        <v>1.09</v>
+      </c>
+      <c r="C32" s="253" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" s="213">
         <v>4</v>
       </c>
-      <c r="E23" s="210" t="s">
-        <v>220</v>
-      </c>
-      <c r="F23" s="210" t="s">
-        <v>221</v>
-      </c>
-      <c r="G23" s="210"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="211" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" s="212" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="213" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" s="214">
+      <c r="E32" s="214" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="215" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="215" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" s="216"/>
+      <c r="C33" s="254" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" s="243">
         <v>2</v>
       </c>
-      <c r="E24" s="215" t="s">
-        <v>225</v>
-      </c>
-      <c r="F24" s="215" t="s">
-        <v>226</v>
-      </c>
-      <c r="G24" s="215" t="s">
-        <v>227</v>
-      </c>
-      <c r="H24" s="132"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="211"/>
-      <c r="B25" s="181" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="198" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25" s="182">
+      <c r="E33" s="244" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" s="245" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" s="245" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="80"/>
+      <c r="B34" s="223">
+        <v>1.05</v>
+      </c>
+      <c r="C34" s="255" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="256">
         <v>3</v>
       </c>
-      <c r="E25" s="179" t="s">
-        <v>230</v>
-      </c>
-      <c r="F25" s="179" t="s">
-        <v>231</v>
-      </c>
-      <c r="G25" s="179"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="211"/>
-      <c r="B26" s="197">
+      <c r="E34" s="257" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="258" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" s="258" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="80"/>
+      <c r="B35" s="223">
+        <v>1.08</v>
+      </c>
+      <c r="C35" s="224" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35" s="204">
+        <v>4</v>
+      </c>
+      <c r="E35" s="209" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" s="205" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" s="205" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="80"/>
+      <c r="B36" s="223">
+        <v>1.13</v>
+      </c>
+      <c r="C36" s="232" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="200">
+        <v>2</v>
+      </c>
+      <c r="E36" s="246" t="s">
+        <v>275</v>
+      </c>
+      <c r="F36" s="202" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" s="202" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="80"/>
+      <c r="B37" s="223">
+        <v>1.16</v>
+      </c>
+      <c r="C37" s="224" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" s="204">
+        <v>3</v>
+      </c>
+      <c r="E37" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="F37" s="205" t="s">
+        <v>280</v>
+      </c>
+      <c r="G37" s="205" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="80"/>
+      <c r="B38" s="223">
         <v>1.04</v>
       </c>
-      <c r="C26" s="205" t="s">
-        <v>232</v>
-      </c>
-      <c r="D26" s="178">
+      <c r="C38" s="232" t="s">
+        <v>282</v>
+      </c>
+      <c r="D38" s="200">
         <v>4</v>
       </c>
-      <c r="E26" s="180" t="s">
-        <v>233</v>
-      </c>
-      <c r="F26" s="180" t="s">
-        <v>234</v>
-      </c>
-      <c r="G26" s="180"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="211"/>
-      <c r="B27" s="181" t="s">
-        <v>235</v>
-      </c>
-      <c r="C27" s="198" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="182">
-        <v>2</v>
-      </c>
-      <c r="E27" s="179" t="s">
-        <v>237</v>
-      </c>
-      <c r="F27" s="179" t="s">
-        <v>238</v>
-      </c>
-      <c r="G27" s="179"/>
-      <c r="H27" s="132"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="211"/>
-      <c r="B28" s="181" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="205" t="s">
-        <v>240</v>
-      </c>
-      <c r="D28" s="178">
-        <v>3</v>
-      </c>
-      <c r="E28" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F28" s="180" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="180" t="s">
-        <v>243</v>
-      </c>
-      <c r="H28" s="132"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="211"/>
-      <c r="B29" s="197"/>
-      <c r="C29" s="198" t="s">
-        <v>244</v>
-      </c>
-      <c r="D29" s="182">
-        <v>4</v>
-      </c>
-      <c r="E29" s="179" t="s">
-        <v>245</v>
-      </c>
-      <c r="F29" s="179" t="s">
-        <v>246</v>
-      </c>
-      <c r="G29" s="179" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" ht="40.5" spans="1:7">
-      <c r="A30" s="211"/>
-      <c r="B30" s="197"/>
-      <c r="C30" s="216" t="s">
-        <v>248</v>
-      </c>
-      <c r="D30" s="217" t="s">
-        <v>249</v>
-      </c>
-      <c r="E30" s="218" t="s">
-        <v>250</v>
-      </c>
-      <c r="F30" s="219" t="s">
-        <v>251</v>
-      </c>
-      <c r="G30" s="220" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="211"/>
-      <c r="B31" s="197">
-        <v>1.06</v>
-      </c>
-      <c r="C31" s="198" t="s">
-        <v>253</v>
-      </c>
-      <c r="D31" s="182">
-        <v>3</v>
-      </c>
-      <c r="E31" s="179" t="s">
-        <v>254</v>
-      </c>
-      <c r="F31" s="179" t="s">
-        <v>255</v>
-      </c>
-      <c r="G31" s="179" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" s="163" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A32" s="221"/>
-      <c r="B32" s="207">
-        <v>1.09</v>
-      </c>
-      <c r="C32" s="222" t="s">
-        <v>257</v>
-      </c>
-      <c r="D32" s="188">
-        <v>4</v>
-      </c>
-      <c r="E32" s="189" t="s">
-        <v>258</v>
-      </c>
-      <c r="F32" s="189" t="s">
-        <v>259</v>
-      </c>
-      <c r="G32" s="189" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="79" t="s">
-        <v>261</v>
-      </c>
-      <c r="B33" s="190"/>
-      <c r="C33" s="223" t="s">
-        <v>262</v>
-      </c>
-      <c r="D33" s="214">
-        <v>2</v>
-      </c>
-      <c r="E33" s="215" t="s">
-        <v>263</v>
-      </c>
-      <c r="F33" s="215" t="s">
-        <v>264</v>
-      </c>
-      <c r="G33" s="215" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="79"/>
-      <c r="B34" s="197">
-        <v>1.05</v>
-      </c>
-      <c r="C34" s="224" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" s="225">
-        <v>3</v>
-      </c>
-      <c r="E34" s="226" t="s">
-        <v>267</v>
-      </c>
-      <c r="F34" s="226" t="s">
-        <v>268</v>
-      </c>
-      <c r="G34" s="226" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="79"/>
-      <c r="B35" s="197">
-        <v>1.08</v>
-      </c>
-      <c r="C35" s="198" t="s">
-        <v>270</v>
-      </c>
-      <c r="D35" s="182">
-        <v>4</v>
-      </c>
-      <c r="E35" s="179" t="s">
-        <v>271</v>
-      </c>
-      <c r="F35" s="179" t="s">
-        <v>272</v>
-      </c>
-      <c r="G35" s="179" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="79"/>
-      <c r="B36" s="197">
-        <v>1.13</v>
-      </c>
-      <c r="C36" s="205" t="s">
-        <v>274</v>
-      </c>
-      <c r="D36" s="178">
-        <v>2</v>
-      </c>
-      <c r="E36" s="180" t="s">
-        <v>275</v>
-      </c>
-      <c r="F36" s="180" t="s">
-        <v>276</v>
-      </c>
-      <c r="G36" s="180" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="79"/>
-      <c r="B37" s="197">
-        <v>1.16</v>
-      </c>
-      <c r="C37" s="198" t="s">
-        <v>278</v>
-      </c>
-      <c r="D37" s="182">
-        <v>3</v>
-      </c>
-      <c r="E37" s="179" t="s">
-        <v>279</v>
-      </c>
-      <c r="F37" s="179" t="s">
-        <v>280</v>
-      </c>
-      <c r="G37" s="179" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="79"/>
-      <c r="B38" s="197">
-        <v>1.04</v>
-      </c>
-      <c r="C38" s="205" t="s">
-        <v>282</v>
-      </c>
-      <c r="D38" s="178">
-        <v>4</v>
-      </c>
-      <c r="E38" s="180" t="s">
+      <c r="E38" s="233" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="180" t="s">
+      <c r="F38" s="202" t="s">
         <v>284</v>
       </c>
-      <c r="G38" s="180" t="s">
+      <c r="G38" s="202" t="s">
         <v>285</v>
       </c>
       <c r="I38" t="s">
@@ -7291,822 +7424,826 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="79"/>
-      <c r="B39" s="181" t="s">
+      <c r="A39" s="80"/>
+      <c r="B39" s="203" t="s">
         <v>288</v>
       </c>
-      <c r="C39" s="198" t="s">
+      <c r="C39" s="224" t="s">
         <v>289</v>
       </c>
-      <c r="D39" s="182">
+      <c r="D39" s="204">
         <v>2</v>
       </c>
-      <c r="E39" s="179" t="s">
+      <c r="E39" s="209" t="s">
         <v>290</v>
       </c>
-      <c r="F39" s="179" t="s">
+      <c r="F39" s="205" t="s">
         <v>291</v>
       </c>
-      <c r="G39" s="227" t="s">
+      <c r="G39" s="259" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:7">
-      <c r="A40" s="79"/>
-      <c r="B40" s="228">
+      <c r="A40" s="80"/>
+      <c r="B40" s="260">
         <v>1.07</v>
       </c>
-      <c r="C40" s="229" t="s">
+      <c r="C40" s="261" t="s">
         <v>293</v>
       </c>
-      <c r="D40" s="230">
+      <c r="D40" s="262">
         <v>3</v>
       </c>
-      <c r="E40" s="231" t="s">
+      <c r="E40" s="263" t="s">
         <v>294</v>
       </c>
-      <c r="F40" s="231" t="s">
+      <c r="F40" s="264" t="s">
         <v>295</v>
       </c>
-      <c r="G40" s="231" t="s">
+      <c r="G40" s="264" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="41" s="163" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A41" s="185"/>
-      <c r="B41" s="207">
+    <row r="41" s="185" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A41" s="210"/>
+      <c r="B41" s="235">
         <v>1.01</v>
       </c>
-      <c r="C41" s="232"/>
-      <c r="D41" s="233">
+      <c r="C41" s="265"/>
+      <c r="D41" s="266">
         <v>4</v>
       </c>
-      <c r="E41" s="234" t="s">
+      <c r="E41" s="267" t="s">
         <v>297</v>
       </c>
-      <c r="F41" s="235" t="s">
+      <c r="F41" s="268" t="s">
         <v>298</v>
       </c>
-      <c r="G41" s="235" t="s">
+      <c r="G41" s="268" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="223" t="s">
+      <c r="B42" s="216"/>
+      <c r="C42" s="254" t="s">
         <v>301</v>
       </c>
-      <c r="D42" s="214">
+      <c r="D42" s="243">
         <v>2</v>
       </c>
-      <c r="E42" s="236" t="s">
+      <c r="E42" s="269" t="s">
         <v>302</v>
       </c>
-      <c r="F42" s="215" t="s">
+      <c r="F42" s="245" t="s">
         <v>303</v>
       </c>
-      <c r="G42" s="215" t="s">
+      <c r="G42" s="245" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="79"/>
-      <c r="B43" s="197">
-        <v>1.12</v>
-      </c>
-      <c r="C43" s="198" t="s">
+      <c r="A43" s="80"/>
+      <c r="B43" s="223">
+        <v>1.13</v>
+      </c>
+      <c r="C43" s="224" t="s">
         <v>305</v>
       </c>
-      <c r="D43" s="182">
+      <c r="D43" s="204">
         <v>3</v>
       </c>
-      <c r="E43" s="184" t="s">
+      <c r="E43" s="208" t="s">
         <v>306</v>
       </c>
-      <c r="F43" s="180" t="s">
+      <c r="F43" s="202" t="s">
         <v>307</v>
       </c>
-      <c r="G43" s="180" t="s">
+      <c r="G43" s="202" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="79"/>
-      <c r="B44" s="197">
+      <c r="A44" s="80"/>
+      <c r="B44" s="223">
+        <v>1.08</v>
+      </c>
+      <c r="C44" s="224" t="s">
+        <v>309</v>
+      </c>
+      <c r="D44" s="204">
+        <v>4</v>
+      </c>
+      <c r="E44" s="201" t="s">
+        <v>310</v>
+      </c>
+      <c r="F44" s="205" t="s">
+        <v>311</v>
+      </c>
+      <c r="G44" s="205" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="80"/>
+      <c r="B45" s="203" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="224" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" s="204">
+        <v>2</v>
+      </c>
+      <c r="E45" s="208" t="s">
+        <v>315</v>
+      </c>
+      <c r="F45" s="202" t="s">
+        <v>316</v>
+      </c>
+      <c r="G45" s="202" t="s">
+        <v>317</v>
+      </c>
+      <c r="I45" t="s">
+        <v>318</v>
+      </c>
+      <c r="J45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="80"/>
+      <c r="B46" s="223">
+        <v>1.09</v>
+      </c>
+      <c r="C46" s="224" t="s">
+        <v>320</v>
+      </c>
+      <c r="D46" s="204">
+        <v>3</v>
+      </c>
+      <c r="E46" s="209" t="s">
+        <v>321</v>
+      </c>
+      <c r="F46" s="205" t="s">
+        <v>322</v>
+      </c>
+      <c r="G46" s="205"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="80"/>
+      <c r="B47" s="223"/>
+      <c r="C47" s="255" t="s">
+        <v>323</v>
+      </c>
+      <c r="D47" s="256">
+        <v>4</v>
+      </c>
+      <c r="E47" s="270" t="s">
+        <v>324</v>
+      </c>
+      <c r="F47" s="258" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" s="258" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="80"/>
+      <c r="B48" s="223">
+        <v>1.02</v>
+      </c>
+      <c r="C48" s="220" t="s">
+        <v>326</v>
+      </c>
+      <c r="D48" s="221">
+        <v>2</v>
+      </c>
+      <c r="E48" s="271" t="s">
+        <v>327</v>
+      </c>
+      <c r="F48" s="222" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" s="222" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="80"/>
+      <c r="B49" s="223">
+        <v>1.08</v>
+      </c>
+      <c r="C49" s="224" t="s">
+        <v>330</v>
+      </c>
+      <c r="D49" s="204">
+        <v>3</v>
+      </c>
+      <c r="E49" s="272" t="s">
+        <v>331</v>
+      </c>
+      <c r="F49" s="202" t="s">
+        <v>332</v>
+      </c>
+      <c r="G49" s="202" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" s="185" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A50" s="210"/>
+      <c r="B50" s="273" t="s">
+        <v>334</v>
+      </c>
+      <c r="C50" s="236" t="s">
+        <v>335</v>
+      </c>
+      <c r="D50" s="237">
+        <v>4</v>
+      </c>
+      <c r="E50" s="274" t="s">
+        <v>336</v>
+      </c>
+      <c r="F50" s="239" t="s">
+        <v>337</v>
+      </c>
+      <c r="G50" s="239" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="80" t="s">
+        <v>339</v>
+      </c>
+      <c r="B51" s="216"/>
+      <c r="C51" s="254" t="s">
+        <v>340</v>
+      </c>
+      <c r="D51" s="275">
+        <v>2</v>
+      </c>
+      <c r="E51" s="276" t="s">
+        <v>341</v>
+      </c>
+      <c r="F51" s="277" t="s">
+        <v>342</v>
+      </c>
+      <c r="G51" s="278" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="80"/>
+      <c r="B52" s="223">
+        <v>1.03</v>
+      </c>
+      <c r="C52" s="224" t="s">
+        <v>344</v>
+      </c>
+      <c r="D52" s="204">
+        <v>3</v>
+      </c>
+      <c r="E52" s="209" t="s">
+        <v>345</v>
+      </c>
+      <c r="F52" s="205" t="s">
+        <v>346</v>
+      </c>
+      <c r="G52" s="205" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="80"/>
+      <c r="B53" s="223"/>
+      <c r="C53" s="224" t="s">
+        <v>348</v>
+      </c>
+      <c r="D53" s="204">
+        <v>4</v>
+      </c>
+      <c r="E53" s="272" t="s">
+        <v>349</v>
+      </c>
+      <c r="F53" s="202" t="s">
+        <v>350</v>
+      </c>
+      <c r="G53" s="202" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="80"/>
+      <c r="B54" s="223">
+        <v>1.15</v>
+      </c>
+      <c r="C54" s="224" t="s">
+        <v>352</v>
+      </c>
+      <c r="D54" s="204">
+        <v>2</v>
+      </c>
+      <c r="E54" s="201" t="s">
+        <v>353</v>
+      </c>
+      <c r="F54" s="205" t="s">
+        <v>354</v>
+      </c>
+      <c r="G54" s="205" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="80"/>
+      <c r="B55" s="223">
+        <v>1.08</v>
+      </c>
+      <c r="C55" s="224" t="s">
+        <v>356</v>
+      </c>
+      <c r="D55" s="204">
+        <v>3</v>
+      </c>
+      <c r="E55" s="272" t="s">
+        <v>357</v>
+      </c>
+      <c r="F55" s="202" t="s">
+        <v>358</v>
+      </c>
+      <c r="G55" s="202" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="80"/>
+      <c r="B56" s="223">
+        <v>1.13</v>
+      </c>
+      <c r="C56" s="224" t="s">
+        <v>360</v>
+      </c>
+      <c r="D56" s="204">
+        <v>4</v>
+      </c>
+      <c r="E56" s="209" t="s">
+        <v>361</v>
+      </c>
+      <c r="F56" s="205" t="s">
+        <v>362</v>
+      </c>
+      <c r="G56" s="205" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="80"/>
+      <c r="B57" s="223">
         <v>1.07</v>
       </c>
-      <c r="C44" s="198" t="s">
-        <v>309</v>
-      </c>
-      <c r="D44" s="182">
+      <c r="C57" s="224" t="s">
+        <v>364</v>
+      </c>
+      <c r="D57" s="204">
+        <v>2</v>
+      </c>
+      <c r="E57" s="272" t="s">
+        <v>365</v>
+      </c>
+      <c r="F57" s="202" t="s">
+        <v>366</v>
+      </c>
+      <c r="G57" s="205" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="80"/>
+      <c r="B58" s="223" t="s">
+        <v>368</v>
+      </c>
+      <c r="C58" s="279" t="s">
+        <v>369</v>
+      </c>
+      <c r="D58" s="280">
+        <v>3</v>
+      </c>
+      <c r="E58" s="281" t="s">
+        <v>370</v>
+      </c>
+      <c r="F58" s="282" t="s">
+        <v>371</v>
+      </c>
+      <c r="G58" s="282" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" s="185" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A59" s="210"/>
+      <c r="B59" s="235">
+        <v>1.09</v>
+      </c>
+      <c r="C59" s="236" t="s">
+        <v>373</v>
+      </c>
+      <c r="D59" s="237">
         <v>4</v>
       </c>
-      <c r="E44" s="179" t="s">
-        <v>310</v>
-      </c>
-      <c r="F44" s="179" t="s">
-        <v>311</v>
-      </c>
-      <c r="G44" s="179" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="79"/>
-      <c r="B45" s="181" t="s">
-        <v>228</v>
-      </c>
-      <c r="C45" s="198" t="s">
-        <v>313</v>
-      </c>
-      <c r="D45" s="182">
+      <c r="E59" s="283" t="s">
+        <v>374</v>
+      </c>
+      <c r="F59" s="215" t="s">
+        <v>375</v>
+      </c>
+      <c r="G59" s="284" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="80" t="s">
+        <v>377</v>
+      </c>
+      <c r="B60" s="216"/>
+      <c r="C60" s="254" t="s">
+        <v>378</v>
+      </c>
+      <c r="D60" s="243">
         <v>2</v>
       </c>
-      <c r="E45" s="184" t="s">
-        <v>314</v>
-      </c>
-      <c r="F45" s="180" t="s">
-        <v>315</v>
-      </c>
-      <c r="G45" s="180" t="s">
-        <v>316</v>
-      </c>
-      <c r="I45" t="s">
-        <v>317</v>
-      </c>
-      <c r="J45" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="79"/>
-      <c r="B46" s="197">
+      <c r="E60" s="245" t="s">
+        <v>379</v>
+      </c>
+      <c r="F60" s="245" t="s">
+        <v>380</v>
+      </c>
+      <c r="G60" s="245" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="80"/>
+      <c r="B61" s="223">
+        <v>1.07</v>
+      </c>
+      <c r="C61" s="224" t="s">
+        <v>382</v>
+      </c>
+      <c r="D61" s="204">
+        <v>3</v>
+      </c>
+      <c r="E61" s="208" t="s">
+        <v>383</v>
+      </c>
+      <c r="F61" s="202" t="s">
+        <v>384</v>
+      </c>
+      <c r="G61" s="202" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="80"/>
+      <c r="B62" s="223">
+        <v>1.05</v>
+      </c>
+      <c r="C62" s="285" t="s">
+        <v>386</v>
+      </c>
+      <c r="D62" s="286">
+        <v>4</v>
+      </c>
+      <c r="E62" s="287" t="s">
+        <v>387</v>
+      </c>
+      <c r="F62" s="288" t="s">
+        <v>388</v>
+      </c>
+      <c r="G62" s="288" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="80"/>
+      <c r="B63" s="223">
+        <v>1.02</v>
+      </c>
+      <c r="C63" s="224" t="s">
+        <v>390</v>
+      </c>
+      <c r="D63" s="204">
+        <v>2</v>
+      </c>
+      <c r="E63" s="272" t="s">
+        <v>391</v>
+      </c>
+      <c r="F63" s="202" t="s">
+        <v>392</v>
+      </c>
+      <c r="G63" s="202" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="80"/>
+      <c r="B64" s="223"/>
+      <c r="C64" s="224" t="s">
+        <v>394</v>
+      </c>
+      <c r="D64" s="204">
+        <v>3</v>
+      </c>
+      <c r="E64" s="201" t="s">
+        <v>395</v>
+      </c>
+      <c r="F64" s="205" t="s">
+        <v>396</v>
+      </c>
+      <c r="G64" s="205" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="80"/>
+      <c r="B65" s="203" t="s">
+        <v>398</v>
+      </c>
+      <c r="C65" s="224" t="s">
+        <v>399</v>
+      </c>
+      <c r="D65" s="204">
+        <v>4</v>
+      </c>
+      <c r="E65" s="272" t="s">
+        <v>400</v>
+      </c>
+      <c r="F65" s="202" t="s">
+        <v>401</v>
+      </c>
+      <c r="G65" s="202" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="80"/>
+      <c r="B66" s="223">
+        <v>1.04</v>
+      </c>
+      <c r="C66" s="224" t="s">
+        <v>403</v>
+      </c>
+      <c r="D66" s="204">
+        <v>2</v>
+      </c>
+      <c r="E66" s="201" t="s">
+        <v>404</v>
+      </c>
+      <c r="F66" s="205" t="s">
+        <v>405</v>
+      </c>
+      <c r="G66" s="205" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="80"/>
+      <c r="B67" s="223">
+        <v>1.04</v>
+      </c>
+      <c r="C67" s="224" t="s">
+        <v>407</v>
+      </c>
+      <c r="D67" s="204">
+        <v>3</v>
+      </c>
+      <c r="E67" s="289" t="s">
+        <v>408</v>
+      </c>
+      <c r="F67" s="202" t="s">
+        <v>409</v>
+      </c>
+      <c r="G67" s="202" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="68" s="185" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A68" s="210"/>
+      <c r="B68" s="273" t="s">
+        <v>398</v>
+      </c>
+      <c r="C68" s="236" t="s">
+        <v>411</v>
+      </c>
+      <c r="D68" s="237">
+        <v>4</v>
+      </c>
+      <c r="E68" s="274" t="s">
+        <v>412</v>
+      </c>
+      <c r="F68" s="239" t="s">
+        <v>413</v>
+      </c>
+      <c r="G68" s="239" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="69" s="142" customFormat="1" spans="1:7">
+      <c r="A69" s="240" t="s">
+        <v>414</v>
+      </c>
+      <c r="B69" s="223">
+        <v>1.15</v>
+      </c>
+      <c r="C69" s="290" t="s">
+        <v>415</v>
+      </c>
+      <c r="D69" s="195">
+        <v>2</v>
+      </c>
+      <c r="E69" s="291" t="s">
+        <v>416</v>
+      </c>
+      <c r="F69" s="292" t="s">
+        <v>417</v>
+      </c>
+      <c r="G69" s="197" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="240"/>
+      <c r="B70" s="223">
+        <v>1.02</v>
+      </c>
+      <c r="C70" s="224" t="s">
+        <v>419</v>
+      </c>
+      <c r="D70" s="204">
+        <v>3</v>
+      </c>
+      <c r="E70" s="209" t="s">
+        <v>420</v>
+      </c>
+      <c r="F70" s="205" t="s">
+        <v>421</v>
+      </c>
+      <c r="G70" s="205" t="s">
+        <v>422</v>
+      </c>
+      <c r="I70" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="240"/>
+      <c r="B71" s="223">
+        <v>1.05</v>
+      </c>
+      <c r="C71" s="224" t="s">
+        <v>424</v>
+      </c>
+      <c r="D71" s="204">
+        <v>4</v>
+      </c>
+      <c r="E71" s="208" t="s">
+        <v>425</v>
+      </c>
+      <c r="F71" s="202" t="s">
+        <v>426</v>
+      </c>
+      <c r="G71" s="202" t="s">
+        <v>427</v>
+      </c>
+      <c r="I71" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="240"/>
+      <c r="B72" s="203" t="s">
+        <v>398</v>
+      </c>
+      <c r="C72" s="224" t="s">
+        <v>429</v>
+      </c>
+      <c r="D72" s="204">
+        <v>2</v>
+      </c>
+      <c r="E72" s="209" t="s">
+        <v>430</v>
+      </c>
+      <c r="F72" s="205" t="s">
+        <v>431</v>
+      </c>
+      <c r="G72" s="205" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="73" s="142" customFormat="1" spans="1:9">
+      <c r="A73" s="240"/>
+      <c r="B73" s="223">
         <v>1.09</v>
       </c>
-      <c r="C46" s="198" t="s">
-        <v>319</v>
-      </c>
-      <c r="D46" s="182">
+      <c r="C73" s="224" t="s">
+        <v>432</v>
+      </c>
+      <c r="D73" s="204">
         <v>3</v>
       </c>
-      <c r="E46" s="179" t="s">
-        <v>320</v>
-      </c>
-      <c r="F46" s="179" t="s">
-        <v>321</v>
-      </c>
-      <c r="G46" s="179"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="79"/>
-      <c r="B47" s="197"/>
-      <c r="C47" s="224" t="s">
-        <v>322</v>
-      </c>
-      <c r="D47" s="225">
+      <c r="E73" s="289" t="s">
+        <v>433</v>
+      </c>
+      <c r="F73" s="205" t="s">
+        <v>434</v>
+      </c>
+      <c r="G73" s="205" t="s">
+        <v>435</v>
+      </c>
+      <c r="I73" s="142" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="240"/>
+      <c r="B74" s="223">
+        <v>1.05</v>
+      </c>
+      <c r="C74" s="279" t="s">
+        <v>437</v>
+      </c>
+      <c r="D74" s="280">
         <v>4</v>
       </c>
-      <c r="E47" s="237" t="s">
-        <v>323</v>
-      </c>
-      <c r="F47" s="226" t="s">
-        <v>324</v>
-      </c>
-      <c r="G47" s="226" t="s">
+      <c r="E74" s="293" t="s">
+        <v>438</v>
+      </c>
+      <c r="F74" s="282" t="s">
+        <v>439</v>
+      </c>
+      <c r="G74" s="282" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="79"/>
-      <c r="B48" s="197">
-        <v>1.02</v>
-      </c>
-      <c r="C48" s="194" t="s">
-        <v>325</v>
-      </c>
-      <c r="D48" s="195">
+    <row r="75" spans="1:7">
+      <c r="A75" s="240"/>
+      <c r="B75" s="260">
+        <v>1.08</v>
+      </c>
+      <c r="C75" s="294" t="s">
+        <v>440</v>
+      </c>
+      <c r="D75" s="295">
         <v>2</v>
       </c>
-      <c r="E48" s="196" t="s">
-        <v>326</v>
-      </c>
-      <c r="F48" s="196" t="s">
-        <v>327</v>
-      </c>
-      <c r="G48" s="196" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="79"/>
-      <c r="B49" s="197">
-        <v>1.07</v>
-      </c>
-      <c r="C49" s="198" t="s">
-        <v>329</v>
-      </c>
-      <c r="D49" s="182">
-        <v>3</v>
-      </c>
-      <c r="E49" s="184" t="s">
-        <v>330</v>
-      </c>
-      <c r="F49" s="180" t="s">
-        <v>331</v>
-      </c>
-      <c r="G49" s="180" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="50" s="163" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A50" s="185"/>
-      <c r="B50" s="238" t="s">
-        <v>333</v>
-      </c>
-      <c r="C50" s="208" t="s">
-        <v>334</v>
-      </c>
-      <c r="D50" s="209">
-        <v>4</v>
-      </c>
-      <c r="E50" s="210" t="s">
-        <v>335</v>
-      </c>
-      <c r="F50" s="210" t="s">
-        <v>336</v>
-      </c>
-      <c r="G50" s="210" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="79" t="s">
-        <v>338</v>
-      </c>
-      <c r="B51" s="190"/>
-      <c r="C51" s="223" t="s">
-        <v>339</v>
-      </c>
-      <c r="D51" s="239">
-        <v>2</v>
-      </c>
-      <c r="E51" s="240" t="s">
-        <v>340</v>
-      </c>
-      <c r="F51" s="241" t="s">
-        <v>341</v>
-      </c>
-      <c r="G51" s="242" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="79"/>
-      <c r="B52" s="197">
-        <v>1.03</v>
-      </c>
-      <c r="C52" s="198" t="s">
-        <v>343</v>
-      </c>
-      <c r="D52" s="182">
-        <v>3</v>
-      </c>
-      <c r="E52" s="179" t="s">
-        <v>344</v>
-      </c>
-      <c r="F52" s="179" t="s">
-        <v>345</v>
-      </c>
-      <c r="G52" s="179" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="79"/>
-      <c r="B53" s="197"/>
-      <c r="C53" s="198" t="s">
-        <v>347</v>
-      </c>
-      <c r="D53" s="182">
-        <v>4</v>
-      </c>
-      <c r="E53" s="184" t="s">
-        <v>348</v>
-      </c>
-      <c r="F53" s="180" t="s">
-        <v>349</v>
-      </c>
-      <c r="G53" s="180" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="79"/>
-      <c r="B54" s="197">
-        <v>1.15</v>
-      </c>
-      <c r="C54" s="198" t="s">
-        <v>351</v>
-      </c>
-      <c r="D54" s="182">
-        <v>2</v>
-      </c>
-      <c r="E54" s="179" t="s">
-        <v>352</v>
-      </c>
-      <c r="F54" s="179" t="s">
-        <v>353</v>
-      </c>
-      <c r="G54" s="179" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="79"/>
-      <c r="B55" s="197">
-        <v>1.08</v>
-      </c>
-      <c r="C55" s="198" t="s">
-        <v>355</v>
-      </c>
-      <c r="D55" s="182">
-        <v>3</v>
-      </c>
-      <c r="E55" s="184" t="s">
-        <v>356</v>
-      </c>
-      <c r="F55" s="180" t="s">
-        <v>357</v>
-      </c>
-      <c r="G55" s="180" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="79"/>
-      <c r="B56" s="197">
-        <v>1.13</v>
-      </c>
-      <c r="C56" s="198" t="s">
-        <v>359</v>
-      </c>
-      <c r="D56" s="182">
-        <v>4</v>
-      </c>
-      <c r="E56" s="179" t="s">
-        <v>360</v>
-      </c>
-      <c r="F56" s="179" t="s">
-        <v>361</v>
-      </c>
-      <c r="G56" s="179" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="79"/>
-      <c r="B57" s="197">
-        <v>1.07</v>
-      </c>
-      <c r="C57" s="198" t="s">
-        <v>363</v>
-      </c>
-      <c r="D57" s="182">
-        <v>2</v>
-      </c>
-      <c r="E57" s="184" t="s">
-        <v>364</v>
-      </c>
-      <c r="F57" s="180" t="s">
-        <v>365</v>
-      </c>
-      <c r="G57" s="179" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="79"/>
-      <c r="B58" s="197" t="s">
-        <v>367</v>
-      </c>
-      <c r="C58" s="243" t="s">
-        <v>368</v>
-      </c>
-      <c r="D58" s="244">
-        <v>3</v>
-      </c>
-      <c r="E58" s="245" t="s">
-        <v>369</v>
-      </c>
-      <c r="F58" s="245" t="s">
-        <v>370</v>
-      </c>
-      <c r="G58" s="245" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="59" s="163" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A59" s="185"/>
-      <c r="B59" s="207">
+      <c r="E75" s="296" t="s">
+        <v>441</v>
+      </c>
+      <c r="F75" s="297" t="s">
+        <v>442</v>
+      </c>
+      <c r="G75" s="297" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76" s="91" customFormat="1" spans="1:7">
+      <c r="A76" s="240"/>
+      <c r="B76" s="51">
         <v>1.09</v>
       </c>
-      <c r="C59" s="208" t="s">
-        <v>372</v>
-      </c>
-      <c r="D59" s="209">
-        <v>4</v>
-      </c>
-      <c r="E59" s="246" t="s">
-        <v>373</v>
-      </c>
-      <c r="F59" s="189" t="s">
-        <v>374</v>
-      </c>
-      <c r="G59" s="247" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="79" t="s">
-        <v>376</v>
-      </c>
-      <c r="B60" s="190"/>
-      <c r="C60" s="223" t="s">
-        <v>377</v>
-      </c>
-      <c r="D60" s="214">
-        <v>2</v>
-      </c>
-      <c r="E60" s="215" t="s">
-        <v>378</v>
-      </c>
-      <c r="F60" s="215" t="s">
-        <v>379</v>
-      </c>
-      <c r="G60" s="215" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="79"/>
-      <c r="B61" s="197">
-        <v>1.06</v>
-      </c>
-      <c r="C61" s="198" t="s">
-        <v>381</v>
-      </c>
-      <c r="D61" s="182">
-        <v>3</v>
-      </c>
-      <c r="E61" s="184" t="s">
-        <v>382</v>
-      </c>
-      <c r="F61" s="180" t="s">
-        <v>383</v>
-      </c>
-      <c r="G61" s="180" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="79"/>
-      <c r="B62" s="197">
-        <v>1.05</v>
-      </c>
-      <c r="C62" s="248" t="s">
-        <v>385</v>
-      </c>
-      <c r="D62" s="249">
-        <v>4</v>
-      </c>
-      <c r="E62" s="250" t="s">
-        <v>386</v>
-      </c>
-      <c r="F62" s="250" t="s">
-        <v>387</v>
-      </c>
-      <c r="G62" s="250" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="79"/>
-      <c r="B63" s="197"/>
-      <c r="C63" s="198" t="s">
-        <v>389</v>
-      </c>
-      <c r="D63" s="182">
-        <v>2</v>
-      </c>
-      <c r="E63" s="184" t="s">
-        <v>390</v>
-      </c>
-      <c r="F63" s="180" t="s">
-        <v>391</v>
-      </c>
-      <c r="G63" s="180" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="79"/>
-      <c r="B64" s="197"/>
-      <c r="C64" s="198" t="s">
-        <v>393</v>
-      </c>
-      <c r="D64" s="182">
-        <v>3</v>
-      </c>
-      <c r="E64" s="179" t="s">
-        <v>394</v>
-      </c>
-      <c r="F64" s="179" t="s">
-        <v>395</v>
-      </c>
-      <c r="G64" s="179" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="79"/>
-      <c r="B65" s="181" t="s">
-        <v>333</v>
-      </c>
-      <c r="C65" s="198" t="s">
-        <v>397</v>
-      </c>
-      <c r="D65" s="182">
-        <v>4</v>
-      </c>
-      <c r="E65" s="184" t="s">
-        <v>398</v>
-      </c>
-      <c r="F65" s="180" t="s">
-        <v>399</v>
-      </c>
-      <c r="G65" s="180" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="79"/>
-      <c r="B66" s="197">
-        <v>1.04</v>
-      </c>
-      <c r="C66" s="198" t="s">
-        <v>401</v>
-      </c>
-      <c r="D66" s="182">
-        <v>2</v>
-      </c>
-      <c r="E66" s="179" t="s">
-        <v>402</v>
-      </c>
-      <c r="F66" s="179" t="s">
-        <v>403</v>
-      </c>
-      <c r="G66" s="179" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="79"/>
-      <c r="B67" s="197"/>
-      <c r="C67" s="198" t="s">
-        <v>405</v>
-      </c>
-      <c r="D67" s="182">
-        <v>3</v>
-      </c>
-      <c r="E67" s="251" t="s">
-        <v>406</v>
-      </c>
-      <c r="F67" s="180" t="s">
-        <v>407</v>
-      </c>
-      <c r="G67" s="180" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="68" s="163" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A68" s="185"/>
-      <c r="B68" s="238" t="s">
-        <v>333</v>
-      </c>
-      <c r="C68" s="208" t="s">
-        <v>409</v>
-      </c>
-      <c r="D68" s="209">
-        <v>4</v>
-      </c>
-      <c r="E68" s="210" t="s">
-        <v>410</v>
-      </c>
-      <c r="F68" s="210" t="s">
-        <v>411</v>
-      </c>
-      <c r="G68" s="210" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="69" s="132" customFormat="1" spans="1:7">
-      <c r="A69" s="211" t="s">
-        <v>412</v>
-      </c>
-      <c r="B69" s="197">
-        <v>1.14</v>
-      </c>
-      <c r="C69" s="252" t="s">
-        <v>413</v>
-      </c>
-      <c r="D69" s="173">
-        <v>2</v>
-      </c>
-      <c r="E69" s="253" t="s">
-        <v>414</v>
-      </c>
-      <c r="F69" s="254" t="s">
-        <v>415</v>
-      </c>
-      <c r="G69" s="174" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="211"/>
-      <c r="B70" s="197">
-        <v>1.02</v>
-      </c>
-      <c r="C70" s="198" t="s">
-        <v>417</v>
-      </c>
-      <c r="D70" s="182">
-        <v>3</v>
-      </c>
-      <c r="E70" s="179" t="s">
-        <v>418</v>
-      </c>
-      <c r="F70" s="179" t="s">
-        <v>419</v>
-      </c>
-      <c r="G70" s="179" t="s">
-        <v>420</v>
-      </c>
-      <c r="I70" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="211"/>
-      <c r="B71" s="197">
-        <v>1.04</v>
-      </c>
-      <c r="C71" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="D71" s="182">
-        <v>4</v>
-      </c>
-      <c r="E71" s="184" t="s">
-        <v>423</v>
-      </c>
-      <c r="F71" s="180" t="s">
-        <v>424</v>
-      </c>
-      <c r="G71" s="180" t="s">
-        <v>425</v>
-      </c>
-      <c r="I71" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="211"/>
-      <c r="B72" s="181" t="s">
-        <v>427</v>
-      </c>
-      <c r="C72" s="198" t="s">
-        <v>428</v>
-      </c>
-      <c r="D72" s="182">
-        <v>2</v>
-      </c>
-      <c r="E72" s="179" t="s">
-        <v>429</v>
-      </c>
-      <c r="F72" s="179" t="s">
-        <v>430</v>
-      </c>
-      <c r="G72" s="179" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="73" s="132" customFormat="1" spans="1:9">
-      <c r="A73" s="211"/>
-      <c r="B73" s="197">
-        <v>1.09</v>
-      </c>
-      <c r="C73" s="198" t="s">
-        <v>431</v>
-      </c>
-      <c r="D73" s="182">
-        <v>3</v>
-      </c>
-      <c r="E73" s="251" t="s">
-        <v>432</v>
-      </c>
-      <c r="F73" s="179" t="s">
-        <v>433</v>
-      </c>
-      <c r="G73" s="179" t="s">
-        <v>434</v>
-      </c>
-      <c r="I73" s="132" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="211"/>
-      <c r="B74" s="197">
-        <v>1.04</v>
-      </c>
-      <c r="C74" s="243" t="s">
-        <v>436</v>
-      </c>
-      <c r="D74" s="244">
-        <v>4</v>
-      </c>
-      <c r="E74" s="245" t="s">
-        <v>437</v>
-      </c>
-      <c r="F74" s="245" t="s">
-        <v>438</v>
-      </c>
-      <c r="G74" s="245" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="211"/>
-      <c r="B75" s="228">
-        <v>1.08</v>
-      </c>
-      <c r="C75" s="255" t="s">
-        <v>439</v>
-      </c>
-      <c r="D75" s="256">
-        <v>2</v>
-      </c>
-      <c r="E75" s="257" t="s">
-        <v>440</v>
-      </c>
-      <c r="F75" s="258" t="s">
-        <v>441</v>
-      </c>
-      <c r="G75" s="258" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="76" s="88" customFormat="1" spans="1:7">
-      <c r="A76" s="211"/>
-      <c r="B76" s="51">
-        <v>1.07</v>
-      </c>
       <c r="C76" s="52" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D76" s="51">
         <v>3</v>
       </c>
-      <c r="E76" s="52" t="s">
-        <v>444</v>
+      <c r="E76" s="298" t="s">
+        <v>445</v>
       </c>
       <c r="F76" s="52" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G76" s="52" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="77" s="164" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A77" s="221"/>
-      <c r="B77" s="221">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="77" s="186" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A77" s="252"/>
+      <c r="B77" s="252">
         <v>1.01</v>
       </c>
-      <c r="D77" s="221">
+      <c r="D77" s="252">
         <v>4</v>
       </c>
-      <c r="E77" s="164" t="s">
-        <v>447</v>
-      </c>
-      <c r="F77" s="164" t="s">
+      <c r="E77" s="186" t="s">
         <v>448</v>
       </c>
-      <c r="G77" s="164" t="s">
+      <c r="F77" s="186" t="s">
         <v>449</v>
+      </c>
+      <c r="G77" s="186" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -8122,6 +8259,72 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId3" display="https://youtu.be/-vvmD_4qNMw"/>
+    <hyperlink ref="E3" r:id="rId4" display="Core Engine"/>
+    <hyperlink ref="E4" r:id="rId5" display="Battle Core"/>
+    <hyperlink ref="E5" r:id="rId6" display="Main Menu Core"/>
+    <hyperlink ref="E6" r:id="rId7" display="Message Core"/>
+    <hyperlink ref="E7" r:id="rId8" display="Events and Movement Core"/>
+    <hyperlink ref="E8" r:id="rId9" display="Items and Equips Core"/>
+    <hyperlink ref="E9" r:id="rId10" display="Skills and States Core"/>
+    <hyperlink ref="E10" r:id="rId11" display="Elements and Status Menu Core"/>
+    <hyperlink ref="E11" r:id="rId12" display="Save Core"/>
+    <hyperlink ref="E12" r:id="rId13" display="Options Core"/>
+    <hyperlink ref="E15" r:id="rId14" display="Victory Aftermath"/>
+    <hyperlink ref="E16" r:id="rId15" display="Button Common Events"/>
+    <hyperlink ref="E18" r:id="rId16" display="Quest Journal System"/>
+    <hyperlink ref="E19" r:id="rId17" display="Visual State Effects"/>
+    <hyperlink ref="E20" r:id="rId18" display="Picture Common Events"/>
+    <hyperlink ref="E21" r:id="rId19" display="Party System"/>
+    <hyperlink ref="E22" r:id="rId20" display="Skill Cooldowns"/>
+    <hyperlink ref="E23" r:id="rId21" display="Gab Window"/>
+    <hyperlink ref="E24" r:id="rId22" display="Battle System - ATB"/>
+    <hyperlink ref="E25" r:id="rId23" display="Action Sequence Camera"/>
+    <hyperlink ref="E26" r:id="rId24" display="Weapon Unleash"/>
+    <hyperlink ref="E27" r:id="rId25" display="Aggro Control System"/>
+    <hyperlink ref="E28" r:id="rId26" display="Battle AI"/>
+    <hyperlink ref="E31" r:id="rId27" display="Life State Effects"/>
+    <hyperlink ref="E32" r:id="rId28" display="Extra Enemy Drops"/>
+    <hyperlink ref="E33" r:id="rId29" display="Battle System - CTB"/>
+    <hyperlink ref="E34" r:id="rId30" display="Enemy Levels"/>
+    <hyperlink ref="E35" r:id="rId31" display="Proximity Compass"/>
+    <hyperlink ref="E36" r:id="rId32" display="Enhanced TP System"/>
+    <hyperlink ref="E37" r:id="rId33" display="Auto Skill Triggers"/>
+    <hyperlink ref="E38" r:id="rId34" display="Animated Pictures"/>
+    <hyperlink ref="E39" r:id="rId35" display="Item Crafting System"/>
+    <hyperlink ref="E40" r:id="rId36" display="Anti-Damage Barriers"/>
+    <hyperlink ref="E43" r:id="rId37" display="Weapon Animation"/>
+    <hyperlink ref="E44" r:id="rId38" display="Weakness Popups"/>
+    <hyperlink ref="E45" r:id="rId39" display="Skill Learn System"/>
+    <hyperlink ref="E46" r:id="rId40" display="Action Sequence Impact"/>
+    <hyperlink ref="E47" r:id="rId41" display="Database Inheritance"/>
+    <hyperlink ref="E48" r:id="rId42" display="Horror Effects"/>
+    <hyperlink ref="E49" r:id="rId43" display="Steal Items"/>
+    <hyperlink ref="E50" r:id="rId44" display="Encounter Effects"/>
+    <hyperlink ref="E51" r:id="rId45" display="Battle System - BTB"/>
+    <hyperlink ref="E52" r:id="rId46" display="Message Letter Sounds"/>
+    <hyperlink ref="E53" r:id="rId47" display="Battle Cursor"/>
+    <hyperlink ref="E54" r:id="rId48" display="Class Change System"/>
+    <hyperlink ref="E55" r:id="rId49" display="Action Sequence Projectiles"/>
+    <hyperlink ref="E56" r:id="rId50" display="Combat Log"/>
+    <hyperlink ref="E57" r:id="rId51" display="Bright Effects"/>
+    <hyperlink ref="E58" r:id="rId52" display="New Game Plus"/>
+    <hyperlink ref="E61" r:id="rId53" display="State Tooltips"/>
+    <hyperlink ref="E62" r:id="rId54" display="Visual Item Inventory"/>
+    <hyperlink ref="E63" r:id="rId55" display="Common Event Menu"/>
+    <hyperlink ref="E64" r:id="rId56" display="Visual Text Window"/>
+    <hyperlink ref="E65" r:id="rId57" display="Visual Fogs"/>
+    <hyperlink ref="E66" r:id="rId58" display="Equipment Set Bonuses"/>
+    <hyperlink ref="E67" r:id="rId59" display="Limited Skill Uses"/>
+    <hyperlink ref="E68" r:id="rId60" display="Visual Parallaxes"/>
+    <hyperlink ref="E69" r:id="rId61" display="Battle System - OTB"/>
+    <hyperlink ref="E70" r:id="rId62" display="Weakness Display"/>
+    <hyperlink ref="E71" r:id="rId63" display="Break Shields"/>
+    <hyperlink ref="E72" r:id="rId64" display="Weapon Swap System"/>
+    <hyperlink ref="E73" r:id="rId65" display="Boost Action"/>
+    <hyperlink ref="E74" r:id="rId66" display="Skill Containers"/>
+    <hyperlink ref="E75" r:id="rId67" display="Visual Battle Environment"/>
+    <hyperlink ref="E76" r:id="rId68" display="Sideview Battle UI"/>
+    <hyperlink ref="E30" r:id="rId69" display="Grid-Free Doodads&#10;DoodadsSystem&#10;DoodadsEditor"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8137,8 +8340,8 @@
   <sheetPr/>
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -8151,7 +8354,7 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:8">
       <c r="A1" s="37" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8163,7 +8366,7 @@
     </row>
     <row r="2" ht="20.25" spans="1:8">
       <c r="A2" s="37" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8175,10 +8378,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="38" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="41" t="s">
@@ -8202,10 +8405,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D4" s="44">
         <v>74</v>
@@ -8214,20 +8417,20 @@
         <v>2</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="48"/>
       <c r="B5" s="49"/>
       <c r="C5" s="50" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D5" s="50">
         <v>75</v>
@@ -8236,20 +8439,20 @@
         <v>3</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="48"/>
       <c r="B6" s="54"/>
       <c r="C6" s="55" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D6" s="55">
         <v>76</v>
@@ -8258,13 +8461,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -8272,10 +8475,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D7" s="44">
         <v>92</v>
@@ -8284,20 +8487,20 @@
         <v>2</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="48"/>
       <c r="B8" s="49"/>
       <c r="C8" s="50" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D8" s="50">
         <v>93</v>
@@ -8306,20 +8509,20 @@
         <v>3</v>
       </c>
       <c r="F8" s="52" t="s">
+        <v>470</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>471</v>
+      </c>
+      <c r="H8" s="64" t="s">
         <v>469</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>470</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:8">
       <c r="A9" s="48"/>
       <c r="B9" s="54"/>
       <c r="C9" s="65" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D9" s="65">
         <v>94</v>
@@ -8328,24 +8531,24 @@
         <v>4</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="69" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D10" s="72">
         <v>112</v>
@@ -8354,189 +8557,187 @@
         <v>2</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>477</v>
-      </c>
-      <c r="G10" s="74" t="s">
         <v>478</v>
       </c>
-      <c r="H10" s="75"/>
+      <c r="G10" s="75" t="s">
+        <v>479</v>
+      </c>
+      <c r="H10" s="76"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="69"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77">
-        <v>1.04</v>
-      </c>
-      <c r="D11" s="78">
+      <c r="B11" s="77"/>
+      <c r="C11" s="78">
+        <v>1.05</v>
+      </c>
+      <c r="D11" s="79">
         <v>113</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="80">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
-        <v>479</v>
+      <c r="F11" s="81" t="s">
+        <v>480</v>
       </c>
       <c r="G11" t="s">
-        <v>480</v>
-      </c>
-      <c r="H11" s="80"/>
+        <v>481</v>
+      </c>
+      <c r="H11" s="82"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="69"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="82">
-        <v>1.05</v>
-      </c>
-      <c r="D12" s="83">
+      <c r="B12" s="83"/>
+      <c r="C12" s="84">
+        <v>1.06</v>
+      </c>
+      <c r="D12" s="85">
         <v>114</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="86">
         <v>4</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>481</v>
+      <c r="F12" s="87" t="s">
+        <v>482</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H12" s="85"/>
+        <v>483</v>
+      </c>
+      <c r="H12" s="88"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="86" t="s">
-        <v>483</v>
-      </c>
-      <c r="B13" s="76" t="s">
+      <c r="A13" s="69" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13" s="77" t="s">
         <v>484</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>455</v>
-      </c>
-      <c r="D13" s="78">
+      <c r="C13" s="44">
+        <v>1.01</v>
+      </c>
+      <c r="D13" s="79">
         <v>142</v>
       </c>
-      <c r="E13" s="87">
+      <c r="E13" s="89">
         <v>2</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="90" t="s">
         <v>485</v>
       </c>
-      <c r="G13" s="88" t="s">
+      <c r="G13" s="91" t="s">
         <v>486</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="82" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="86"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D14" s="78">
+      <c r="A14" s="69"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="50">
+        <v>1.01</v>
+      </c>
+      <c r="D14" s="79">
         <v>143</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="89">
         <v>3</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="F14" s="92" t="s">
         <v>488</v>
       </c>
-      <c r="G14" s="88" t="s">
+      <c r="G14" s="91" t="s">
         <v>489</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="82" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="86"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="D15" s="78">
+      <c r="A15" s="69"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="93" t="s">
+        <v>491</v>
+      </c>
+      <c r="D15" s="79">
         <v>144</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="89">
         <v>4</v>
       </c>
-      <c r="F15" s="88" t="s">
-        <v>491</v>
-      </c>
-      <c r="G15" s="88" t="s">
+      <c r="F15" s="90" t="s">
         <v>492</v>
       </c>
-      <c r="H15" s="80"/>
+      <c r="G15" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="H15" s="82" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="69" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>493</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>455</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="C16" s="44"/>
       <c r="D16" s="44">
         <v>104</v>
       </c>
       <c r="E16" s="59">
         <v>4</v>
       </c>
-      <c r="F16" s="60" t="s">
-        <v>494</v>
+      <c r="F16" s="94" t="s">
+        <v>496</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>495</v>
-      </c>
-      <c r="H16" s="89" t="s">
-        <v>496</v>
+        <v>497</v>
+      </c>
+      <c r="H16" s="95" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="69"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D17" s="90">
+      <c r="B17" s="77"/>
+      <c r="C17" s="50">
+        <v>1.04</v>
+      </c>
+      <c r="D17" s="96">
         <v>105</v>
       </c>
-      <c r="E17" s="87">
+      <c r="E17" s="89">
         <v>4</v>
       </c>
-      <c r="F17" s="88" t="s">
-        <v>497</v>
-      </c>
-      <c r="G17" s="88" t="s">
-        <v>498</v>
-      </c>
-      <c r="H17" s="91" t="s">
+      <c r="F17" s="90" t="s">
         <v>499</v>
+      </c>
+      <c r="G17" s="91" t="s">
+        <v>500</v>
+      </c>
+      <c r="H17" s="97" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="69"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="D18" s="83">
+      <c r="B18" s="83"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="85">
         <v>106</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="86">
         <v>4</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>500</v>
+      <c r="F18" s="98" t="s">
+        <v>502</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="H18" s="85" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="H18" s="88" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -8544,69 +8745,69 @@
         <v>20</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D19" s="72">
         <v>127</v>
       </c>
-      <c r="E19" s="92">
+      <c r="E19" s="99">
         <v>4</v>
       </c>
-      <c r="F19" s="74" t="s">
-        <v>504</v>
-      </c>
-      <c r="G19" s="74" t="s">
-        <v>505</v>
-      </c>
-      <c r="H19" s="75" t="s">
+      <c r="F19" s="75" t="s">
         <v>506</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>507</v>
+      </c>
+      <c r="H19" s="76" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
       <c r="C20" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D20" s="78">
+        <v>456</v>
+      </c>
+      <c r="D20" s="79">
         <v>128</v>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="89">
         <v>4</v>
       </c>
-      <c r="F20" s="88" t="s">
-        <v>507</v>
-      </c>
-      <c r="G20" s="88" t="s">
-        <v>508</v>
-      </c>
-      <c r="H20" s="80" t="s">
+      <c r="F20" s="91" t="s">
         <v>509</v>
+      </c>
+      <c r="G20" s="91" t="s">
+        <v>510</v>
+      </c>
+      <c r="H20" s="82" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="48"/>
       <c r="B21" s="54"/>
       <c r="C21" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="D21" s="83">
+        <v>456</v>
+      </c>
+      <c r="D21" s="85">
         <v>129</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="86">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="H21" s="85" t="s">
-        <v>512</v>
+        <v>513</v>
+      </c>
+      <c r="H21" s="88" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:8">
@@ -8614,69 +8815,69 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>513</v>
-      </c>
-      <c r="C22" s="93" t="s">
-        <v>455</v>
+        <v>515</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>456</v>
       </c>
       <c r="D22" s="72">
         <v>77</v>
       </c>
-      <c r="E22" s="92">
+      <c r="E22" s="99">
         <v>2</v>
       </c>
-      <c r="F22" s="74" t="s">
-        <v>514</v>
-      </c>
-      <c r="G22" s="94" t="s">
-        <v>515</v>
-      </c>
-      <c r="H22" s="75" t="s">
+      <c r="F22" s="75" t="s">
         <v>516</v>
+      </c>
+      <c r="G22" s="101" t="s">
+        <v>517</v>
+      </c>
+      <c r="H22" s="76" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
       <c r="C23" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D23" s="78">
+        <v>456</v>
+      </c>
+      <c r="D23" s="79">
         <v>78</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E23" s="89">
         <v>3</v>
       </c>
-      <c r="F23" s="88" t="s">
-        <v>517</v>
-      </c>
-      <c r="G23" s="88" t="s">
-        <v>518</v>
-      </c>
-      <c r="H23" s="80" t="s">
+      <c r="F23" s="91" t="s">
         <v>519</v>
+      </c>
+      <c r="G23" s="91" t="s">
+        <v>520</v>
+      </c>
+      <c r="H23" s="82" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="48"/>
       <c r="B24" s="54"/>
       <c r="C24" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="D24" s="83">
+        <v>456</v>
+      </c>
+      <c r="D24" s="85">
         <v>79</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="86">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="H24" s="88" t="s">
         <v>521</v>
-      </c>
-      <c r="H24" s="85" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -8684,69 +8885,69 @@
         <v>20</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D25" s="72">
         <v>89</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="99">
         <v>2</v>
       </c>
-      <c r="F25" s="74" t="s">
-        <v>523</v>
-      </c>
-      <c r="G25" s="74" t="s">
-        <v>524</v>
-      </c>
-      <c r="H25" s="75" t="s">
+      <c r="F25" s="75" t="s">
         <v>525</v>
+      </c>
+      <c r="G25" s="75" t="s">
+        <v>526</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
       <c r="C26" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D26" s="78">
+        <v>456</v>
+      </c>
+      <c r="D26" s="79">
         <v>90</v>
       </c>
-      <c r="E26" s="87">
+      <c r="E26" s="89">
         <v>3</v>
       </c>
-      <c r="F26" s="88" t="s">
-        <v>526</v>
-      </c>
-      <c r="G26" s="88" t="s">
-        <v>527</v>
-      </c>
-      <c r="H26" s="80" t="s">
+      <c r="F26" s="91" t="s">
         <v>528</v>
+      </c>
+      <c r="G26" s="91" t="s">
+        <v>529</v>
+      </c>
+      <c r="H26" s="82" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="48"/>
       <c r="B27" s="54"/>
       <c r="C27" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="D27" s="83">
+        <v>456</v>
+      </c>
+      <c r="D27" s="85">
         <v>91</v>
       </c>
-      <c r="E27" s="84">
+      <c r="E27" s="86">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="H27" s="88" t="s">
         <v>530</v>
-      </c>
-      <c r="H27" s="85" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -8754,261 +8955,287 @@
         <v>20</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D28" s="72">
         <v>115</v>
       </c>
-      <c r="E28" s="92">
+      <c r="E28" s="99">
         <v>2</v>
       </c>
-      <c r="F28" s="74" t="s">
-        <v>532</v>
-      </c>
-      <c r="G28" s="74" t="s">
-        <v>533</v>
-      </c>
-      <c r="H28" s="75" t="s">
+      <c r="F28" s="75" t="s">
         <v>534</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>535</v>
+      </c>
+      <c r="H28" s="76" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
       <c r="C29" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D29" s="78">
+        <v>456</v>
+      </c>
+      <c r="D29" s="79">
         <v>116</v>
       </c>
-      <c r="E29" s="87">
+      <c r="E29" s="89">
         <v>3</v>
       </c>
-      <c r="F29" s="88" t="s">
-        <v>535</v>
-      </c>
-      <c r="G29" s="88" t="s">
-        <v>536</v>
-      </c>
-      <c r="H29" s="91" t="s">
+      <c r="F29" s="91" t="s">
         <v>537</v>
+      </c>
+      <c r="G29" s="91" t="s">
+        <v>538</v>
+      </c>
+      <c r="H29" s="97" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="48"/>
       <c r="B30" s="54"/>
       <c r="C30" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="D30" s="83">
+        <v>456</v>
+      </c>
+      <c r="D30" s="85">
         <v>117</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="86">
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="H30" s="85" t="s">
-        <v>540</v>
+        <v>541</v>
+      </c>
+      <c r="H30" s="88" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="95" t="s">
-        <v>474</v>
+      <c r="A31" s="102" t="s">
+        <v>475</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>541</v>
-      </c>
-      <c r="C31" s="96">
-        <v>1.04</v>
+        <v>543</v>
+      </c>
+      <c r="C31" s="103">
+        <v>1.06</v>
       </c>
       <c r="D31" s="72">
         <v>130</v>
       </c>
-      <c r="E31" s="92">
+      <c r="E31" s="99">
         <v>2</v>
       </c>
-      <c r="F31" s="97" t="s">
-        <v>542</v>
-      </c>
-      <c r="G31" s="74" t="s">
-        <v>543</v>
-      </c>
-      <c r="H31" s="98" t="s">
+      <c r="F31" s="104" t="s">
         <v>544</v>
       </c>
+      <c r="G31" s="75" t="s">
+        <v>545</v>
+      </c>
+      <c r="H31" s="105" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="99"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="90">
-        <v>1.03</v>
-      </c>
-      <c r="D32" s="78">
+      <c r="A32" s="106"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="96">
+        <v>1.05</v>
+      </c>
+      <c r="D32" s="79">
         <v>131</v>
       </c>
-      <c r="E32" s="87">
+      <c r="E32" s="89">
         <v>3</v>
       </c>
-      <c r="F32" s="100" t="s">
-        <v>545</v>
-      </c>
-      <c r="G32" s="88" t="s">
-        <v>546</v>
-      </c>
-      <c r="H32" s="91" t="s">
+      <c r="F32" s="107" t="s">
         <v>547</v>
       </c>
+      <c r="G32" s="91" t="s">
+        <v>548</v>
+      </c>
+      <c r="H32" s="97" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="101"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="102">
+      <c r="A33" s="108"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="109">
         <v>1.01</v>
       </c>
-      <c r="D33" s="83">
+      <c r="D33" s="85">
         <v>132</v>
       </c>
-      <c r="E33" s="84">
+      <c r="E33" s="86">
         <v>4</v>
       </c>
-      <c r="F33" s="103" t="s">
-        <v>548</v>
+      <c r="F33" s="110" t="s">
+        <v>550</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="H33" s="85" t="s">
-        <v>550</v>
+        <v>551</v>
+      </c>
+      <c r="H33" s="88" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="95" t="s">
-        <v>551</v>
+      <c r="A34" s="102" t="s">
+        <v>553</v>
       </c>
       <c r="B34" s="70" t="s">
-        <v>552</v>
-      </c>
-      <c r="C34" s="104" t="s">
-        <v>333</v>
+        <v>554</v>
+      </c>
+      <c r="C34" s="111" t="s">
+        <v>398</v>
       </c>
       <c r="D34" s="72">
         <v>98</v>
       </c>
-      <c r="E34" s="92">
+      <c r="E34" s="99">
         <v>2</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>553</v>
-      </c>
-      <c r="G34" s="74" t="s">
-        <v>554</v>
-      </c>
-      <c r="H34" s="105" t="s">
         <v>555</v>
       </c>
+      <c r="G34" s="75" t="s">
+        <v>556</v>
+      </c>
+      <c r="H34" s="112" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="99"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="106">
+      <c r="A35" s="106"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="113">
         <v>1.04</v>
       </c>
-      <c r="D35" s="78">
+      <c r="D35" s="79">
         <v>99</v>
       </c>
-      <c r="E35" s="79">
+      <c r="E35" s="80">
         <v>2</v>
       </c>
-      <c r="F35" t="s">
-        <v>556</v>
+      <c r="F35" s="114" t="s">
+        <v>558</v>
       </c>
       <c r="G35" t="s">
-        <v>557</v>
-      </c>
-      <c r="H35" s="107"/>
+        <v>559</v>
+      </c>
+      <c r="H35" s="115"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="101"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="108">
+      <c r="A36" s="108"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="116">
         <v>1.06</v>
       </c>
-      <c r="D36" s="83">
+      <c r="D36" s="85">
         <v>100</v>
       </c>
-      <c r="E36" s="84">
+      <c r="E36" s="86">
         <v>2</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>558</v>
+      <c r="F36" s="87" t="s">
+        <v>560</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="H36" s="109" t="s">
-        <v>560</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="H36" s="117"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="110">
+      <c r="A37" s="118">
         <v>30</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>561</v>
-      </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="74" t="s">
         <v>562</v>
       </c>
-      <c r="G37" s="74"/>
-      <c r="H37" s="105"/>
+      <c r="C37" s="119" t="s">
+        <v>456</v>
+      </c>
+      <c r="D37" s="72">
+        <v>145</v>
+      </c>
+      <c r="E37" s="99">
+        <v>2</v>
+      </c>
+      <c r="F37" s="120" t="s">
+        <v>563</v>
+      </c>
+      <c r="G37" s="75" t="s">
+        <v>564</v>
+      </c>
+      <c r="H37" s="121" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="112"/>
+      <c r="A38" s="122"/>
       <c r="B38" s="49"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="G38" s="88"/>
-      <c r="H38" s="107"/>
+      <c r="C38" s="123" t="s">
+        <v>456</v>
+      </c>
+      <c r="D38" s="124">
+        <v>146</v>
+      </c>
+      <c r="E38" s="89">
+        <v>2</v>
+      </c>
+      <c r="F38" s="92" t="s">
+        <v>566</v>
+      </c>
+      <c r="G38" s="91" t="s">
+        <v>567</v>
+      </c>
+      <c r="H38" s="115"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="112"/>
+      <c r="A39" s="122"/>
       <c r="B39" s="54"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="117"/>
+      <c r="C39" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="D39" s="126">
+        <v>147</v>
+      </c>
+      <c r="E39" s="86">
+        <v>2</v>
+      </c>
+      <c r="F39" s="98" t="s">
+        <v>568</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H39" s="117" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
     </row>
     <row r="41" ht="20.25" spans="1:8">
       <c r="A41" s="37" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9020,7 +9247,7 @@
     </row>
     <row r="42" ht="20.25" spans="1:8">
       <c r="A42" s="37" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9032,13 +9259,13 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="38" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D43" s="41" t="s">
         <v>129</v>
@@ -9057,14 +9284,14 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="119">
+      <c r="A44" s="128">
         <v>20</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D44" s="44">
         <v>80</v>
@@ -9072,21 +9299,21 @@
       <c r="E44" s="45">
         <v>2</v>
       </c>
-      <c r="F44" s="120" t="s">
-        <v>569</v>
-      </c>
-      <c r="G44" s="120" t="s">
-        <v>570</v>
-      </c>
-      <c r="H44" s="121" t="s">
-        <v>571</v>
+      <c r="F44" s="129" t="s">
+        <v>574</v>
+      </c>
+      <c r="G44" s="129" t="s">
+        <v>575</v>
+      </c>
+      <c r="H44" s="130" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="49"/>
       <c r="B45" s="49"/>
       <c r="C45" s="50" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D45" s="50">
         <v>81</v>
@@ -9094,21 +9321,21 @@
       <c r="E45" s="51">
         <v>3</v>
       </c>
-      <c r="F45" s="122" t="s">
-        <v>572</v>
-      </c>
-      <c r="G45" s="122" t="s">
-        <v>573</v>
-      </c>
-      <c r="H45" s="123" t="s">
-        <v>571</v>
+      <c r="F45" s="131" t="s">
+        <v>577</v>
+      </c>
+      <c r="G45" s="131" t="s">
+        <v>578</v>
+      </c>
+      <c r="H45" s="132" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="54"/>
       <c r="B46" s="54"/>
       <c r="C46" s="55" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D46" s="55">
         <v>82</v>
@@ -9116,44 +9343,44 @@
       <c r="E46" s="56">
         <v>4</v>
       </c>
-      <c r="F46" s="124" t="s">
-        <v>574</v>
-      </c>
-      <c r="G46" s="125" t="s">
-        <v>575</v>
-      </c>
-      <c r="H46" s="126" t="s">
-        <v>576</v>
+      <c r="F46" s="133" t="s">
+        <v>579</v>
+      </c>
+      <c r="G46" s="134" t="s">
+        <v>580</v>
+      </c>
+      <c r="H46" s="135" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="95" t="s">
-        <v>474</v>
+      <c r="A47" s="102" t="s">
+        <v>475</v>
       </c>
       <c r="B47" s="70" t="s">
-        <v>577</v>
-      </c>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127">
+        <v>582</v>
+      </c>
+      <c r="C47" s="44"/>
+      <c r="D47" s="136">
         <v>86</v>
       </c>
-      <c r="E47" s="128">
+      <c r="E47" s="137">
         <v>2</v>
       </c>
-      <c r="F47" s="129" t="s">
-        <v>578</v>
-      </c>
-      <c r="G47" s="130" t="s">
-        <v>579</v>
-      </c>
-      <c r="H47" s="131" t="s">
-        <v>580</v>
+      <c r="F47" s="138" t="s">
+        <v>583</v>
+      </c>
+      <c r="G47" s="139" t="s">
+        <v>584</v>
+      </c>
+      <c r="H47" s="140" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="99"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="106">
+      <c r="A48" s="106"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="113">
         <v>1.02</v>
       </c>
       <c r="D48" s="50">
@@ -9162,47 +9389,47 @@
       <c r="E48" s="51">
         <v>3</v>
       </c>
-      <c r="F48" s="132" t="s">
-        <v>581</v>
-      </c>
-      <c r="G48" s="132" t="s">
-        <v>582</v>
-      </c>
-      <c r="H48" s="133" t="s">
-        <v>583</v>
+      <c r="F48" s="141" t="s">
+        <v>586</v>
+      </c>
+      <c r="G48" s="142" t="s">
+        <v>587</v>
+      </c>
+      <c r="H48" s="143" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="101"/>
-      <c r="B49" s="81"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="83"/>
       <c r="C49" s="55">
         <v>1.01</v>
       </c>
       <c r="D49" s="55">
         <v>88</v>
       </c>
-      <c r="E49" s="134">
+      <c r="E49" s="144">
         <v>4</v>
       </c>
-      <c r="F49" s="103" t="s">
-        <v>584</v>
-      </c>
-      <c r="G49" s="103" t="s">
-        <v>585</v>
-      </c>
-      <c r="H49" s="135" t="s">
-        <v>586</v>
+      <c r="F49" s="110" t="s">
+        <v>589</v>
+      </c>
+      <c r="G49" s="145" t="s">
+        <v>590</v>
+      </c>
+      <c r="H49" s="146" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="136" t="s">
-        <v>483</v>
-      </c>
-      <c r="B50" s="137" t="s">
-        <v>587</v>
+      <c r="A50" s="147" t="s">
+        <v>592</v>
+      </c>
+      <c r="B50" s="148" t="s">
+        <v>593</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D50" s="44">
         <v>118</v>
@@ -9211,20 +9438,20 @@
         <v>2</v>
       </c>
       <c r="F50" s="60" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="G50" s="46" t="s">
-        <v>589</v>
-      </c>
-      <c r="H50" s="138" t="s">
-        <v>590</v>
+        <v>595</v>
+      </c>
+      <c r="H50" s="149" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="139"/>
-      <c r="B51" s="140"/>
+      <c r="A51" s="150"/>
+      <c r="B51" s="151"/>
       <c r="C51" s="50" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D51" s="50">
         <v>119</v>
@@ -9233,20 +9460,20 @@
         <v>3</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>592</v>
-      </c>
-      <c r="H51" s="141" t="s">
-        <v>593</v>
+        <v>598</v>
+      </c>
+      <c r="H51" s="152" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="142"/>
-      <c r="B52" s="143"/>
+      <c r="A52" s="153"/>
+      <c r="B52" s="154"/>
       <c r="C52" s="55" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D52" s="55">
         <v>120</v>
@@ -9254,25 +9481,25 @@
       <c r="E52" s="56">
         <v>4</v>
       </c>
-      <c r="F52" s="144" t="s">
-        <v>594</v>
-      </c>
-      <c r="G52" s="125" t="s">
-        <v>595</v>
-      </c>
-      <c r="H52" s="145" t="s">
-        <v>596</v>
+      <c r="F52" s="155" t="s">
+        <v>600</v>
+      </c>
+      <c r="G52" s="134" t="s">
+        <v>601</v>
+      </c>
+      <c r="H52" s="156" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="136" t="s">
-        <v>483</v>
+      <c r="A53" s="147" t="s">
+        <v>592</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D53" s="44">
         <v>124</v>
@@ -9280,713 +9507,729 @@
       <c r="E53" s="59">
         <v>2</v>
       </c>
-      <c r="F53" s="60" t="s">
-        <v>598</v>
+      <c r="F53" s="157" t="s">
+        <v>604</v>
       </c>
       <c r="G53" s="60" t="s">
-        <v>599</v>
-      </c>
-      <c r="H53" s="146" t="s">
-        <v>600</v>
+        <v>605</v>
+      </c>
+      <c r="H53" s="158" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="139"/>
+      <c r="A54" s="150"/>
       <c r="B54" s="49"/>
       <c r="C54" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D54" s="90">
+        <v>456</v>
+      </c>
+      <c r="D54" s="96">
         <v>125</v>
       </c>
-      <c r="E54" s="87">
+      <c r="E54" s="89">
         <v>3</v>
       </c>
-      <c r="F54" s="88" t="s">
-        <v>601</v>
-      </c>
-      <c r="G54" s="88" t="s">
-        <v>602</v>
-      </c>
-      <c r="H54" s="107" t="s">
-        <v>603</v>
+      <c r="F54" s="92" t="s">
+        <v>607</v>
+      </c>
+      <c r="G54" s="91" t="s">
+        <v>608</v>
+      </c>
+      <c r="H54" s="115" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="142"/>
+      <c r="A55" s="153"/>
       <c r="B55" s="54"/>
       <c r="C55" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="D55" s="83">
+        <v>456</v>
+      </c>
+      <c r="D55" s="85">
         <v>126</v>
       </c>
-      <c r="E55" s="84">
+      <c r="E55" s="86">
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="H55" s="117" t="s">
-        <v>606</v>
+        <v>611</v>
+      </c>
+      <c r="H55" s="159" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="119">
+      <c r="A56" s="128">
         <v>30</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D56" s="72">
         <v>101</v>
       </c>
-      <c r="E56" s="92">
+      <c r="E56" s="99">
         <v>3</v>
       </c>
-      <c r="F56" s="74" t="s">
-        <v>608</v>
-      </c>
-      <c r="G56" s="74" t="s">
-        <v>609</v>
-      </c>
-      <c r="H56" s="105" t="s">
-        <v>610</v>
+      <c r="F56" s="75" t="s">
+        <v>614</v>
+      </c>
+      <c r="G56" s="75" t="s">
+        <v>615</v>
+      </c>
+      <c r="H56" s="112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="49"/>
       <c r="B57" s="49"/>
       <c r="C57" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D57" s="78">
+        <v>456</v>
+      </c>
+      <c r="D57" s="79">
         <v>102</v>
       </c>
-      <c r="E57" s="87">
+      <c r="E57" s="89">
         <v>3</v>
       </c>
-      <c r="F57" s="88" t="s">
-        <v>611</v>
-      </c>
-      <c r="G57" s="88" t="s">
-        <v>612</v>
-      </c>
-      <c r="H57" s="107" t="s">
-        <v>613</v>
+      <c r="F57" s="91" t="s">
+        <v>617</v>
+      </c>
+      <c r="G57" s="91" t="s">
+        <v>618</v>
+      </c>
+      <c r="H57" s="115" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="54"/>
       <c r="B58" s="54"/>
       <c r="C58" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="D58" s="83">
+        <v>456</v>
+      </c>
+      <c r="D58" s="85">
         <v>103</v>
       </c>
-      <c r="E58" s="84">
+      <c r="E58" s="86">
         <v>3</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="H58" s="117" t="s">
-        <v>616</v>
+        <v>621</v>
+      </c>
+      <c r="H58" s="159" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="95" t="s">
-        <v>474</v>
+      <c r="A59" s="102" t="s">
+        <v>475</v>
       </c>
       <c r="B59" s="70" t="s">
-        <v>617</v>
-      </c>
-      <c r="C59" s="147" t="s">
-        <v>618</v>
+        <v>623</v>
+      </c>
+      <c r="C59" s="160" t="s">
+        <v>477</v>
       </c>
       <c r="D59" s="72">
         <v>136</v>
       </c>
-      <c r="E59" s="92">
+      <c r="E59" s="99">
         <v>3</v>
       </c>
-      <c r="F59" s="97" t="s">
-        <v>619</v>
-      </c>
-      <c r="G59" s="74" t="s">
-        <v>620</v>
-      </c>
-      <c r="H59" s="105" t="s">
-        <v>621</v>
+      <c r="F59" s="161" t="s">
+        <v>624</v>
+      </c>
+      <c r="G59" s="75" t="s">
+        <v>625</v>
+      </c>
+      <c r="H59" s="112" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="99"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="148" t="s">
-        <v>622</v>
-      </c>
-      <c r="D60" s="149">
+      <c r="A60" s="106"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="162" t="s">
+        <v>627</v>
+      </c>
+      <c r="D60" s="163">
         <v>137</v>
       </c>
-      <c r="E60" s="150">
+      <c r="E60" s="164">
         <v>3</v>
       </c>
-      <c r="F60" s="151" t="s">
-        <v>623</v>
-      </c>
-      <c r="G60" s="152" t="s">
-        <v>624</v>
-      </c>
-      <c r="H60" s="153" t="s">
-        <v>625</v>
+      <c r="F60" s="165" t="s">
+        <v>628</v>
+      </c>
+      <c r="G60" s="166" t="s">
+        <v>629</v>
+      </c>
+      <c r="H60" s="167" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="101"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="154" t="s">
-        <v>618</v>
-      </c>
-      <c r="D61" s="83">
+      <c r="A61" s="108"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="168" t="s">
+        <v>631</v>
+      </c>
+      <c r="D61" s="85">
         <v>138</v>
       </c>
-      <c r="E61" s="84">
+      <c r="E61" s="86">
         <v>3</v>
       </c>
-      <c r="F61" s="103" t="s">
-        <v>626</v>
+      <c r="F61" s="169" t="s">
+        <v>632</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="H61" s="117" t="s">
-        <v>628</v>
+        <v>633</v>
+      </c>
+      <c r="H61" s="159" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="119">
+      <c r="A62" s="128">
         <v>20</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D62" s="72">
         <v>107</v>
       </c>
-      <c r="E62" s="92">
+      <c r="E62" s="99">
         <v>3</v>
       </c>
-      <c r="F62" s="74" t="s">
-        <v>630</v>
-      </c>
-      <c r="G62" s="74" t="s">
-        <v>631</v>
-      </c>
-      <c r="H62" s="105" t="s">
-        <v>632</v>
+      <c r="F62" s="120" t="s">
+        <v>636</v>
+      </c>
+      <c r="G62" s="75" t="s">
+        <v>637</v>
+      </c>
+      <c r="H62" s="112" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="C63" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D63" s="78">
+        <v>456</v>
+      </c>
+      <c r="D63" s="79">
         <v>108</v>
       </c>
-      <c r="E63" s="87">
+      <c r="E63" s="89">
         <v>3</v>
       </c>
-      <c r="F63" s="155" t="s">
-        <v>633</v>
-      </c>
-      <c r="G63" s="88" t="s">
-        <v>634</v>
-      </c>
-      <c r="H63" s="107" t="s">
-        <v>635</v>
+      <c r="F63" s="170" t="s">
+        <v>639</v>
+      </c>
+      <c r="G63" s="91" t="s">
+        <v>640</v>
+      </c>
+      <c r="H63" s="115" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="54"/>
       <c r="B64" s="54"/>
       <c r="C64" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="D64" s="83">
+        <v>456</v>
+      </c>
+      <c r="D64" s="85">
         <v>109</v>
       </c>
-      <c r="E64" s="84">
+      <c r="E64" s="86">
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="H64" s="117" t="s">
-        <v>638</v>
+        <v>643</v>
+      </c>
+      <c r="H64" s="159" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="119">
+      <c r="A65" s="128">
         <v>30</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D65" s="72">
         <v>133</v>
       </c>
-      <c r="E65" s="92">
+      <c r="E65" s="99">
         <v>2</v>
       </c>
-      <c r="F65" s="74" t="s">
-        <v>640</v>
-      </c>
-      <c r="G65" s="74" t="s">
-        <v>641</v>
-      </c>
-      <c r="H65" s="105" t="s">
-        <v>638</v>
+      <c r="F65" s="75" t="s">
+        <v>646</v>
+      </c>
+      <c r="G65" s="75" t="s">
+        <v>647</v>
+      </c>
+      <c r="H65" s="112" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="49"/>
       <c r="B66" s="49"/>
       <c r="C66" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D66" s="78">
+        <v>456</v>
+      </c>
+      <c r="D66" s="79">
         <v>134</v>
       </c>
-      <c r="E66" s="87">
+      <c r="E66" s="89">
         <v>2</v>
       </c>
-      <c r="F66" s="88" t="s">
-        <v>642</v>
-      </c>
-      <c r="G66" s="88" t="s">
-        <v>643</v>
-      </c>
-      <c r="H66" s="107" t="s">
-        <v>638</v>
+      <c r="F66" s="91" t="s">
+        <v>648</v>
+      </c>
+      <c r="G66" s="91" t="s">
+        <v>649</v>
+      </c>
+      <c r="H66" s="115" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="54"/>
       <c r="B67" s="54"/>
       <c r="C67" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="D67" s="83">
+        <v>456</v>
+      </c>
+      <c r="D67" s="85">
         <v>135</v>
       </c>
-      <c r="E67" s="84">
+      <c r="E67" s="86">
         <v>2</v>
       </c>
       <c r="F67" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="H67" s="159" t="s">
         <v>644</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="H67" s="117" t="s">
-        <v>638</v>
-      </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="119">
+      <c r="A68" s="128">
         <v>20</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D68" s="72">
         <v>83</v>
       </c>
-      <c r="E68" s="92">
+      <c r="E68" s="99">
         <v>2</v>
       </c>
-      <c r="F68" s="74" t="s">
-        <v>647</v>
-      </c>
-      <c r="G68" s="74" t="s">
-        <v>648</v>
-      </c>
-      <c r="H68" s="105" t="s">
-        <v>649</v>
+      <c r="F68" s="120" t="s">
+        <v>653</v>
+      </c>
+      <c r="G68" s="75" t="s">
+        <v>654</v>
+      </c>
+      <c r="H68" s="112" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="49"/>
       <c r="B69" s="49"/>
       <c r="C69" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D69" s="156">
+        <v>456</v>
+      </c>
+      <c r="D69" s="171">
         <v>84</v>
       </c>
-      <c r="E69" s="157">
+      <c r="E69" s="172">
         <v>3</v>
       </c>
-      <c r="F69" s="158" t="s">
-        <v>650</v>
-      </c>
-      <c r="G69" s="158" t="s">
-        <v>651</v>
-      </c>
-      <c r="H69" s="159" t="s">
-        <v>652</v>
+      <c r="F69" s="173" t="s">
+        <v>656</v>
+      </c>
+      <c r="G69" s="173" t="s">
+        <v>657</v>
+      </c>
+      <c r="H69" s="174" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="54"/>
       <c r="B70" s="54"/>
       <c r="C70" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="D70" s="83">
+        <v>456</v>
+      </c>
+      <c r="D70" s="85">
         <v>85</v>
       </c>
-      <c r="E70" s="84">
+      <c r="E70" s="86">
         <v>4</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>653</v>
+      <c r="F70" s="98" t="s">
+        <v>659</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="H70" s="117" t="s">
-        <v>655</v>
+        <v>660</v>
+      </c>
+      <c r="H70" s="159" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="95" t="s">
-        <v>474</v>
+      <c r="A71" s="102" t="s">
+        <v>475</v>
       </c>
       <c r="B71" s="70" t="s">
-        <v>656</v>
-      </c>
-      <c r="C71" s="96">
+        <v>662</v>
+      </c>
+      <c r="C71" s="103">
         <v>1.04</v>
       </c>
       <c r="D71" s="72">
         <v>95</v>
       </c>
-      <c r="E71" s="92">
+      <c r="E71" s="99">
         <v>2</v>
       </c>
-      <c r="F71" s="97" t="s">
-        <v>657</v>
-      </c>
-      <c r="G71" s="160" t="s">
-        <v>658</v>
-      </c>
-      <c r="H71" s="105" t="s">
-        <v>659</v>
+      <c r="F71" s="161" t="s">
+        <v>663</v>
+      </c>
+      <c r="G71" s="175" t="s">
+        <v>664</v>
+      </c>
+      <c r="H71" s="112" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="99"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="148" t="s">
-        <v>476</v>
-      </c>
-      <c r="D72" s="78">
+      <c r="A72" s="106"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="162" t="s">
+        <v>491</v>
+      </c>
+      <c r="D72" s="79">
         <v>96</v>
       </c>
-      <c r="E72" s="79">
+      <c r="E72" s="80">
         <v>3</v>
       </c>
-      <c r="F72" s="132" t="s">
-        <v>660</v>
+      <c r="F72" s="141" t="s">
+        <v>666</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>661</v>
-      </c>
-      <c r="H72" s="107" t="s">
-        <v>662</v>
+        <v>667</v>
+      </c>
+      <c r="H72" s="115" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="101"/>
-      <c r="B73" s="81"/>
-      <c r="C73" s="154" t="s">
-        <v>476</v>
-      </c>
-      <c r="D73" s="83">
+      <c r="A73" s="108"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="168" t="s">
+        <v>491</v>
+      </c>
+      <c r="D73" s="85">
         <v>97</v>
       </c>
-      <c r="E73" s="84">
+      <c r="E73" s="86">
         <v>4</v>
       </c>
-      <c r="F73" s="103" t="s">
-        <v>663</v>
+      <c r="F73" s="169" t="s">
+        <v>669</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="H73" s="117" t="s">
-        <v>665</v>
+        <v>670</v>
+      </c>
+      <c r="H73" s="159" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="74" ht="27" spans="1:8">
-      <c r="A74" s="119">
+      <c r="A74" s="128">
         <v>20</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>666</v>
-      </c>
-      <c r="C74" s="93" t="s">
-        <v>455</v>
+        <v>672</v>
+      </c>
+      <c r="C74" s="100" t="s">
+        <v>456</v>
       </c>
       <c r="D74" s="72">
         <v>121</v>
       </c>
-      <c r="E74" s="92">
+      <c r="E74" s="99">
         <v>4</v>
       </c>
-      <c r="F74" s="74" t="s">
-        <v>667</v>
-      </c>
-      <c r="G74" s="74" t="s">
-        <v>668</v>
-      </c>
-      <c r="H74" s="161" t="s">
-        <v>669</v>
+      <c r="F74" s="75" t="s">
+        <v>673</v>
+      </c>
+      <c r="G74" s="75" t="s">
+        <v>674</v>
+      </c>
+      <c r="H74" s="176" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="49"/>
       <c r="B75" s="49"/>
       <c r="C75" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D75" s="78">
+        <v>456</v>
+      </c>
+      <c r="D75" s="79">
         <v>122</v>
       </c>
-      <c r="E75" s="87">
+      <c r="E75" s="89">
         <v>4</v>
       </c>
-      <c r="F75" s="88" t="s">
-        <v>670</v>
-      </c>
-      <c r="G75" s="88" t="s">
-        <v>671</v>
-      </c>
-      <c r="H75" s="107" t="s">
-        <v>638</v>
+      <c r="F75" s="91" t="s">
+        <v>676</v>
+      </c>
+      <c r="G75" s="91" t="s">
+        <v>677</v>
+      </c>
+      <c r="H75" s="115" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="54"/>
       <c r="B76" s="54"/>
       <c r="C76" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="D76" s="83">
+        <v>456</v>
+      </c>
+      <c r="D76" s="85">
         <v>123</v>
       </c>
-      <c r="E76" s="84">
+      <c r="E76" s="86">
         <v>4</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="H76" s="117" t="s">
-        <v>638</v>
+        <v>679</v>
+      </c>
+      <c r="H76" s="159" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="77" ht="27" spans="1:8">
-      <c r="A77" s="119">
+      <c r="A77" s="128">
         <v>20</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>674</v>
-      </c>
-      <c r="C77" s="93" t="s">
-        <v>455</v>
+        <v>680</v>
+      </c>
+      <c r="C77" s="100" t="s">
+        <v>456</v>
       </c>
       <c r="D77" s="72">
         <v>139</v>
       </c>
-      <c r="E77" s="92">
+      <c r="E77" s="99">
         <v>3</v>
       </c>
-      <c r="F77" s="74" t="s">
-        <v>675</v>
-      </c>
-      <c r="G77" s="74" t="s">
-        <v>676</v>
-      </c>
-      <c r="H77" s="161" t="s">
-        <v>677</v>
+      <c r="F77" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="G77" s="75" t="s">
+        <v>682</v>
+      </c>
+      <c r="H77" s="176" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="49"/>
       <c r="B78" s="49"/>
       <c r="C78" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D78" s="78">
+        <v>456</v>
+      </c>
+      <c r="D78" s="79">
         <v>140</v>
       </c>
-      <c r="E78" s="87">
+      <c r="E78" s="89">
         <v>3</v>
       </c>
-      <c r="F78" s="88" t="s">
-        <v>678</v>
-      </c>
-      <c r="G78" s="88" t="s">
-        <v>679</v>
-      </c>
-      <c r="H78" s="107" t="s">
-        <v>680</v>
+      <c r="F78" s="91" t="s">
+        <v>684</v>
+      </c>
+      <c r="G78" s="91" t="s">
+        <v>685</v>
+      </c>
+      <c r="H78" s="115" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="54"/>
       <c r="B79" s="54"/>
       <c r="C79" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="D79" s="83">
+        <v>456</v>
+      </c>
+      <c r="D79" s="85">
         <v>141</v>
       </c>
-      <c r="E79" s="84">
+      <c r="E79" s="86">
         <v>3</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="H79" s="117" t="s">
-        <v>683</v>
+        <v>688</v>
+      </c>
+      <c r="H79" s="159" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="119">
-        <v>30</v>
+      <c r="A80" s="102" t="s">
+        <v>553</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>684</v>
-      </c>
-      <c r="C80" s="93" t="s">
-        <v>455</v>
-      </c>
-      <c r="D80" s="162"/>
-      <c r="E80" s="92"/>
+        <v>690</v>
+      </c>
+      <c r="C80" s="100">
+        <v>1.02</v>
+      </c>
+      <c r="D80" s="72">
+        <v>148</v>
+      </c>
+      <c r="E80" s="99">
+        <v>2</v>
+      </c>
       <c r="F80" s="74" t="s">
-        <v>685</v>
-      </c>
-      <c r="G80" s="74" t="s">
-        <v>686</v>
-      </c>
-      <c r="H80" s="105"/>
+        <v>691</v>
+      </c>
+      <c r="G80" s="175" t="s">
+        <v>692</v>
+      </c>
+      <c r="H80" s="177" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="49"/>
+      <c r="A81" s="106"/>
       <c r="B81" s="49"/>
-      <c r="C81" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="88" t="s">
-        <v>687</v>
-      </c>
-      <c r="G81" s="88" t="s">
-        <v>688</v>
-      </c>
-      <c r="H81" s="107"/>
+      <c r="C81" s="50">
+        <v>1.03</v>
+      </c>
+      <c r="D81" s="79">
+        <v>149</v>
+      </c>
+      <c r="E81" s="89">
+        <v>2</v>
+      </c>
+      <c r="F81" s="90" t="s">
+        <v>694</v>
+      </c>
+      <c r="G81" s="91" t="s">
+        <v>695</v>
+      </c>
+      <c r="H81" s="115"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="54"/>
+      <c r="A82" s="108"/>
       <c r="B82" s="54"/>
-      <c r="C82" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="D82" s="16"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="H82" s="117"/>
+      <c r="C82" s="178">
+        <v>1.04</v>
+      </c>
+      <c r="D82" s="179">
+        <v>150</v>
+      </c>
+      <c r="E82" s="180">
+        <v>2</v>
+      </c>
+      <c r="F82" s="181" t="s">
+        <v>696</v>
+      </c>
+      <c r="G82" s="182" t="s">
+        <v>697</v>
+      </c>
+      <c r="H82" s="183" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="83" spans="4:8">
-      <c r="D83" s="162"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="74"/>
-      <c r="H83" s="105"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="99"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="75"/>
+      <c r="H83" s="112"/>
     </row>
     <row r="84" spans="4:8">
       <c r="D84" s="6"/>
-      <c r="E84" s="87"/>
-      <c r="F84" s="88"/>
-      <c r="G84" s="88"/>
-      <c r="H84" s="107"/>
+      <c r="E84" s="89"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="91"/>
+      <c r="H84" s="115"/>
     </row>
     <row r="85" spans="4:8">
       <c r="D85" s="16"/>
-      <c r="E85" s="84"/>
+      <c r="E85" s="86"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="117"/>
+      <c r="H85" s="159"/>
     </row>
     <row r="86" spans="4:8">
-      <c r="D86" s="162"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="74"/>
-      <c r="H86" s="105"/>
+      <c r="D86" s="184"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="112"/>
     </row>
     <row r="87" spans="4:8">
       <c r="D87" s="6"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="88"/>
-      <c r="G87" s="88"/>
-      <c r="H87" s="107"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="91"/>
+      <c r="G87" s="91"/>
+      <c r="H87" s="115"/>
     </row>
     <row r="88" spans="4:8">
       <c r="D88" s="16"/>
-      <c r="E88" s="84"/>
+      <c r="E88" s="86"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="117"/>
+      <c r="H88" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -10041,6 +10284,42 @@
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="B80:B82"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F68" r:id="rId3" display="Shop Common Events"/>
+    <hyperlink ref="F70" r:id="rId4" display="Fluctuating Shop Prices"/>
+    <hyperlink ref="F48" r:id="rId5" display="Battle Command - Talk"/>
+    <hyperlink ref="F49" r:id="rId6" display="Consumable Defensive States"/>
+    <hyperlink ref="F71" r:id="rId7" display="More Currencies"/>
+    <hyperlink ref="F72" r:id="rId8" display="One Time Purchase"/>
+    <hyperlink ref="F73" r:id="rId9" display="Randomize Shop"/>
+    <hyperlink ref="F34" r:id="rId10" display="Movement Effects"/>
+    <hyperlink ref="F35" r:id="rId11" display="Weather Effects"/>
+    <hyperlink ref="F36" r:id="rId12" display="LightingEffects"/>
+    <hyperlink ref="F16" r:id="rId13" display="Ambience Sounds"/>
+    <hyperlink ref="F17" r:id="rId14" display="Map Camera Zoom"/>
+    <hyperlink ref="F18" r:id="rId15" display="Map Damage Effect"/>
+    <hyperlink ref="F62" r:id="rId16" display="Frontview Battle UI"/>
+    <hyperlink ref="F10" r:id="rId17" display="Tutorial Panel Sys"/>
+    <hyperlink ref="F11" r:id="rId18" display="Event Chain React"/>
+    <hyperlink ref="F12" r:id="rId19" display="Unique Tile Effects"/>
+    <hyperlink ref="F53" r:id="rId20" display="Equip Battle Skills"/>
+    <hyperlink ref="F54" r:id="rId21" display="Skill Mastery"/>
+    <hyperlink ref="F31" r:id="rId22" display="Voice Acting Control"/>
+    <hyperlink ref="F32" r:id="rId23" display="Battle Voices"/>
+    <hyperlink ref="F33" r:id="rId24" display="Side Chatter"/>
+    <hyperlink ref="F59" r:id="rId25" display="Item Throw Skills"/>
+    <hyperlink ref="F60" r:id="rId26" display="Item Concoction Skills"/>
+    <hyperlink ref="F61" r:id="rId27" display="Item Amplify Skills"/>
+    <hyperlink ref="F13" r:id="rId28" display="QTE and Trigger System"/>
+    <hyperlink ref="F14" r:id="rId29" display="Event Signals"/>
+    <hyperlink ref="F15" r:id="rId30" display="Dice Rolls and RNG Seeds"/>
+    <hyperlink ref="F80" r:id="rId31" display="Equip Passive System"/>
+    <hyperlink ref="F81" r:id="rId32" display="Equip Medal System"/>
+    <hyperlink ref="F82" r:id="rId33" display="Battle Grid System"/>
+    <hyperlink ref="F37" r:id="rId34" display="Date &amp; Time System"/>
+    <hyperlink ref="F38" r:id="rId35" display="Picture Effects"/>
+    <hyperlink ref="F39" r:id="rId36" display="Tile Grafter System"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <tableParts count="2">
@@ -10055,8 +10334,8 @@
   <sheetPr/>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -10068,15 +10347,15 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="35" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="1" spans="2:2">
       <c r="B2" s="36" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10084,10 +10363,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="C3" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10095,10 +10374,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="C4" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10106,10 +10385,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="C5" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10117,10 +10396,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C6" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10128,10 +10407,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="C7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -10139,10 +10418,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="C8" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10150,10 +10429,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="C9" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10161,10 +10440,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C10" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -10172,15 +10451,15 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="C11" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -10188,10 +10467,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="C13" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -10199,15 +10478,15 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="C14" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10215,13 +10494,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="C16" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="D16" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10229,13 +10508,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="C17" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="D17" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -10243,13 +10522,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="C18" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="D18" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -10257,13 +10536,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="C19" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="D19" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -10271,10 +10550,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="C20" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -10282,13 +10561,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="C21" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="D21" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10296,13 +10575,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="C22" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="D22" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -10310,10 +10589,10 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="C23" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -10321,10 +10600,10 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="C24" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -10332,10 +10611,10 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="C25" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -10343,10 +10622,10 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="C26" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -10354,15 +10633,15 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="C27" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="28" s="34" customFormat="1" spans="2:2">
       <c r="B28" s="2" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -10370,10 +10649,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="C29" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -10381,10 +10660,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C30" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -10392,10 +10671,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="C31" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -10403,10 +10682,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="C32" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -10414,10 +10693,10 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="C33" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -10425,15 +10704,15 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="C34" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="2:2">
       <c r="B35" s="2" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -10441,10 +10720,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="C36" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -10452,10 +10731,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C37" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -10463,10 +10742,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="C38" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -10474,10 +10753,10 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="C39" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -10485,10 +10764,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="C40" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -10496,10 +10775,10 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="C41" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -10507,10 +10786,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="C42" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -10518,129 +10797,129 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="C43" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="44" s="34" customFormat="1" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="C45" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="D45" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="C46" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="D46" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="C47" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="D47" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="C48" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="D48" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="C49" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="D49" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="C50" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="D50" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="C51" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="D51" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="C52" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="D52" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="C53" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="C54" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -10654,7 +10933,7 @@
   <sheetPr/>
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -10669,69 +10948,69 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8"/>
       <c r="B2" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="C2" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="B3" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="D3" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="E3">
         <v>64</v>
@@ -10739,16 +11018,16 @@
     </row>
     <row r="4" ht="27" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="B4" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="D4" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="E4">
         <v>65</v>
@@ -10756,16 +11035,16 @@
     </row>
     <row r="5" ht="27" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="B5" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="D5" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="E5">
         <v>66</v>
@@ -10773,16 +11052,16 @@
     </row>
     <row r="6" ht="27" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="B6" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="D6" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="E6">
         <v>67</v>
@@ -10790,16 +11069,16 @@
     </row>
     <row r="7" ht="27" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="B7" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="D7" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="E7">
         <v>68</v>
@@ -10807,16 +11086,16 @@
     </row>
     <row r="8" ht="27" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="B8" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="D8" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="E8">
         <v>69</v>
@@ -10824,16 +11103,16 @@
     </row>
     <row r="9" ht="27" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="B9" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="D9" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="E9">
         <v>70</v>
@@ -10841,16 +11120,16 @@
     </row>
     <row r="10" ht="27" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="B10" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="D10" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="E10">
         <v>71</v>
@@ -10858,10 +11137,10 @@
     </row>
     <row r="11" s="2" customFormat="1" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="F11" s="7"/>
       <c r="M11" s="7"/>
@@ -10869,10 +11148,10 @@
     <row r="12" spans="1:5">
       <c r="A12" s="8"/>
       <c r="B12" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="C12" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="E12">
         <v>160</v>
@@ -10881,13 +11160,13 @@
     <row r="13" ht="27" spans="1:5">
       <c r="A13" s="8"/>
       <c r="B13" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="D13" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="E13">
         <v>165</v>
@@ -10896,13 +11175,13 @@
     <row r="14" ht="27" spans="1:5">
       <c r="A14" s="8"/>
       <c r="B14" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="D14" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="E14">
         <v>162</v>
@@ -10911,13 +11190,13 @@
     <row r="15" spans="1:5">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="C15" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="D15" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="E15">
         <v>84</v>
@@ -10925,22 +11204,22 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="F16" s="7"/>
       <c r="M16" s="7" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="C17" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -10955,13 +11234,13 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="C18" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="D18" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="E18">
         <v>82</v>
@@ -10971,287 +11250,287 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="32" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
     <row r="19" ht="27" spans="2:13">
       <c r="B19" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="D19" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="E19">
         <v>101</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="12" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="32" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
     </row>
     <row r="20" ht="27" spans="2:12">
       <c r="B20" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="D20" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="E20">
         <v>102</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="31"/>
       <c r="K20" s="12" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="L20" s="11"/>
     </row>
     <row r="21" ht="27" spans="2:13">
       <c r="B21" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="D21" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="E21">
         <v>71</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="32" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="6" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
     </row>
     <row r="22" ht="27" spans="2:13">
       <c r="B22" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="D22" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="E22">
         <v>223</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="14" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="32" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
     </row>
     <row r="23" ht="27" spans="2:13">
       <c r="B23" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="D23" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="E23">
         <v>140</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="12" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="33"/>
       <c r="K23" s="12" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
     </row>
     <row r="24" ht="27" spans="2:12">
       <c r="B24" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="D24" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="E24">
         <v>142</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="12" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="31"/>
       <c r="K24" s="11" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" ht="27" spans="2:12">
       <c r="B25" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="D25" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="E25">
         <v>105</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="12" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="31"/>
       <c r="K25" s="12" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="L25" s="11"/>
     </row>
     <row r="26" ht="27" spans="2:12">
       <c r="B26" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="D26" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="E26">
         <v>100</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="12" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="31"/>
       <c r="K26" s="12" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="L26" s="11"/>
     </row>
     <row r="27" ht="27" spans="2:12">
       <c r="B27" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="D27" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="E27">
         <v>99</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="12" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="31"/>
       <c r="K27" s="12" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="L27" s="11"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="F28" s="7"/>
       <c r="M28" s="7"/>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="D29" s="15"/>
       <c r="F29" s="16"/>
@@ -11259,1139 +11538,1139 @@
     </row>
     <row r="30" s="4" customFormat="1" spans="1:13">
       <c r="A30" s="4" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="F30" s="19"/>
       <c r="M30" s="19"/>
     </row>
     <row r="31" customFormat="1" spans="1:13">
       <c r="A31" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="C31" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="F31" s="6"/>
       <c r="M31" s="6"/>
     </row>
     <row r="32" customFormat="1" spans="1:13">
       <c r="A32" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="C32" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="F32" s="6"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" customFormat="1" spans="1:13">
       <c r="A33" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="C33" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="F33" s="6"/>
       <c r="M33" s="6"/>
     </row>
     <row r="34" s="3" customFormat="1" spans="1:13">
       <c r="A34" s="3" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="F34" s="16"/>
       <c r="M34" s="16"/>
     </row>
     <row r="35" customFormat="1" spans="1:13">
       <c r="A35" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="C35" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="F35" s="6"/>
       <c r="M35" s="6"/>
     </row>
     <row r="36" s="4" customFormat="1" spans="1:13">
       <c r="A36" s="4" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="F36" s="19"/>
       <c r="M36" s="19"/>
     </row>
     <row r="37" customFormat="1" spans="1:13">
       <c r="A37" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="C37" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="F37" s="6"/>
       <c r="M37" s="6"/>
     </row>
     <row r="38" customFormat="1" spans="1:13">
       <c r="A38" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="C38" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="F38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" s="3" customFormat="1" spans="1:13">
       <c r="A39" s="3" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="F39" s="16"/>
       <c r="M39" s="16"/>
     </row>
     <row r="40" customFormat="1" spans="1:13">
       <c r="A40" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="C40" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="F40" s="6"/>
       <c r="M40" s="6"/>
     </row>
     <row r="41" customFormat="1" spans="1:13">
       <c r="A41" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="C41" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="F41" s="6"/>
       <c r="M41" s="6"/>
     </row>
     <row r="42" s="4" customFormat="1" spans="1:13">
       <c r="A42" s="4" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="F42" s="19"/>
       <c r="M42" s="19"/>
     </row>
     <row r="43" customFormat="1" spans="1:13">
       <c r="A43" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="C43" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="F43" s="6"/>
       <c r="M43" s="6"/>
     </row>
     <row r="44" s="3" customFormat="1" spans="1:13">
       <c r="A44" s="3" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="F44" s="16"/>
       <c r="M44" s="16"/>
     </row>
     <row r="45" customFormat="1" spans="1:13">
       <c r="A45" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="C45" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="F45" s="6"/>
       <c r="M45" s="6"/>
     </row>
     <row r="46" customFormat="1" spans="1:13">
       <c r="A46" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="C46" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="F46" s="6"/>
       <c r="M46" s="6"/>
     </row>
     <row r="47" customFormat="1" spans="1:13">
       <c r="A47" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="C47" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="F47" s="6"/>
       <c r="M47" s="6"/>
     </row>
     <row r="48" s="4" customFormat="1" spans="1:13">
       <c r="A48" s="4" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="F48" s="19"/>
       <c r="M48" s="19"/>
     </row>
     <row r="49" s="3" customFormat="1" spans="1:13">
       <c r="A49" s="3" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="F49" s="16"/>
       <c r="M49" s="16"/>
     </row>
     <row r="50" customFormat="1" spans="1:13">
       <c r="A50" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="C50" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="F50" s="6"/>
       <c r="M50" s="6"/>
     </row>
     <row r="51" customFormat="1" spans="1:13">
       <c r="A51" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="B51" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="C51" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="F51" s="6"/>
       <c r="M51" s="6"/>
     </row>
     <row r="52" customFormat="1" spans="1:13">
       <c r="A52" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="B52" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="C52" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="F52" s="6"/>
       <c r="M52" s="6"/>
     </row>
     <row r="53" customFormat="1" spans="1:13">
       <c r="A53" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="B53" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="C53" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="F53" s="6"/>
       <c r="M53" s="6"/>
     </row>
     <row r="54" s="5" customFormat="1" spans="1:13">
       <c r="A54" s="5" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="F54" s="28"/>
       <c r="M54" s="28"/>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:13">
       <c r="A55" s="2" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="F55" s="7"/>
       <c r="M55" s="7"/>
     </row>
     <row r="56" customFormat="1" spans="1:13">
       <c r="A56" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="B56" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="F56" s="6"/>
       <c r="M56" s="6"/>
     </row>
     <row r="57" customFormat="1" ht="27" spans="1:13">
       <c r="A57" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="B57" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="D57" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="F57" s="6"/>
       <c r="M57" s="6"/>
     </row>
     <row r="58" customFormat="1" ht="27" spans="1:13">
       <c r="A58" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="B58" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="D58" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="F58" s="6"/>
       <c r="M58" s="6"/>
     </row>
     <row r="59" customFormat="1" ht="27" spans="1:13">
       <c r="A59" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="B59" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="D59" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="F59" s="6"/>
       <c r="M59" s="6"/>
     </row>
     <row r="60" customFormat="1" ht="27" spans="1:13">
       <c r="A60" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="B60" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="D60" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="F60" s="6"/>
       <c r="M60" s="6"/>
     </row>
     <row r="61" customFormat="1" ht="27" spans="1:13">
       <c r="A61" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="B61" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="D61" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="F61" s="6"/>
       <c r="M61" s="6"/>
     </row>
     <row r="62" customFormat="1" ht="27" spans="1:13">
       <c r="A62" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="B62" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="D62" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="F62" s="6"/>
       <c r="M62" s="6"/>
     </row>
     <row r="63" customFormat="1" ht="27" spans="1:13">
       <c r="A63" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="B63" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="D63" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="F63" s="6"/>
       <c r="M63" s="6"/>
     </row>
     <row r="64" customFormat="1" ht="27" spans="1:13">
       <c r="A64" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="B64" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="D64" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="F64" s="6"/>
       <c r="M64" s="6"/>
     </row>
     <row r="65" s="2" customFormat="1" spans="1:13">
       <c r="A65" s="2" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="F65" s="7"/>
       <c r="M65" s="7"/>
     </row>
     <row r="66" customFormat="1" spans="1:13">
       <c r="A66" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="B66" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="C66" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="F66" s="6"/>
       <c r="M66" s="6"/>
     </row>
     <row r="67" customFormat="1" spans="1:13">
       <c r="A67" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="B67" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="C67" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="F67" s="6"/>
       <c r="M67" s="6"/>
     </row>
     <row r="68" customFormat="1" spans="1:13">
       <c r="A68" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="B68" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="C68" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="F68" s="6"/>
       <c r="M68" s="6"/>
     </row>
     <row r="69" customFormat="1" spans="1:13">
       <c r="A69" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="B69" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="C69" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="F69" s="6"/>
       <c r="M69" s="6"/>
     </row>
     <row r="70" customFormat="1" spans="1:13">
       <c r="A70" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="B70" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="C70" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="F70" s="6"/>
       <c r="M70" s="6"/>
     </row>
     <row r="71" customFormat="1" spans="1:13">
       <c r="A71" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="B71" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="C71" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="F71" s="6"/>
       <c r="M71" s="6"/>
     </row>
     <row r="72" customFormat="1" spans="1:13">
       <c r="A72" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="B72" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="C72" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="F72" s="6"/>
       <c r="M72" s="6"/>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:13">
       <c r="A73" s="2" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="F73" s="7"/>
       <c r="M73" s="7"/>
     </row>
     <row r="74" customFormat="1" spans="1:13">
       <c r="A74" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="B74" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="C74" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="F74" s="6"/>
       <c r="M74" s="6"/>
     </row>
     <row r="75" customFormat="1" spans="1:13">
       <c r="A75" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="B75" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="C75" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="F75" s="6"/>
       <c r="M75" s="6"/>
     </row>
     <row r="76" customFormat="1" spans="1:13">
       <c r="A76" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="B76" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="C76" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="F76" s="6"/>
       <c r="M76" s="6"/>
     </row>
     <row r="77" customFormat="1" spans="1:13">
       <c r="A77" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="B77" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="C77" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="F77" s="6"/>
       <c r="M77" s="6"/>
     </row>
     <row r="78" customFormat="1" spans="1:13">
       <c r="A78" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="B78" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="C78" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="F78" s="6"/>
       <c r="M78" s="6"/>
     </row>
     <row r="79" customFormat="1" spans="1:13">
       <c r="A79" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="B79" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="C79" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
       <c r="F79" s="6"/>
       <c r="M79" s="6"/>
     </row>
     <row r="80" customFormat="1" spans="1:13">
       <c r="A80" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="B80" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="C80" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="F80" s="6"/>
       <c r="M80" s="6"/>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:13">
       <c r="A81" s="2" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="F81" s="7"/>
       <c r="M81" s="7"/>
     </row>
     <row r="82" customFormat="1" spans="1:13">
       <c r="A82" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="B82" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="C82" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="F82" s="6"/>
       <c r="M82" s="6"/>
     </row>
     <row r="83" customFormat="1" spans="1:13">
       <c r="A83" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="B83" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="C83" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="F83" s="6"/>
       <c r="M83" s="6"/>
     </row>
     <row r="84" customFormat="1" spans="1:13">
       <c r="A84" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="B84" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="C84" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="F84" s="6"/>
       <c r="M84" s="6"/>
     </row>
     <row r="85" customFormat="1" spans="1:13">
       <c r="A85" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="B85" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="C85" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="F85" s="6"/>
       <c r="M85" s="6"/>
     </row>
     <row r="86" customFormat="1" spans="1:13">
       <c r="A86" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="B86" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="C86" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="F86" s="6"/>
       <c r="M86" s="6"/>
     </row>
     <row r="87" customFormat="1" spans="1:13">
       <c r="A87" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="B87" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="C87" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="F87" s="6"/>
       <c r="M87" s="6"/>
     </row>
     <row r="88" customFormat="1" spans="1:13">
       <c r="A88" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="B88" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="C88" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="F88" s="6"/>
       <c r="M88" s="6"/>
     </row>
     <row r="89" customFormat="1" spans="1:13">
       <c r="A89" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="B89" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="C89" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="F89" s="6"/>
       <c r="M89" s="6"/>
     </row>
     <row r="90" customFormat="1" spans="1:13">
       <c r="A90" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="B90" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="C90" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="F90" s="6"/>
       <c r="M90" s="6"/>
     </row>
     <row r="91" customFormat="1" spans="1:13">
       <c r="A91" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="B91" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="C91" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="F91" s="6"/>
       <c r="M91" s="6"/>
     </row>
     <row r="92" customFormat="1" spans="1:13">
       <c r="A92" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="B92" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="C92" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="F92" s="6"/>
       <c r="M92" s="6"/>
     </row>
     <row r="93" customFormat="1" spans="1:13">
       <c r="A93" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="B93" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="C93" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="F93" s="6"/>
       <c r="M93" s="6"/>
     </row>
     <row r="94" customFormat="1" spans="1:13">
       <c r="A94" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="B94" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="C94" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="F94" s="6"/>
       <c r="M94" s="6"/>
     </row>
     <row r="95" customFormat="1" spans="1:13">
       <c r="A95" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="B95" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="C95" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="F95" s="6"/>
       <c r="M95" s="6"/>
     </row>
     <row r="96" s="2" customFormat="1" spans="1:13">
       <c r="A96" s="2" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="F96" s="7"/>
       <c r="M96" s="7"/>
     </row>
     <row r="97" customFormat="1" spans="1:13">
       <c r="A97" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="B97" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="C97" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="D97" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="F97" s="6"/>
       <c r="M97" s="6"/>
     </row>
     <row r="98" customFormat="1" spans="1:13">
       <c r="A98" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="B98" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="C98" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="D98" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="F98" s="6"/>
       <c r="M98" s="6"/>
     </row>
     <row r="99" customFormat="1" spans="1:13">
       <c r="A99" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="B99" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="C99" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="D99" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="F99" s="6"/>
       <c r="M99" s="6"/>
     </row>
     <row r="100" customFormat="1" spans="1:13">
       <c r="A100" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="B100" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="C100" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="D100" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="F100" s="6"/>
       <c r="M100" s="6"/>
     </row>
     <row r="101" customFormat="1" spans="1:13">
       <c r="A101" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="B101" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="C101" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="D101" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="F101" s="6"/>
       <c r="M101" s="6"/>
     </row>
     <row r="102" customFormat="1" spans="1:13">
       <c r="A102" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="B102" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="C102" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="D102" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="F102" s="6"/>
       <c r="M102" s="6"/>
     </row>
     <row r="103" customFormat="1" spans="1:13">
       <c r="A103" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="B103" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="C103" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="D103" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="F103" s="6"/>
       <c r="M103" s="6"/>
@@ -12439,7 +12718,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>

--- a/0-VisuStella插件说明.xlsx
+++ b/0-VisuStella插件说明.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1133">
   <si>
     <t>初始自带</t>
   </si>
@@ -951,6 +951,9 @@
     <t>可以做一些真言术盾、盾墙等技能。</t>
   </si>
   <si>
+    <t>#110</t>
+  </si>
+  <si>
     <t>CreditsPage</t>
   </si>
   <si>
@@ -1195,26 +1198,7 @@
     <t>New Game 加强</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>二周目时，继承一周目部分数据用的。暂时OFF掉。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>文档未翻译</t>
-    </r>
+    <t>二周目时，继承一周目部分数据用的。暂时OFF掉。</t>
   </si>
   <si>
     <t>#56</t>
@@ -1226,26 +1210,7 @@
     <t>菜单光标</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>文档未翻译。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>感觉不太需要翻译。直接用就行。</t>
-    </r>
+    <t>直接用就行。</t>
   </si>
   <si>
     <t>Wave 7</t>
@@ -3785,18 +3750,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3968,7 +3933,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4068,12 +4033,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
@@ -4725,13 +4684,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4755,16 +4714,16 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4773,89 +4732,89 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5108,21 +5067,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5143,7 +5099,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5170,7 +5126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -5188,7 +5144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
@@ -5233,7 +5189,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -5275,15 +5231,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="6" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="6" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5307,7 +5265,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5403,7 +5361,7 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5414,7 +5372,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="28" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="28" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5437,7 +5395,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5445,8 +5403,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5468,7 +5426,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5495,7 +5453,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5507,30 +5465,30 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5541,34 +5499,33 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="28" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -6635,13 +6592,13 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="142" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="141" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="9.625" customWidth="1"/>
     <col min="5" max="5" width="42.125" customWidth="1"/>
@@ -6650,644 +6607,644 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="2:7">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="186" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="188" t="s">
+      <c r="C1" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="189" t="s">
+      <c r="D1" s="188" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="189" t="s">
+      <c r="E1" s="188" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="189" t="s">
+      <c r="F1" s="188" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="189" t="s">
+      <c r="G1" s="188" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="189" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="190" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="191" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="299" t="s">
+      <c r="D2" s="297" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="299" t="s">
+      <c r="E2" s="297" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="192" t="s">
+      <c r="F2" s="191" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="192"/>
+      <c r="G2" s="191"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="193" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="195">
+      <c r="D3" s="194">
         <v>0</v>
       </c>
-      <c r="E3" s="196" t="s">
+      <c r="E3" s="195" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="197" t="s">
+      <c r="F3" s="196" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="196" t="s">
+      <c r="G3" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="142"/>
+      <c r="H3" s="141"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="80"/>
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="197" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="199" t="s">
+      <c r="C4" s="198" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="200">
+      <c r="D4" s="199">
         <v>1</v>
       </c>
-      <c r="E4" s="201" t="s">
+      <c r="E4" s="200" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="202" t="s">
+      <c r="F4" s="201" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="202"/>
-      <c r="H4" s="142"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="141"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="80"/>
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="199" t="s">
+      <c r="C5" s="198" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="204">
+      <c r="D5" s="203">
         <v>1</v>
       </c>
-      <c r="E5" s="201" t="s">
+      <c r="E5" s="200" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="205" t="s">
+      <c r="F5" s="204" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="205" t="s">
+      <c r="G5" s="204" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="142"/>
+      <c r="H5" s="141"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="80"/>
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="199" t="s">
+      <c r="C6" s="198" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <v>1</v>
       </c>
-      <c r="E6" s="201" t="s">
+      <c r="E6" s="200" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="202" t="s">
+      <c r="F6" s="201" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="202"/>
-      <c r="H6" s="142"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="141"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="80"/>
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="205" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="199" t="s">
+      <c r="C7" s="198" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="204">
+      <c r="D7" s="203">
         <v>1</v>
       </c>
-      <c r="E7" s="201" t="s">
+      <c r="E7" s="200" t="s">
         <v>161</v>
       </c>
-      <c r="F7" s="205" t="s">
+      <c r="F7" s="204" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="205"/>
+      <c r="G7" s="204"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="80"/>
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="206" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="199" t="s">
+      <c r="C8" s="198" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <v>1</v>
       </c>
-      <c r="E8" s="201" t="s">
+      <c r="E8" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="202" t="s">
+      <c r="F8" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="202"/>
-      <c r="H8" s="142"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="141"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="80"/>
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="199" t="s">
+      <c r="C9" s="198" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <v>1</v>
       </c>
-      <c r="E9" s="201" t="s">
+      <c r="E9" s="200" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="205" t="s">
+      <c r="F9" s="204" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="205"/>
+      <c r="G9" s="204"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="80"/>
-      <c r="B10" s="203" t="s">
+      <c r="B10" s="202" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="199" t="s">
+      <c r="C10" s="198" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <v>1</v>
       </c>
-      <c r="E10" s="208" t="s">
+      <c r="E10" s="207" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="202" t="s">
+      <c r="F10" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="202"/>
+      <c r="G10" s="201"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="80"/>
-      <c r="B11" s="203" t="s">
+      <c r="B11" s="202" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="199" t="s">
+      <c r="C11" s="198" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="204">
+      <c r="D11" s="203">
         <v>1</v>
       </c>
-      <c r="E11" s="209" t="s">
+      <c r="E11" s="208" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="205" t="s">
+      <c r="F11" s="204" t="s">
         <v>178</v>
       </c>
-      <c r="G11" s="205"/>
-    </row>
-    <row r="12" s="185" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A12" s="210"/>
-      <c r="B12" s="211" t="s">
+      <c r="G11" s="204"/>
+    </row>
+    <row r="12" s="184" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A12" s="209"/>
+      <c r="B12" s="210" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="212" t="s">
+      <c r="C12" s="211" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="213">
+      <c r="D12" s="212">
         <v>1</v>
       </c>
-      <c r="E12" s="214" t="s">
+      <c r="E12" s="213" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="215" t="s">
+      <c r="F12" s="214" t="s">
         <v>182</v>
       </c>
-      <c r="G12" s="215"/>
-      <c r="H12" s="186"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="185"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="216"/>
-      <c r="C13" s="217" t="s">
+      <c r="B13" s="215"/>
+      <c r="C13" s="216" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="218">
+      <c r="D13" s="217">
         <v>4</v>
       </c>
-      <c r="E13" s="219" t="s">
+      <c r="E13" s="218" t="s">
         <v>185</v>
       </c>
-      <c r="F13" s="219" t="s">
+      <c r="F13" s="218" t="s">
         <v>186</v>
       </c>
-      <c r="G13" s="219" t="s">
+      <c r="G13" s="218" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="80"/>
-      <c r="B14" s="203" t="s">
+      <c r="B14" s="202" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="220" t="s">
+      <c r="C14" s="219" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="221">
+      <c r="D14" s="220">
         <v>2</v>
       </c>
-      <c r="E14" s="222" t="s">
+      <c r="E14" s="221" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="222" t="s">
+      <c r="F14" s="221" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="222" t="s">
+      <c r="G14" s="221" t="s">
         <v>192</v>
       </c>
-      <c r="H14" s="142"/>
+      <c r="H14" s="141"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="80"/>
-      <c r="B15" s="223">
+      <c r="B15" s="222">
         <v>1.21</v>
       </c>
-      <c r="C15" s="224" t="s">
+      <c r="C15" s="223" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="204">
+      <c r="D15" s="203">
         <v>3</v>
       </c>
-      <c r="E15" s="201" t="s">
+      <c r="E15" s="200" t="s">
         <v>194</v>
       </c>
-      <c r="F15" s="205" t="s">
+      <c r="F15" s="204" t="s">
         <v>195</v>
       </c>
-      <c r="G15" s="205"/>
-    </row>
-    <row r="16" s="142" customFormat="1" spans="1:7">
+      <c r="G15" s="204"/>
+    </row>
+    <row r="16" s="141" customFormat="1" spans="1:7">
       <c r="A16" s="80"/>
-      <c r="B16" s="223">
+      <c r="B16" s="222">
         <v>1.07</v>
       </c>
-      <c r="C16" s="225" t="s">
+      <c r="C16" s="224" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="226">
+      <c r="D16" s="225">
         <v>4</v>
       </c>
-      <c r="E16" s="227" t="s">
+      <c r="E16" s="226" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="228" t="s">
+      <c r="F16" s="227" t="s">
         <v>198</v>
       </c>
-      <c r="G16" s="228" t="s">
+      <c r="G16" s="227" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="80"/>
-      <c r="B17" s="223"/>
-      <c r="C17" s="229" t="s">
+      <c r="B17" s="222"/>
+      <c r="C17" s="228" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="230">
+      <c r="D17" s="229">
         <v>5</v>
       </c>
-      <c r="E17" s="231" t="s">
+      <c r="E17" s="230" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="231" t="s">
+      <c r="F17" s="230" t="s">
         <v>202</v>
       </c>
-      <c r="G17" s="231" t="s">
+      <c r="G17" s="230" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="80"/>
-      <c r="B18" s="223">
+      <c r="B18" s="222">
         <v>1.17</v>
       </c>
-      <c r="C18" s="232" t="s">
+      <c r="C18" s="231" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="200">
+      <c r="D18" s="199">
         <v>2</v>
       </c>
-      <c r="E18" s="233" t="s">
+      <c r="E18" s="232" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="202" t="s">
+      <c r="F18" s="201" t="s">
         <v>206</v>
       </c>
-      <c r="G18" s="202"/>
+      <c r="G18" s="201"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="80"/>
-      <c r="B19" s="223">
+      <c r="B19" s="222">
         <v>1.19</v>
       </c>
-      <c r="C19" s="224" t="s">
+      <c r="C19" s="223" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="204">
+      <c r="D19" s="203">
         <v>3</v>
       </c>
-      <c r="E19" s="209" t="s">
+      <c r="E19" s="208" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="205" t="s">
+      <c r="F19" s="204" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="205"/>
+      <c r="G19" s="204"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="80"/>
-      <c r="B20" s="223"/>
-      <c r="C20" s="225" t="s">
+      <c r="B20" s="222"/>
+      <c r="C20" s="224" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="226">
+      <c r="D20" s="225">
         <v>4</v>
       </c>
-      <c r="E20" s="234" t="s">
+      <c r="E20" s="233" t="s">
         <v>211</v>
       </c>
-      <c r="F20" s="228" t="s">
+      <c r="F20" s="227" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="228" t="s">
+      <c r="G20" s="227" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="80"/>
-      <c r="B21" s="203" t="s">
+      <c r="B21" s="202" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="224" t="s">
+      <c r="C21" s="223" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="204">
+      <c r="D21" s="203">
         <v>2</v>
       </c>
-      <c r="E21" s="209" t="s">
+      <c r="E21" s="208" t="s">
         <v>216</v>
       </c>
-      <c r="F21" s="205" t="s">
+      <c r="F21" s="204" t="s">
         <v>217</v>
       </c>
-      <c r="G21" s="205"/>
-      <c r="H21" s="142"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="141"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="80"/>
-      <c r="B22" s="223">
+      <c r="B22" s="222">
         <v>1.06</v>
       </c>
-      <c r="C22" s="232" t="s">
+      <c r="C22" s="231" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="200">
+      <c r="D22" s="199">
         <v>3</v>
       </c>
-      <c r="E22" s="233" t="s">
+      <c r="E22" s="232" t="s">
         <v>219</v>
       </c>
-      <c r="F22" s="202" t="s">
+      <c r="F22" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="G22" s="202"/>
-    </row>
-    <row r="23" s="185" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A23" s="210"/>
-      <c r="B23" s="235"/>
-      <c r="C23" s="236" t="s">
+      <c r="G22" s="201"/>
+    </row>
+    <row r="23" s="184" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A23" s="209"/>
+      <c r="B23" s="234"/>
+      <c r="C23" s="235" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="237">
+      <c r="D23" s="236">
         <v>4</v>
       </c>
-      <c r="E23" s="238" t="s">
+      <c r="E23" s="237" t="s">
         <v>222</v>
       </c>
-      <c r="F23" s="239" t="s">
+      <c r="F23" s="238" t="s">
         <v>223</v>
       </c>
-      <c r="G23" s="239"/>
+      <c r="G23" s="238"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="240" t="s">
+      <c r="A24" s="239" t="s">
         <v>224</v>
       </c>
-      <c r="B24" s="241" t="s">
+      <c r="B24" s="240" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="242" t="s">
+      <c r="C24" s="241" t="s">
         <v>225</v>
       </c>
-      <c r="D24" s="243">
+      <c r="D24" s="242">
         <v>2</v>
       </c>
-      <c r="E24" s="244" t="s">
+      <c r="E24" s="243" t="s">
         <v>226</v>
       </c>
-      <c r="F24" s="245" t="s">
+      <c r="F24" s="244" t="s">
         <v>227</v>
       </c>
-      <c r="G24" s="245" t="s">
+      <c r="G24" s="244" t="s">
         <v>228</v>
       </c>
-      <c r="H24" s="142"/>
+      <c r="H24" s="141"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="240"/>
-      <c r="B25" s="203" t="s">
+      <c r="A25" s="239"/>
+      <c r="B25" s="202" t="s">
         <v>229</v>
       </c>
-      <c r="C25" s="224" t="s">
+      <c r="C25" s="223" t="s">
         <v>230</v>
       </c>
-      <c r="D25" s="204">
+      <c r="D25" s="203">
         <v>3</v>
       </c>
-      <c r="E25" s="209" t="s">
+      <c r="E25" s="208" t="s">
         <v>231</v>
       </c>
-      <c r="F25" s="205" t="s">
+      <c r="F25" s="204" t="s">
         <v>232</v>
       </c>
-      <c r="G25" s="205"/>
+      <c r="G25" s="204"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="240"/>
-      <c r="B26" s="223">
+      <c r="A26" s="239"/>
+      <c r="B26" s="222">
         <v>1.04</v>
       </c>
-      <c r="C26" s="232" t="s">
+      <c r="C26" s="231" t="s">
         <v>233</v>
       </c>
-      <c r="D26" s="200">
+      <c r="D26" s="199">
         <v>4</v>
       </c>
-      <c r="E26" s="233" t="s">
+      <c r="E26" s="232" t="s">
         <v>234</v>
       </c>
-      <c r="F26" s="202" t="s">
+      <c r="F26" s="201" t="s">
         <v>235</v>
       </c>
-      <c r="G26" s="202"/>
+      <c r="G26" s="201"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="240"/>
-      <c r="B27" s="203" t="s">
+      <c r="A27" s="239"/>
+      <c r="B27" s="202" t="s">
         <v>236</v>
       </c>
-      <c r="C27" s="224" t="s">
+      <c r="C27" s="223" t="s">
         <v>237</v>
       </c>
-      <c r="D27" s="204">
+      <c r="D27" s="203">
         <v>2</v>
       </c>
-      <c r="E27" s="201" t="s">
+      <c r="E27" s="200" t="s">
         <v>238</v>
       </c>
-      <c r="F27" s="205" t="s">
+      <c r="F27" s="204" t="s">
         <v>239</v>
       </c>
-      <c r="G27" s="205"/>
-      <c r="H27" s="142"/>
+      <c r="G27" s="204"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="240"/>
-      <c r="B28" s="203" t="s">
+      <c r="A28" s="239"/>
+      <c r="B28" s="202" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="232" t="s">
+      <c r="C28" s="231" t="s">
         <v>240</v>
       </c>
-      <c r="D28" s="200">
+      <c r="D28" s="199">
         <v>3</v>
       </c>
-      <c r="E28" s="246" t="s">
+      <c r="E28" s="245" t="s">
         <v>241</v>
       </c>
-      <c r="F28" s="202" t="s">
+      <c r="F28" s="201" t="s">
         <v>242</v>
       </c>
-      <c r="G28" s="202" t="s">
+      <c r="G28" s="201" t="s">
         <v>243</v>
       </c>
-      <c r="H28" s="142"/>
+      <c r="H28" s="141"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="240"/>
-      <c r="B29" s="223"/>
-      <c r="C29" s="224" t="s">
+      <c r="A29" s="239"/>
+      <c r="B29" s="222"/>
+      <c r="C29" s="223" t="s">
         <v>244</v>
       </c>
-      <c r="D29" s="204">
+      <c r="D29" s="203">
         <v>4</v>
       </c>
-      <c r="E29" s="205" t="s">
+      <c r="E29" s="204" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="205" t="s">
+      <c r="F29" s="204" t="s">
         <v>246</v>
       </c>
-      <c r="G29" s="205" t="s">
+      <c r="G29" s="204" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:7">
-      <c r="A30" s="240"/>
-      <c r="B30" s="223"/>
-      <c r="C30" s="247" t="s">
+      <c r="A30" s="239"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="246" t="s">
         <v>248</v>
       </c>
-      <c r="D30" s="248" t="s">
+      <c r="D30" s="247" t="s">
         <v>249</v>
       </c>
-      <c r="E30" s="249" t="s">
+      <c r="E30" s="248" t="s">
         <v>250</v>
       </c>
-      <c r="F30" s="250" t="s">
+      <c r="F30" s="249" t="s">
         <v>251</v>
       </c>
-      <c r="G30" s="251" t="s">
+      <c r="G30" s="250" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="240"/>
-      <c r="B31" s="223">
+      <c r="A31" s="239"/>
+      <c r="B31" s="222">
         <v>1.06</v>
       </c>
-      <c r="C31" s="224" t="s">
+      <c r="C31" s="223" t="s">
         <v>253</v>
       </c>
-      <c r="D31" s="204">
+      <c r="D31" s="203">
         <v>3</v>
       </c>
-      <c r="E31" s="209" t="s">
+      <c r="E31" s="208" t="s">
         <v>254</v>
       </c>
-      <c r="F31" s="205" t="s">
+      <c r="F31" s="204" t="s">
         <v>255</v>
       </c>
-      <c r="G31" s="205" t="s">
+      <c r="G31" s="204" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="32" s="185" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A32" s="252"/>
-      <c r="B32" s="235">
+    <row r="32" s="184" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A32" s="251"/>
+      <c r="B32" s="234">
         <v>1.09</v>
       </c>
-      <c r="C32" s="253" t="s">
+      <c r="C32" s="252" t="s">
         <v>257</v>
       </c>
-      <c r="D32" s="213">
+      <c r="D32" s="212">
         <v>4</v>
       </c>
-      <c r="E32" s="214" t="s">
+      <c r="E32" s="213" t="s">
         <v>258</v>
       </c>
-      <c r="F32" s="215" t="s">
+      <c r="F32" s="214" t="s">
         <v>259</v>
       </c>
-      <c r="G32" s="215" t="s">
+      <c r="G32" s="214" t="s">
         <v>260</v>
       </c>
     </row>
@@ -7295,125 +7252,125 @@
       <c r="A33" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="B33" s="216"/>
-      <c r="C33" s="254" t="s">
+      <c r="B33" s="215"/>
+      <c r="C33" s="253" t="s">
         <v>262</v>
       </c>
-      <c r="D33" s="243">
+      <c r="D33" s="242">
         <v>2</v>
       </c>
-      <c r="E33" s="244" t="s">
+      <c r="E33" s="243" t="s">
         <v>263</v>
       </c>
-      <c r="F33" s="245" t="s">
+      <c r="F33" s="244" t="s">
         <v>264</v>
       </c>
-      <c r="G33" s="245" t="s">
+      <c r="G33" s="244" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="80"/>
-      <c r="B34" s="223">
+      <c r="B34" s="222">
         <v>1.05</v>
       </c>
-      <c r="C34" s="255" t="s">
+      <c r="C34" s="254" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="256">
+      <c r="D34" s="255">
         <v>3</v>
       </c>
-      <c r="E34" s="257" t="s">
+      <c r="E34" s="256" t="s">
         <v>267</v>
       </c>
-      <c r="F34" s="258" t="s">
+      <c r="F34" s="257" t="s">
         <v>268</v>
       </c>
-      <c r="G34" s="258" t="s">
+      <c r="G34" s="257" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="80"/>
-      <c r="B35" s="223">
+      <c r="B35" s="222">
         <v>1.08</v>
       </c>
-      <c r="C35" s="224" t="s">
+      <c r="C35" s="223" t="s">
         <v>270</v>
       </c>
-      <c r="D35" s="204">
+      <c r="D35" s="203">
         <v>4</v>
       </c>
-      <c r="E35" s="209" t="s">
+      <c r="E35" s="208" t="s">
         <v>271</v>
       </c>
-      <c r="F35" s="205" t="s">
+      <c r="F35" s="204" t="s">
         <v>272</v>
       </c>
-      <c r="G35" s="205" t="s">
+      <c r="G35" s="204" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="80"/>
-      <c r="B36" s="223">
+      <c r="B36" s="222">
         <v>1.13</v>
       </c>
-      <c r="C36" s="232" t="s">
+      <c r="C36" s="231" t="s">
         <v>274</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="199">
         <v>2</v>
       </c>
-      <c r="E36" s="246" t="s">
+      <c r="E36" s="245" t="s">
         <v>275</v>
       </c>
-      <c r="F36" s="202" t="s">
+      <c r="F36" s="201" t="s">
         <v>276</v>
       </c>
-      <c r="G36" s="202" t="s">
+      <c r="G36" s="201" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="80"/>
-      <c r="B37" s="223">
+      <c r="B37" s="222">
         <v>1.16</v>
       </c>
-      <c r="C37" s="224" t="s">
+      <c r="C37" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="D37" s="204">
+      <c r="D37" s="203">
         <v>3</v>
       </c>
-      <c r="E37" s="209" t="s">
+      <c r="E37" s="208" t="s">
         <v>279</v>
       </c>
-      <c r="F37" s="205" t="s">
+      <c r="F37" s="204" t="s">
         <v>280</v>
       </c>
-      <c r="G37" s="205" t="s">
+      <c r="G37" s="204" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="80"/>
-      <c r="B38" s="223">
+      <c r="B38" s="222">
         <v>1.04</v>
       </c>
-      <c r="C38" s="232" t="s">
+      <c r="C38" s="231" t="s">
         <v>282</v>
       </c>
-      <c r="D38" s="200">
+      <c r="D38" s="199">
         <v>4</v>
       </c>
-      <c r="E38" s="233" t="s">
+      <c r="E38" s="245" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="202" t="s">
+      <c r="F38" s="201" t="s">
         <v>284</v>
       </c>
-      <c r="G38" s="202" t="s">
+      <c r="G38" s="201" t="s">
         <v>285</v>
       </c>
       <c r="I38" t="s">
@@ -7425,825 +7382,827 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="80"/>
-      <c r="B39" s="203" t="s">
+      <c r="B39" s="202" t="s">
         <v>288</v>
       </c>
-      <c r="C39" s="224" t="s">
+      <c r="C39" s="223" t="s">
         <v>289</v>
       </c>
-      <c r="D39" s="204">
+      <c r="D39" s="203">
         <v>2</v>
       </c>
-      <c r="E39" s="209" t="s">
+      <c r="E39" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="F39" s="205" t="s">
+      <c r="F39" s="204" t="s">
         <v>291</v>
       </c>
-      <c r="G39" s="259" t="s">
+      <c r="G39" s="258" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:7">
       <c r="A40" s="80"/>
-      <c r="B40" s="260">
+      <c r="B40" s="259">
         <v>1.07</v>
       </c>
-      <c r="C40" s="261" t="s">
+      <c r="C40" s="260" t="s">
         <v>293</v>
       </c>
-      <c r="D40" s="262">
+      <c r="D40" s="261">
         <v>3</v>
       </c>
-      <c r="E40" s="263" t="s">
+      <c r="E40" s="262" t="s">
         <v>294</v>
       </c>
-      <c r="F40" s="264" t="s">
+      <c r="F40" s="263" t="s">
         <v>295</v>
       </c>
-      <c r="G40" s="264" t="s">
+      <c r="G40" s="263" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="41" s="185" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A41" s="210"/>
-      <c r="B41" s="235">
+    <row r="41" s="184" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A41" s="209"/>
+      <c r="B41" s="234">
         <v>1.01</v>
       </c>
-      <c r="C41" s="265"/>
-      <c r="D41" s="266">
+      <c r="C41" s="264" t="s">
+        <v>297</v>
+      </c>
+      <c r="D41" s="265">
         <v>4</v>
       </c>
-      <c r="E41" s="267" t="s">
-        <v>297</v>
-      </c>
-      <c r="F41" s="268" t="s">
+      <c r="E41" s="266" t="s">
         <v>298</v>
       </c>
-      <c r="G41" s="268" t="s">
+      <c r="F41" s="267" t="s">
         <v>299</v>
+      </c>
+      <c r="G41" s="267" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="B42" s="216"/>
-      <c r="C42" s="254" t="s">
         <v>301</v>
       </c>
-      <c r="D42" s="243">
+      <c r="B42" s="215"/>
+      <c r="C42" s="253" t="s">
+        <v>302</v>
+      </c>
+      <c r="D42" s="242">
         <v>2</v>
       </c>
-      <c r="E42" s="269" t="s">
-        <v>302</v>
-      </c>
-      <c r="F42" s="245" t="s">
+      <c r="E42" s="268" t="s">
         <v>303</v>
       </c>
-      <c r="G42" s="245" t="s">
+      <c r="F42" s="244" t="s">
         <v>304</v>
+      </c>
+      <c r="G42" s="244" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="80"/>
-      <c r="B43" s="223">
+      <c r="B43" s="222">
         <v>1.13</v>
       </c>
-      <c r="C43" s="224" t="s">
-        <v>305</v>
-      </c>
-      <c r="D43" s="204">
+      <c r="C43" s="223" t="s">
+        <v>306</v>
+      </c>
+      <c r="D43" s="203">
         <v>3</v>
       </c>
-      <c r="E43" s="208" t="s">
-        <v>306</v>
-      </c>
-      <c r="F43" s="202" t="s">
+      <c r="E43" s="207" t="s">
         <v>307</v>
       </c>
-      <c r="G43" s="202" t="s">
+      <c r="F43" s="201" t="s">
         <v>308</v>
+      </c>
+      <c r="G43" s="201" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="80"/>
-      <c r="B44" s="223">
+      <c r="B44" s="222">
         <v>1.08</v>
       </c>
-      <c r="C44" s="224" t="s">
-        <v>309</v>
-      </c>
-      <c r="D44" s="204">
+      <c r="C44" s="223" t="s">
+        <v>310</v>
+      </c>
+      <c r="D44" s="203">
         <v>4</v>
       </c>
-      <c r="E44" s="201" t="s">
-        <v>310</v>
-      </c>
-      <c r="F44" s="205" t="s">
+      <c r="E44" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="G44" s="205" t="s">
+      <c r="F44" s="204" t="s">
         <v>312</v>
+      </c>
+      <c r="G44" s="204" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="80"/>
-      <c r="B45" s="203" t="s">
-        <v>313</v>
-      </c>
-      <c r="C45" s="224" t="s">
+      <c r="B45" s="202" t="s">
         <v>314</v>
       </c>
-      <c r="D45" s="204">
+      <c r="C45" s="223" t="s">
+        <v>315</v>
+      </c>
+      <c r="D45" s="203">
         <v>2</v>
       </c>
-      <c r="E45" s="208" t="s">
-        <v>315</v>
-      </c>
-      <c r="F45" s="202" t="s">
+      <c r="E45" s="207" t="s">
         <v>316</v>
       </c>
-      <c r="G45" s="202" t="s">
+      <c r="F45" s="201" t="s">
         <v>317</v>
       </c>
+      <c r="G45" s="201" t="s">
+        <v>318</v>
+      </c>
       <c r="I45" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="80"/>
-      <c r="B46" s="223">
+      <c r="B46" s="222">
         <v>1.09</v>
       </c>
-      <c r="C46" s="224" t="s">
-        <v>320</v>
-      </c>
-      <c r="D46" s="204">
+      <c r="C46" s="223" t="s">
+        <v>321</v>
+      </c>
+      <c r="D46" s="203">
         <v>3</v>
       </c>
-      <c r="E46" s="209" t="s">
-        <v>321</v>
-      </c>
-      <c r="F46" s="205" t="s">
+      <c r="E46" s="208" t="s">
         <v>322</v>
       </c>
-      <c r="G46" s="205"/>
+      <c r="F46" s="204" t="s">
+        <v>323</v>
+      </c>
+      <c r="G46" s="204"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="80"/>
-      <c r="B47" s="223"/>
-      <c r="C47" s="255" t="s">
-        <v>323</v>
-      </c>
-      <c r="D47" s="256">
+      <c r="B47" s="222"/>
+      <c r="C47" s="254" t="s">
+        <v>324</v>
+      </c>
+      <c r="D47" s="255">
         <v>4</v>
       </c>
-      <c r="E47" s="270" t="s">
-        <v>324</v>
-      </c>
-      <c r="F47" s="258" t="s">
+      <c r="E47" s="269" t="s">
         <v>325</v>
       </c>
-      <c r="G47" s="258" t="s">
-        <v>299</v>
+      <c r="F47" s="257" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" s="257" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="80"/>
-      <c r="B48" s="223">
+      <c r="B48" s="222">
         <v>1.02</v>
       </c>
-      <c r="C48" s="220" t="s">
-        <v>326</v>
-      </c>
-      <c r="D48" s="221">
+      <c r="C48" s="219" t="s">
+        <v>327</v>
+      </c>
+      <c r="D48" s="220">
         <v>2</v>
       </c>
-      <c r="E48" s="271" t="s">
-        <v>327</v>
-      </c>
-      <c r="F48" s="222" t="s">
+      <c r="E48" s="270" t="s">
         <v>328</v>
       </c>
-      <c r="G48" s="222" t="s">
+      <c r="F48" s="221" t="s">
         <v>329</v>
+      </c>
+      <c r="G48" s="221" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="80"/>
-      <c r="B49" s="223">
+      <c r="B49" s="222">
         <v>1.08</v>
       </c>
-      <c r="C49" s="224" t="s">
-        <v>330</v>
-      </c>
-      <c r="D49" s="204">
+      <c r="C49" s="223" t="s">
+        <v>331</v>
+      </c>
+      <c r="D49" s="203">
         <v>3</v>
       </c>
-      <c r="E49" s="272" t="s">
-        <v>331</v>
-      </c>
-      <c r="F49" s="202" t="s">
+      <c r="E49" s="271" t="s">
         <v>332</v>
       </c>
-      <c r="G49" s="202" t="s">
+      <c r="F49" s="201" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="50" s="185" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A50" s="210"/>
-      <c r="B50" s="273" t="s">
+      <c r="G49" s="201" t="s">
         <v>334</v>
       </c>
-      <c r="C50" s="236" t="s">
+    </row>
+    <row r="50" s="184" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A50" s="209"/>
+      <c r="B50" s="272" t="s">
         <v>335</v>
       </c>
-      <c r="D50" s="237">
+      <c r="C50" s="235" t="s">
+        <v>336</v>
+      </c>
+      <c r="D50" s="236">
         <v>4</v>
       </c>
-      <c r="E50" s="274" t="s">
-        <v>336</v>
-      </c>
-      <c r="F50" s="239" t="s">
+      <c r="E50" s="273" t="s">
         <v>337</v>
       </c>
-      <c r="G50" s="239" t="s">
+      <c r="F50" s="238" t="s">
         <v>338</v>
+      </c>
+      <c r="G50" s="238" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="80" t="s">
-        <v>339</v>
-      </c>
-      <c r="B51" s="216"/>
-      <c r="C51" s="254" t="s">
         <v>340</v>
       </c>
-      <c r="D51" s="275">
+      <c r="B51" s="215"/>
+      <c r="C51" s="253" t="s">
+        <v>341</v>
+      </c>
+      <c r="D51" s="274">
         <v>2</v>
       </c>
-      <c r="E51" s="276" t="s">
-        <v>341</v>
-      </c>
-      <c r="F51" s="277" t="s">
+      <c r="E51" s="275" t="s">
         <v>342</v>
       </c>
-      <c r="G51" s="278" t="s">
+      <c r="F51" s="276" t="s">
         <v>343</v>
+      </c>
+      <c r="G51" s="277" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="80"/>
-      <c r="B52" s="223">
+      <c r="B52" s="222">
         <v>1.03</v>
       </c>
-      <c r="C52" s="224" t="s">
-        <v>344</v>
-      </c>
-      <c r="D52" s="204">
+      <c r="C52" s="223" t="s">
+        <v>345</v>
+      </c>
+      <c r="D52" s="203">
         <v>3</v>
       </c>
-      <c r="E52" s="209" t="s">
-        <v>345</v>
-      </c>
-      <c r="F52" s="205" t="s">
+      <c r="E52" s="208" t="s">
         <v>346</v>
       </c>
-      <c r="G52" s="205" t="s">
+      <c r="F52" s="204" t="s">
         <v>347</v>
+      </c>
+      <c r="G52" s="204" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="80"/>
-      <c r="B53" s="223"/>
-      <c r="C53" s="224" t="s">
-        <v>348</v>
-      </c>
-      <c r="D53" s="204">
+      <c r="B53" s="222"/>
+      <c r="C53" s="223" t="s">
+        <v>349</v>
+      </c>
+      <c r="D53" s="203">
         <v>4</v>
       </c>
-      <c r="E53" s="272" t="s">
-        <v>349</v>
-      </c>
-      <c r="F53" s="202" t="s">
+      <c r="E53" s="271" t="s">
         <v>350</v>
       </c>
-      <c r="G53" s="202" t="s">
+      <c r="F53" s="201" t="s">
         <v>351</v>
+      </c>
+      <c r="G53" s="201" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="80"/>
-      <c r="B54" s="223">
+      <c r="B54" s="222">
         <v>1.15</v>
       </c>
-      <c r="C54" s="224" t="s">
-        <v>352</v>
-      </c>
-      <c r="D54" s="204">
+      <c r="C54" s="223" t="s">
+        <v>353</v>
+      </c>
+      <c r="D54" s="203">
         <v>2</v>
       </c>
-      <c r="E54" s="201" t="s">
-        <v>353</v>
-      </c>
-      <c r="F54" s="205" t="s">
+      <c r="E54" s="200" t="s">
         <v>354</v>
       </c>
-      <c r="G54" s="205" t="s">
+      <c r="F54" s="204" t="s">
         <v>355</v>
+      </c>
+      <c r="G54" s="204" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="80"/>
-      <c r="B55" s="223">
+      <c r="B55" s="222">
         <v>1.08</v>
       </c>
-      <c r="C55" s="224" t="s">
-        <v>356</v>
-      </c>
-      <c r="D55" s="204">
+      <c r="C55" s="223" t="s">
+        <v>357</v>
+      </c>
+      <c r="D55" s="203">
         <v>3</v>
       </c>
-      <c r="E55" s="272" t="s">
-        <v>357</v>
-      </c>
-      <c r="F55" s="202" t="s">
+      <c r="E55" s="271" t="s">
         <v>358</v>
       </c>
-      <c r="G55" s="202" t="s">
+      <c r="F55" s="201" t="s">
         <v>359</v>
+      </c>
+      <c r="G55" s="201" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="80"/>
-      <c r="B56" s="223">
+      <c r="B56" s="222">
         <v>1.13</v>
       </c>
-      <c r="C56" s="224" t="s">
-        <v>360</v>
-      </c>
-      <c r="D56" s="204">
+      <c r="C56" s="223" t="s">
+        <v>361</v>
+      </c>
+      <c r="D56" s="203">
         <v>4</v>
       </c>
-      <c r="E56" s="209" t="s">
-        <v>361</v>
-      </c>
-      <c r="F56" s="205" t="s">
+      <c r="E56" s="208" t="s">
         <v>362</v>
       </c>
-      <c r="G56" s="205" t="s">
+      <c r="F56" s="204" t="s">
         <v>363</v>
+      </c>
+      <c r="G56" s="204" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="80"/>
-      <c r="B57" s="223">
+      <c r="B57" s="222">
         <v>1.07</v>
       </c>
-      <c r="C57" s="224" t="s">
-        <v>364</v>
-      </c>
-      <c r="D57" s="204">
+      <c r="C57" s="223" t="s">
+        <v>365</v>
+      </c>
+      <c r="D57" s="203">
         <v>2</v>
       </c>
-      <c r="E57" s="272" t="s">
-        <v>365</v>
-      </c>
-      <c r="F57" s="202" t="s">
+      <c r="E57" s="271" t="s">
         <v>366</v>
       </c>
-      <c r="G57" s="205" t="s">
+      <c r="F57" s="201" t="s">
         <v>367</v>
+      </c>
+      <c r="G57" s="204" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="80"/>
-      <c r="B58" s="223" t="s">
-        <v>368</v>
-      </c>
-      <c r="C58" s="279" t="s">
+      <c r="B58" s="222" t="s">
         <v>369</v>
       </c>
-      <c r="D58" s="280">
+      <c r="C58" s="278" t="s">
+        <v>370</v>
+      </c>
+      <c r="D58" s="279">
         <v>3</v>
       </c>
-      <c r="E58" s="281" t="s">
-        <v>370</v>
-      </c>
-      <c r="F58" s="282" t="s">
+      <c r="E58" s="280" t="s">
         <v>371</v>
       </c>
-      <c r="G58" s="282" t="s">
+      <c r="F58" s="281" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="59" s="185" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A59" s="210"/>
-      <c r="B59" s="235">
+      <c r="G58" s="281" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" s="184" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A59" s="209"/>
+      <c r="B59" s="234">
         <v>1.09</v>
       </c>
-      <c r="C59" s="236" t="s">
-        <v>373</v>
-      </c>
-      <c r="D59" s="237">
+      <c r="C59" s="235" t="s">
+        <v>374</v>
+      </c>
+      <c r="D59" s="236">
         <v>4</v>
       </c>
-      <c r="E59" s="283" t="s">
-        <v>374</v>
-      </c>
-      <c r="F59" s="215" t="s">
+      <c r="E59" s="282" t="s">
         <v>375</v>
       </c>
-      <c r="G59" s="284" t="s">
+      <c r="F59" s="214" t="s">
         <v>376</v>
+      </c>
+      <c r="G59" s="214" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="80" t="s">
-        <v>377</v>
-      </c>
-      <c r="B60" s="216"/>
-      <c r="C60" s="254" t="s">
         <v>378</v>
       </c>
-      <c r="D60" s="243">
+      <c r="B60" s="215"/>
+      <c r="C60" s="253" t="s">
+        <v>379</v>
+      </c>
+      <c r="D60" s="242">
         <v>2</v>
       </c>
-      <c r="E60" s="245" t="s">
-        <v>379</v>
-      </c>
-      <c r="F60" s="245" t="s">
+      <c r="E60" s="244" t="s">
         <v>380</v>
       </c>
-      <c r="G60" s="245" t="s">
+      <c r="F60" s="244" t="s">
         <v>381</v>
+      </c>
+      <c r="G60" s="244" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="80"/>
-      <c r="B61" s="223">
+      <c r="B61" s="222">
         <v>1.07</v>
       </c>
-      <c r="C61" s="224" t="s">
-        <v>382</v>
-      </c>
-      <c r="D61" s="204">
+      <c r="C61" s="223" t="s">
+        <v>383</v>
+      </c>
+      <c r="D61" s="203">
         <v>3</v>
       </c>
-      <c r="E61" s="208" t="s">
-        <v>383</v>
-      </c>
-      <c r="F61" s="202" t="s">
+      <c r="E61" s="207" t="s">
         <v>384</v>
       </c>
-      <c r="G61" s="202" t="s">
+      <c r="F61" s="201" t="s">
         <v>385</v>
+      </c>
+      <c r="G61" s="201" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="80"/>
-      <c r="B62" s="223">
+      <c r="B62" s="222">
         <v>1.05</v>
       </c>
-      <c r="C62" s="285" t="s">
-        <v>386</v>
-      </c>
-      <c r="D62" s="286">
+      <c r="C62" s="283" t="s">
+        <v>387</v>
+      </c>
+      <c r="D62" s="284">
         <v>4</v>
       </c>
-      <c r="E62" s="287" t="s">
-        <v>387</v>
-      </c>
-      <c r="F62" s="288" t="s">
+      <c r="E62" s="285" t="s">
         <v>388</v>
       </c>
-      <c r="G62" s="288" t="s">
+      <c r="F62" s="286" t="s">
         <v>389</v>
+      </c>
+      <c r="G62" s="286" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="80"/>
-      <c r="B63" s="223">
+      <c r="B63" s="222">
         <v>1.02</v>
       </c>
-      <c r="C63" s="224" t="s">
-        <v>390</v>
-      </c>
-      <c r="D63" s="204">
+      <c r="C63" s="223" t="s">
+        <v>391</v>
+      </c>
+      <c r="D63" s="203">
         <v>2</v>
       </c>
-      <c r="E63" s="272" t="s">
-        <v>391</v>
-      </c>
-      <c r="F63" s="202" t="s">
+      <c r="E63" s="271" t="s">
         <v>392</v>
       </c>
-      <c r="G63" s="202" t="s">
+      <c r="F63" s="201" t="s">
         <v>393</v>
+      </c>
+      <c r="G63" s="201" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="80"/>
-      <c r="B64" s="223"/>
-      <c r="C64" s="224" t="s">
-        <v>394</v>
-      </c>
-      <c r="D64" s="204">
+      <c r="B64" s="222"/>
+      <c r="C64" s="223" t="s">
+        <v>395</v>
+      </c>
+      <c r="D64" s="203">
         <v>3</v>
       </c>
-      <c r="E64" s="201" t="s">
-        <v>395</v>
-      </c>
-      <c r="F64" s="205" t="s">
+      <c r="E64" s="200" t="s">
         <v>396</v>
       </c>
-      <c r="G64" s="205" t="s">
+      <c r="F64" s="204" t="s">
         <v>397</v>
+      </c>
+      <c r="G64" s="204" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="80"/>
-      <c r="B65" s="203" t="s">
-        <v>398</v>
-      </c>
-      <c r="C65" s="224" t="s">
+      <c r="B65" s="202" t="s">
         <v>399</v>
       </c>
-      <c r="D65" s="204">
+      <c r="C65" s="223" t="s">
+        <v>400</v>
+      </c>
+      <c r="D65" s="203">
         <v>4</v>
       </c>
-      <c r="E65" s="272" t="s">
-        <v>400</v>
-      </c>
-      <c r="F65" s="202" t="s">
+      <c r="E65" s="271" t="s">
         <v>401</v>
       </c>
-      <c r="G65" s="202" t="s">
+      <c r="F65" s="201" t="s">
         <v>402</v>
+      </c>
+      <c r="G65" s="201" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="80"/>
-      <c r="B66" s="223">
+      <c r="B66" s="222">
         <v>1.04</v>
       </c>
-      <c r="C66" s="224" t="s">
-        <v>403</v>
-      </c>
-      <c r="D66" s="204">
+      <c r="C66" s="223" t="s">
+        <v>404</v>
+      </c>
+      <c r="D66" s="203">
         <v>2</v>
       </c>
-      <c r="E66" s="201" t="s">
-        <v>404</v>
-      </c>
-      <c r="F66" s="205" t="s">
+      <c r="E66" s="200" t="s">
         <v>405</v>
       </c>
-      <c r="G66" s="205" t="s">
+      <c r="F66" s="204" t="s">
         <v>406</v>
+      </c>
+      <c r="G66" s="204" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="80"/>
-      <c r="B67" s="223">
+      <c r="B67" s="222">
         <v>1.04</v>
       </c>
-      <c r="C67" s="224" t="s">
-        <v>407</v>
-      </c>
-      <c r="D67" s="204">
+      <c r="C67" s="223" t="s">
+        <v>408</v>
+      </c>
+      <c r="D67" s="203">
         <v>3</v>
       </c>
-      <c r="E67" s="289" t="s">
-        <v>408</v>
-      </c>
-      <c r="F67" s="202" t="s">
+      <c r="E67" s="287" t="s">
         <v>409</v>
       </c>
-      <c r="G67" s="202" t="s">
+      <c r="F67" s="201" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="68" s="185" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A68" s="210"/>
-      <c r="B68" s="273" t="s">
-        <v>398</v>
-      </c>
-      <c r="C68" s="236" t="s">
+      <c r="G67" s="201" t="s">
         <v>411</v>
       </c>
-      <c r="D68" s="237">
+    </row>
+    <row r="68" s="184" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A68" s="209"/>
+      <c r="B68" s="272" t="s">
+        <v>399</v>
+      </c>
+      <c r="C68" s="235" t="s">
+        <v>412</v>
+      </c>
+      <c r="D68" s="236">
         <v>4</v>
       </c>
-      <c r="E68" s="274" t="s">
-        <v>412</v>
-      </c>
-      <c r="F68" s="239" t="s">
+      <c r="E68" s="273" t="s">
         <v>413</v>
       </c>
-      <c r="G68" s="239" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="69" s="142" customFormat="1" spans="1:7">
-      <c r="A69" s="240" t="s">
+      <c r="F68" s="238" t="s">
         <v>414</v>
       </c>
-      <c r="B69" s="223">
+      <c r="G68" s="238" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" s="141" customFormat="1" spans="1:7">
+      <c r="A69" s="239" t="s">
+        <v>415</v>
+      </c>
+      <c r="B69" s="222">
         <v>1.15</v>
       </c>
-      <c r="C69" s="290" t="s">
-        <v>415</v>
-      </c>
-      <c r="D69" s="195">
+      <c r="C69" s="288" t="s">
+        <v>416</v>
+      </c>
+      <c r="D69" s="194">
         <v>2</v>
       </c>
-      <c r="E69" s="291" t="s">
-        <v>416</v>
-      </c>
-      <c r="F69" s="292" t="s">
+      <c r="E69" s="289" t="s">
         <v>417</v>
       </c>
-      <c r="G69" s="197" t="s">
+      <c r="F69" s="290" t="s">
         <v>418</v>
       </c>
+      <c r="G69" s="196" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="240"/>
-      <c r="B70" s="223">
+      <c r="A70" s="239"/>
+      <c r="B70" s="222">
         <v>1.02</v>
       </c>
-      <c r="C70" s="224" t="s">
-        <v>419</v>
-      </c>
-      <c r="D70" s="204">
+      <c r="C70" s="223" t="s">
+        <v>420</v>
+      </c>
+      <c r="D70" s="203">
         <v>3</v>
       </c>
-      <c r="E70" s="209" t="s">
-        <v>420</v>
-      </c>
-      <c r="F70" s="205" t="s">
+      <c r="E70" s="208" t="s">
         <v>421</v>
       </c>
-      <c r="G70" s="205" t="s">
+      <c r="F70" s="204" t="s">
         <v>422</v>
       </c>
+      <c r="G70" s="204" t="s">
+        <v>423</v>
+      </c>
       <c r="I70" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="240"/>
-      <c r="B71" s="223">
+      <c r="A71" s="239"/>
+      <c r="B71" s="222">
         <v>1.05</v>
       </c>
-      <c r="C71" s="224" t="s">
-        <v>424</v>
-      </c>
-      <c r="D71" s="204">
+      <c r="C71" s="223" t="s">
+        <v>425</v>
+      </c>
+      <c r="D71" s="203">
         <v>4</v>
       </c>
-      <c r="E71" s="208" t="s">
-        <v>425</v>
-      </c>
-      <c r="F71" s="202" t="s">
+      <c r="E71" s="207" t="s">
         <v>426</v>
       </c>
-      <c r="G71" s="202" t="s">
+      <c r="F71" s="201" t="s">
         <v>427</v>
       </c>
+      <c r="G71" s="201" t="s">
+        <v>428</v>
+      </c>
       <c r="I71" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="239"/>
+      <c r="B72" s="202" t="s">
+        <v>399</v>
+      </c>
+      <c r="C72" s="223" t="s">
+        <v>430</v>
+      </c>
+      <c r="D72" s="203">
+        <v>2</v>
+      </c>
+      <c r="E72" s="208" t="s">
+        <v>431</v>
+      </c>
+      <c r="F72" s="204" t="s">
+        <v>432</v>
+      </c>
+      <c r="G72" s="204" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="240"/>
-      <c r="B72" s="203" t="s">
-        <v>398</v>
-      </c>
-      <c r="C72" s="224" t="s">
-        <v>429</v>
-      </c>
-      <c r="D72" s="204">
+    <row r="73" s="141" customFormat="1" spans="1:9">
+      <c r="A73" s="239"/>
+      <c r="B73" s="222">
+        <v>1.09</v>
+      </c>
+      <c r="C73" s="223" t="s">
+        <v>433</v>
+      </c>
+      <c r="D73" s="203">
+        <v>3</v>
+      </c>
+      <c r="E73" s="248" t="s">
+        <v>434</v>
+      </c>
+      <c r="F73" s="204" t="s">
+        <v>435</v>
+      </c>
+      <c r="G73" s="204" t="s">
+        <v>436</v>
+      </c>
+      <c r="I73" s="141" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="239"/>
+      <c r="B74" s="222">
+        <v>1.05</v>
+      </c>
+      <c r="C74" s="278" t="s">
+        <v>438</v>
+      </c>
+      <c r="D74" s="279">
+        <v>4</v>
+      </c>
+      <c r="E74" s="291" t="s">
+        <v>439</v>
+      </c>
+      <c r="F74" s="281" t="s">
+        <v>440</v>
+      </c>
+      <c r="G74" s="281" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="239"/>
+      <c r="B75" s="259">
+        <v>1.08</v>
+      </c>
+      <c r="C75" s="292" t="s">
+        <v>441</v>
+      </c>
+      <c r="D75" s="293">
         <v>2</v>
       </c>
-      <c r="E72" s="209" t="s">
-        <v>430</v>
-      </c>
-      <c r="F72" s="205" t="s">
-        <v>431</v>
-      </c>
-      <c r="G72" s="205" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="73" s="142" customFormat="1" spans="1:9">
-      <c r="A73" s="240"/>
-      <c r="B73" s="223">
-        <v>1.09</v>
-      </c>
-      <c r="C73" s="224" t="s">
-        <v>432</v>
-      </c>
-      <c r="D73" s="204">
-        <v>3</v>
-      </c>
-      <c r="E73" s="289" t="s">
-        <v>433</v>
-      </c>
-      <c r="F73" s="205" t="s">
-        <v>434</v>
-      </c>
-      <c r="G73" s="205" t="s">
-        <v>435</v>
-      </c>
-      <c r="I73" s="142" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="240"/>
-      <c r="B74" s="223">
-        <v>1.05</v>
-      </c>
-      <c r="C74" s="279" t="s">
-        <v>437</v>
-      </c>
-      <c r="D74" s="280">
-        <v>4</v>
-      </c>
-      <c r="E74" s="293" t="s">
-        <v>438</v>
-      </c>
-      <c r="F74" s="282" t="s">
-        <v>439</v>
-      </c>
-      <c r="G74" s="282" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="240"/>
-      <c r="B75" s="260">
-        <v>1.08</v>
-      </c>
-      <c r="C75" s="294" t="s">
-        <v>440</v>
-      </c>
-      <c r="D75" s="295">
-        <v>2</v>
-      </c>
-      <c r="E75" s="296" t="s">
-        <v>441</v>
-      </c>
-      <c r="F75" s="297" t="s">
+      <c r="E75" s="294" t="s">
         <v>442</v>
       </c>
-      <c r="G75" s="297" t="s">
+      <c r="F75" s="295" t="s">
         <v>443</v>
       </c>
+      <c r="G75" s="295" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="76" s="91" customFormat="1" spans="1:7">
-      <c r="A76" s="240"/>
+      <c r="A76" s="239"/>
       <c r="B76" s="51">
         <v>1.09</v>
       </c>
       <c r="C76" s="52" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D76" s="51">
         <v>3</v>
       </c>
-      <c r="E76" s="298" t="s">
-        <v>445</v>
+      <c r="E76" s="296" t="s">
+        <v>446</v>
       </c>
       <c r="F76" s="52" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G76" s="52" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="77" s="186" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A77" s="252"/>
-      <c r="B77" s="252">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="77" s="185" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A77" s="251"/>
+      <c r="B77" s="251">
         <v>1.01</v>
       </c>
-      <c r="D77" s="252">
+      <c r="D77" s="251">
         <v>4</v>
       </c>
-      <c r="E77" s="186" t="s">
-        <v>448</v>
-      </c>
-      <c r="F77" s="186" t="s">
+      <c r="E77" s="185" t="s">
         <v>449</v>
       </c>
-      <c r="G77" s="186" t="s">
+      <c r="F77" s="185" t="s">
         <v>450</v>
+      </c>
+      <c r="G77" s="185" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -8325,6 +8284,8 @@
     <hyperlink ref="E75" r:id="rId67" display="Visual Battle Environment"/>
     <hyperlink ref="E76" r:id="rId68" display="Sideview Battle UI"/>
     <hyperlink ref="E30" r:id="rId69" display="Grid-Free Doodads&#10;DoodadsSystem&#10;DoodadsEditor"/>
+    <hyperlink ref="E41" r:id="rId70" display="CreditsPage"/>
+    <hyperlink ref="E59" r:id="rId71" display="Menu Cursor"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8340,8 +8301,8 @@
   <sheetPr/>
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -8354,7 +8315,7 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:8">
       <c r="A1" s="37" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8366,7 +8327,7 @@
     </row>
     <row r="2" ht="20.25" spans="1:8">
       <c r="A2" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8378,10 +8339,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="38" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="41" t="s">
@@ -8405,10 +8366,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D4" s="44">
         <v>74</v>
@@ -8417,20 +8378,20 @@
         <v>2</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="48"/>
       <c r="B5" s="49"/>
       <c r="C5" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D5" s="50">
         <v>75</v>
@@ -8439,20 +8400,20 @@
         <v>3</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="48"/>
       <c r="B6" s="54"/>
       <c r="C6" s="55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D6" s="55">
         <v>76</v>
@@ -8461,13 +8422,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -8475,10 +8436,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D7" s="44">
         <v>92</v>
@@ -8487,20 +8448,20 @@
         <v>2</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="48"/>
       <c r="B8" s="49"/>
       <c r="C8" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D8" s="50">
         <v>93</v>
@@ -8509,20 +8470,20 @@
         <v>3</v>
       </c>
       <c r="F8" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>472</v>
+      </c>
+      <c r="H8" s="64" t="s">
         <v>470</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>471</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:8">
       <c r="A9" s="48"/>
       <c r="B9" s="54"/>
       <c r="C9" s="65" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D9" s="65">
         <v>94</v>
@@ -8531,24 +8492,24 @@
         <v>4</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="69" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D10" s="72">
         <v>112</v>
@@ -8557,10 +8518,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G10" s="75" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H10" s="76"/>
     </row>
@@ -8577,10 +8538,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="81" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H11" s="82"/>
     </row>
@@ -8597,19 +8558,19 @@
         <v>4</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H12" s="88"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="69" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C13" s="44">
         <v>1.01</v>
@@ -8621,13 +8582,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="90" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H13" s="82" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -8642,21 +8603,21 @@
       <c r="E14" s="89">
         <v>3</v>
       </c>
-      <c r="F14" s="92" t="s">
-        <v>488</v>
+      <c r="F14" s="90" t="s">
+        <v>489</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H14" s="82" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="69"/>
       <c r="B15" s="77"/>
-      <c r="C15" s="93" t="s">
-        <v>491</v>
+      <c r="C15" s="92" t="s">
+        <v>492</v>
       </c>
       <c r="D15" s="79">
         <v>144</v>
@@ -8665,21 +8626,21 @@
         <v>4</v>
       </c>
       <c r="F15" s="90" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G15" s="91" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H15" s="82" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="69" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="44">
@@ -8688,14 +8649,14 @@
       <c r="E16" s="59">
         <v>4</v>
       </c>
-      <c r="F16" s="94" t="s">
-        <v>496</v>
+      <c r="F16" s="93" t="s">
+        <v>497</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>497</v>
-      </c>
-      <c r="H16" s="95" t="s">
         <v>498</v>
+      </c>
+      <c r="H16" s="94" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -8704,20 +8665,20 @@
       <c r="C17" s="50">
         <v>1.04</v>
       </c>
-      <c r="D17" s="96">
+      <c r="D17" s="95">
         <v>105</v>
       </c>
       <c r="E17" s="89">
         <v>4</v>
       </c>
       <c r="F17" s="90" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G17" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="H17" s="97" t="s">
         <v>501</v>
+      </c>
+      <c r="H17" s="96" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -8730,14 +8691,14 @@
       <c r="E18" s="86">
         <v>4</v>
       </c>
-      <c r="F18" s="98" t="s">
-        <v>502</v>
+      <c r="F18" s="97" t="s">
+        <v>503</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H18" s="88" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -8745,32 +8706,32 @@
         <v>20</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D19" s="72">
         <v>127</v>
       </c>
-      <c r="E19" s="99">
+      <c r="E19" s="98">
         <v>4</v>
       </c>
       <c r="F19" s="75" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G19" s="75" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H19" s="76" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
       <c r="C20" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D20" s="79">
         <v>128</v>
@@ -8779,20 +8740,20 @@
         <v>4</v>
       </c>
       <c r="F20" s="91" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G20" s="91" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H20" s="82" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="48"/>
       <c r="B21" s="54"/>
       <c r="C21" s="55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D21" s="85">
         <v>129</v>
@@ -8801,13 +8762,13 @@
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H21" s="88" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:8">
@@ -8815,32 +8776,32 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>515</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>456</v>
+        <v>516</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>457</v>
       </c>
       <c r="D22" s="72">
         <v>77</v>
       </c>
-      <c r="E22" s="99">
+      <c r="E22" s="98">
         <v>2</v>
       </c>
       <c r="F22" s="75" t="s">
-        <v>516</v>
-      </c>
-      <c r="G22" s="101" t="s">
         <v>517</v>
       </c>
+      <c r="G22" s="100" t="s">
+        <v>518</v>
+      </c>
       <c r="H22" s="76" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
       <c r="C23" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D23" s="79">
         <v>78</v>
@@ -8849,20 +8810,20 @@
         <v>3</v>
       </c>
       <c r="F23" s="91" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G23" s="91" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H23" s="82" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="48"/>
       <c r="B24" s="54"/>
       <c r="C24" s="55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D24" s="85">
         <v>79</v>
@@ -8871,13 +8832,13 @@
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="H24" s="88" t="s">
         <v>522</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="H24" s="88" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -8885,32 +8846,32 @@
         <v>20</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D25" s="72">
         <v>89</v>
       </c>
-      <c r="E25" s="99">
+      <c r="E25" s="98">
         <v>2</v>
       </c>
       <c r="F25" s="75" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G25" s="75" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H25" s="76" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
       <c r="C26" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D26" s="79">
         <v>90</v>
@@ -8919,20 +8880,20 @@
         <v>3</v>
       </c>
       <c r="F26" s="91" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G26" s="91" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H26" s="82" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="48"/>
       <c r="B27" s="54"/>
       <c r="C27" s="55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D27" s="85">
         <v>91</v>
@@ -8941,13 +8902,13 @@
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H27" s="88" t="s">
         <v>531</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="H27" s="88" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -8955,32 +8916,32 @@
         <v>20</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D28" s="72">
         <v>115</v>
       </c>
-      <c r="E28" s="99">
+      <c r="E28" s="98">
         <v>2</v>
       </c>
       <c r="F28" s="75" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G28" s="75" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H28" s="76" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
       <c r="C29" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D29" s="79">
         <v>116</v>
@@ -8989,20 +8950,20 @@
         <v>3</v>
       </c>
       <c r="F29" s="91" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G29" s="91" t="s">
-        <v>538</v>
-      </c>
-      <c r="H29" s="97" t="s">
         <v>539</v>
+      </c>
+      <c r="H29" s="96" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="48"/>
       <c r="B30" s="54"/>
       <c r="C30" s="55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D30" s="85">
         <v>117</v>
@@ -9011,45 +8972,45 @@
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H30" s="88" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="102" t="s">
-        <v>475</v>
+      <c r="A31" s="101" t="s">
+        <v>476</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>543</v>
-      </c>
-      <c r="C31" s="103">
+        <v>544</v>
+      </c>
+      <c r="C31" s="102">
         <v>1.06</v>
       </c>
       <c r="D31" s="72">
         <v>130</v>
       </c>
-      <c r="E31" s="99">
+      <c r="E31" s="98">
         <v>2</v>
       </c>
-      <c r="F31" s="104" t="s">
-        <v>544</v>
+      <c r="F31" s="103" t="s">
+        <v>545</v>
       </c>
       <c r="G31" s="75" t="s">
-        <v>545</v>
-      </c>
-      <c r="H31" s="105" t="s">
         <v>546</v>
       </c>
+      <c r="H31" s="104" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="106"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="77"/>
-      <c r="C32" s="96">
+      <c r="C32" s="95">
         <v>1.05</v>
       </c>
       <c r="D32" s="79">
@@ -9058,20 +9019,20 @@
       <c r="E32" s="89">
         <v>3</v>
       </c>
-      <c r="F32" s="107" t="s">
-        <v>547</v>
+      <c r="F32" s="106" t="s">
+        <v>548</v>
       </c>
       <c r="G32" s="91" t="s">
-        <v>548</v>
-      </c>
-      <c r="H32" s="97" t="s">
         <v>549</v>
       </c>
+      <c r="H32" s="96" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="108"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="83"/>
-      <c r="C33" s="109">
+      <c r="C33" s="108">
         <v>1.01</v>
       </c>
       <c r="D33" s="85">
@@ -9080,46 +9041,46 @@
       <c r="E33" s="86">
         <v>4</v>
       </c>
-      <c r="F33" s="110" t="s">
-        <v>550</v>
+      <c r="F33" s="109" t="s">
+        <v>551</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H33" s="88" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="102" t="s">
-        <v>553</v>
+      <c r="A34" s="101" t="s">
+        <v>554</v>
       </c>
       <c r="B34" s="70" t="s">
-        <v>554</v>
-      </c>
-      <c r="C34" s="111" t="s">
-        <v>398</v>
+        <v>555</v>
+      </c>
+      <c r="C34" s="110" t="s">
+        <v>399</v>
       </c>
       <c r="D34" s="72">
         <v>98</v>
       </c>
-      <c r="E34" s="99">
+      <c r="E34" s="98">
         <v>2</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G34" s="75" t="s">
-        <v>556</v>
-      </c>
-      <c r="H34" s="112" t="s">
         <v>557</v>
       </c>
+      <c r="H34" s="111" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="106"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="77"/>
-      <c r="C35" s="113">
+      <c r="C35" s="112">
         <v>1.04</v>
       </c>
       <c r="D35" s="79">
@@ -9128,18 +9089,18 @@
       <c r="E35" s="80">
         <v>2</v>
       </c>
-      <c r="F35" s="114" t="s">
-        <v>558</v>
+      <c r="F35" s="113" t="s">
+        <v>559</v>
       </c>
       <c r="G35" t="s">
-        <v>559</v>
-      </c>
-      <c r="H35" s="115"/>
+        <v>560</v>
+      </c>
+      <c r="H35" s="114"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="108"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="83"/>
-      <c r="C36" s="116">
+      <c r="C36" s="115">
         <v>1.06</v>
       </c>
       <c r="D36" s="85">
@@ -9149,85 +9110,85 @@
         <v>2</v>
       </c>
       <c r="F36" s="87" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="H36" s="117"/>
+        <v>562</v>
+      </c>
+      <c r="H36" s="116"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="118">
+      <c r="A37" s="117">
         <v>30</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>562</v>
-      </c>
-      <c r="C37" s="119" t="s">
-        <v>456</v>
+        <v>563</v>
+      </c>
+      <c r="C37" s="118" t="s">
+        <v>457</v>
       </c>
       <c r="D37" s="72">
         <v>145</v>
       </c>
-      <c r="E37" s="99">
+      <c r="E37" s="98">
         <v>2</v>
       </c>
-      <c r="F37" s="120" t="s">
-        <v>563</v>
+      <c r="F37" s="119" t="s">
+        <v>564</v>
       </c>
       <c r="G37" s="75" t="s">
-        <v>564</v>
-      </c>
-      <c r="H37" s="121" t="s">
         <v>565</v>
       </c>
+      <c r="H37" s="120" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="122"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="49"/>
-      <c r="C38" s="123" t="s">
-        <v>456</v>
-      </c>
-      <c r="D38" s="124">
+      <c r="C38" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="D38" s="123">
         <v>146</v>
       </c>
       <c r="E38" s="89">
         <v>2</v>
       </c>
-      <c r="F38" s="92" t="s">
-        <v>566</v>
+      <c r="F38" s="90" t="s">
+        <v>567</v>
       </c>
       <c r="G38" s="91" t="s">
-        <v>567</v>
-      </c>
-      <c r="H38" s="115"/>
+        <v>568</v>
+      </c>
+      <c r="H38" s="114"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="122"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="54"/>
-      <c r="C39" s="125" t="s">
-        <v>456</v>
-      </c>
-      <c r="D39" s="126">
+      <c r="C39" s="124" t="s">
+        <v>457</v>
+      </c>
+      <c r="D39" s="125">
         <v>147</v>
       </c>
       <c r="E39" s="86">
         <v>2</v>
       </c>
-      <c r="F39" s="98" t="s">
-        <v>568</v>
+      <c r="F39" s="97" t="s">
+        <v>569</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="H39" s="117" t="s">
-        <v>565</v>
+        <v>570</v>
+      </c>
+      <c r="H39" s="116" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="91"/>
       <c r="C40" s="91"/>
-      <c r="D40" s="127"/>
+      <c r="D40" s="126"/>
       <c r="E40" s="89"/>
       <c r="F40" s="91"/>
       <c r="G40" s="91"/>
@@ -9235,7 +9196,7 @@
     </row>
     <row r="41" ht="20.25" spans="1:8">
       <c r="A41" s="37" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9247,7 +9208,7 @@
     </row>
     <row r="42" ht="20.25" spans="1:8">
       <c r="A42" s="37" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9259,13 +9220,13 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="38" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D43" s="41" t="s">
         <v>129</v>
@@ -9284,14 +9245,14 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="128">
+      <c r="A44" s="127">
         <v>20</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D44" s="44">
         <v>80</v>
@@ -9299,21 +9260,21 @@
       <c r="E44" s="45">
         <v>2</v>
       </c>
-      <c r="F44" s="129" t="s">
-        <v>574</v>
-      </c>
-      <c r="G44" s="129" t="s">
+      <c r="F44" s="128" t="s">
         <v>575</v>
       </c>
-      <c r="H44" s="130" t="s">
+      <c r="G44" s="128" t="s">
         <v>576</v>
+      </c>
+      <c r="H44" s="129" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="49"/>
       <c r="B45" s="49"/>
       <c r="C45" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D45" s="50">
         <v>81</v>
@@ -9321,21 +9282,21 @@
       <c r="E45" s="51">
         <v>3</v>
       </c>
-      <c r="F45" s="131" t="s">
+      <c r="F45" s="130" t="s">
+        <v>578</v>
+      </c>
+      <c r="G45" s="130" t="s">
+        <v>579</v>
+      </c>
+      <c r="H45" s="131" t="s">
         <v>577</v>
-      </c>
-      <c r="G45" s="131" t="s">
-        <v>578</v>
-      </c>
-      <c r="H45" s="132" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="54"/>
       <c r="B46" s="54"/>
       <c r="C46" s="55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D46" s="55">
         <v>82</v>
@@ -9343,44 +9304,44 @@
       <c r="E46" s="56">
         <v>4</v>
       </c>
-      <c r="F46" s="133" t="s">
-        <v>579</v>
-      </c>
-      <c r="G46" s="134" t="s">
+      <c r="F46" s="132" t="s">
         <v>580</v>
       </c>
-      <c r="H46" s="135" t="s">
+      <c r="G46" s="133" t="s">
         <v>581</v>
       </c>
+      <c r="H46" s="134" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="102" t="s">
-        <v>475</v>
+      <c r="A47" s="101" t="s">
+        <v>476</v>
       </c>
       <c r="B47" s="70" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C47" s="44"/>
-      <c r="D47" s="136">
+      <c r="D47" s="135">
         <v>86</v>
       </c>
-      <c r="E47" s="137">
+      <c r="E47" s="136">
         <v>2</v>
       </c>
-      <c r="F47" s="138" t="s">
-        <v>583</v>
-      </c>
-      <c r="G47" s="139" t="s">
+      <c r="F47" s="137" t="s">
         <v>584</v>
       </c>
-      <c r="H47" s="140" t="s">
+      <c r="G47" s="138" t="s">
         <v>585</v>
       </c>
+      <c r="H47" s="139" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="106"/>
+      <c r="A48" s="105"/>
       <c r="B48" s="77"/>
-      <c r="C48" s="113">
+      <c r="C48" s="112">
         <v>1.02</v>
       </c>
       <c r="D48" s="50">
@@ -9389,18 +9350,18 @@
       <c r="E48" s="51">
         <v>3</v>
       </c>
-      <c r="F48" s="141" t="s">
-        <v>586</v>
-      </c>
-      <c r="G48" s="142" t="s">
+      <c r="F48" s="140" t="s">
         <v>587</v>
       </c>
-      <c r="H48" s="143" t="s">
+      <c r="G48" s="141" t="s">
         <v>588</v>
       </c>
+      <c r="H48" s="142" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="108"/>
+      <c r="A49" s="107"/>
       <c r="B49" s="83"/>
       <c r="C49" s="55">
         <v>1.01</v>
@@ -9408,28 +9369,28 @@
       <c r="D49" s="55">
         <v>88</v>
       </c>
-      <c r="E49" s="144">
+      <c r="E49" s="143">
         <v>4</v>
       </c>
-      <c r="F49" s="110" t="s">
-        <v>589</v>
-      </c>
-      <c r="G49" s="145" t="s">
+      <c r="F49" s="109" t="s">
         <v>590</v>
       </c>
-      <c r="H49" s="146" t="s">
+      <c r="G49" s="144" t="s">
         <v>591</v>
       </c>
+      <c r="H49" s="145" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="147" t="s">
-        <v>592</v>
-      </c>
-      <c r="B50" s="148" t="s">
+      <c r="A50" s="146" t="s">
         <v>593</v>
       </c>
+      <c r="B50" s="147" t="s">
+        <v>594</v>
+      </c>
       <c r="C50" s="44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D50" s="44">
         <v>118</v>
@@ -9438,20 +9399,20 @@
         <v>2</v>
       </c>
       <c r="F50" s="60" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G50" s="46" t="s">
-        <v>595</v>
-      </c>
-      <c r="H50" s="149" t="s">
         <v>596</v>
       </c>
+      <c r="H50" s="148" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="150"/>
-      <c r="B51" s="151"/>
+      <c r="A51" s="149"/>
+      <c r="B51" s="150"/>
       <c r="C51" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D51" s="50">
         <v>119</v>
@@ -9460,20 +9421,20 @@
         <v>3</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>598</v>
-      </c>
-      <c r="H51" s="152" t="s">
         <v>599</v>
       </c>
+      <c r="H51" s="151" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="153"/>
-      <c r="B52" s="154"/>
+      <c r="A52" s="152"/>
+      <c r="B52" s="153"/>
       <c r="C52" s="55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D52" s="55">
         <v>120</v>
@@ -9481,25 +9442,25 @@
       <c r="E52" s="56">
         <v>4</v>
       </c>
-      <c r="F52" s="155" t="s">
-        <v>600</v>
-      </c>
-      <c r="G52" s="134" t="s">
+      <c r="F52" s="154" t="s">
         <v>601</v>
       </c>
-      <c r="H52" s="156" t="s">
+      <c r="G52" s="133" t="s">
         <v>602</v>
       </c>
+      <c r="H52" s="155" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="147" t="s">
-        <v>592</v>
+      <c r="A53" s="146" t="s">
+        <v>593</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D53" s="44">
         <v>124</v>
@@ -9507,43 +9468,43 @@
       <c r="E53" s="59">
         <v>2</v>
       </c>
-      <c r="F53" s="157" t="s">
-        <v>604</v>
+      <c r="F53" s="93" t="s">
+        <v>605</v>
       </c>
       <c r="G53" s="60" t="s">
-        <v>605</v>
-      </c>
-      <c r="H53" s="158" t="s">
         <v>606</v>
       </c>
+      <c r="H53" s="156" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="150"/>
+      <c r="A54" s="149"/>
       <c r="B54" s="49"/>
       <c r="C54" s="50" t="s">
-        <v>456</v>
-      </c>
-      <c r="D54" s="96">
+        <v>457</v>
+      </c>
+      <c r="D54" s="95">
         <v>125</v>
       </c>
       <c r="E54" s="89">
         <v>3</v>
       </c>
-      <c r="F54" s="92" t="s">
-        <v>607</v>
+      <c r="F54" s="157" t="s">
+        <v>608</v>
       </c>
       <c r="G54" s="91" t="s">
-        <v>608</v>
-      </c>
-      <c r="H54" s="115" t="s">
         <v>609</v>
       </c>
+      <c r="H54" s="114" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="153"/>
+      <c r="A55" s="152"/>
       <c r="B55" s="54"/>
       <c r="C55" s="55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D55" s="85">
         <v>126</v>
@@ -9552,46 +9513,46 @@
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="H55" s="159" t="s">
         <v>612</v>
       </c>
+      <c r="H55" s="158" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="128">
+      <c r="A56" s="127">
         <v>30</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D56" s="72">
         <v>101</v>
       </c>
-      <c r="E56" s="99">
+      <c r="E56" s="98">
         <v>3</v>
       </c>
       <c r="F56" s="75" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G56" s="75" t="s">
-        <v>615</v>
-      </c>
-      <c r="H56" s="112" t="s">
         <v>616</v>
+      </c>
+      <c r="H56" s="111" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="49"/>
       <c r="B57" s="49"/>
       <c r="C57" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D57" s="79">
         <v>102</v>
@@ -9600,20 +9561,20 @@
         <v>3</v>
       </c>
       <c r="F57" s="91" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G57" s="91" t="s">
-        <v>618</v>
-      </c>
-      <c r="H57" s="115" t="s">
         <v>619</v>
+      </c>
+      <c r="H57" s="114" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="54"/>
       <c r="B58" s="54"/>
       <c r="C58" s="55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D58" s="85">
         <v>103</v>
@@ -9622,68 +9583,68 @@
         <v>3</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="H58" s="159" t="s">
         <v>622</v>
       </c>
+      <c r="H58" s="158" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="102" t="s">
-        <v>475</v>
+      <c r="A59" s="101" t="s">
+        <v>476</v>
       </c>
       <c r="B59" s="70" t="s">
-        <v>623</v>
-      </c>
-      <c r="C59" s="160" t="s">
-        <v>477</v>
+        <v>624</v>
+      </c>
+      <c r="C59" s="159" t="s">
+        <v>478</v>
       </c>
       <c r="D59" s="72">
         <v>136</v>
       </c>
-      <c r="E59" s="99">
+      <c r="E59" s="98">
         <v>3</v>
       </c>
-      <c r="F59" s="161" t="s">
-        <v>624</v>
+      <c r="F59" s="160" t="s">
+        <v>625</v>
       </c>
       <c r="G59" s="75" t="s">
-        <v>625</v>
-      </c>
-      <c r="H59" s="112" t="s">
         <v>626</v>
       </c>
+      <c r="H59" s="111" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="106"/>
+      <c r="A60" s="105"/>
       <c r="B60" s="77"/>
-      <c r="C60" s="162" t="s">
-        <v>627</v>
-      </c>
-      <c r="D60" s="163">
+      <c r="C60" s="161" t="s">
+        <v>628</v>
+      </c>
+      <c r="D60" s="162">
         <v>137</v>
       </c>
-      <c r="E60" s="164">
+      <c r="E60" s="163">
         <v>3</v>
       </c>
-      <c r="F60" s="165" t="s">
-        <v>628</v>
-      </c>
-      <c r="G60" s="166" t="s">
+      <c r="F60" s="164" t="s">
         <v>629</v>
       </c>
-      <c r="H60" s="167" t="s">
+      <c r="G60" s="165" t="s">
         <v>630</v>
       </c>
+      <c r="H60" s="166" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="108"/>
+      <c r="A61" s="107"/>
       <c r="B61" s="83"/>
-      <c r="C61" s="168" t="s">
-        <v>631</v>
+      <c r="C61" s="167" t="s">
+        <v>632</v>
       </c>
       <c r="D61" s="85">
         <v>138</v>
@@ -9691,47 +9652,47 @@
       <c r="E61" s="86">
         <v>3</v>
       </c>
-      <c r="F61" s="169" t="s">
-        <v>632</v>
+      <c r="F61" s="168" t="s">
+        <v>633</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="H61" s="159" t="s">
         <v>634</v>
       </c>
+      <c r="H61" s="158" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="128">
+      <c r="A62" s="127">
         <v>20</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D62" s="72">
         <v>107</v>
       </c>
-      <c r="E62" s="99">
+      <c r="E62" s="98">
         <v>3</v>
       </c>
-      <c r="F62" s="120" t="s">
-        <v>636</v>
+      <c r="F62" s="119" t="s">
+        <v>637</v>
       </c>
       <c r="G62" s="75" t="s">
-        <v>637</v>
-      </c>
-      <c r="H62" s="112" t="s">
         <v>638</v>
+      </c>
+      <c r="H62" s="111" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="C63" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D63" s="79">
         <v>108</v>
@@ -9739,21 +9700,21 @@
       <c r="E63" s="89">
         <v>3</v>
       </c>
-      <c r="F63" s="170" t="s">
-        <v>639</v>
+      <c r="F63" s="169" t="s">
+        <v>640</v>
       </c>
       <c r="G63" s="91" t="s">
-        <v>640</v>
-      </c>
-      <c r="H63" s="115" t="s">
         <v>641</v>
+      </c>
+      <c r="H63" s="114" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="54"/>
       <c r="B64" s="54"/>
       <c r="C64" s="55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D64" s="85">
         <v>109</v>
@@ -9762,46 +9723,46 @@
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="H64" s="159" t="s">
         <v>644</v>
       </c>
+      <c r="H64" s="158" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="128">
+      <c r="A65" s="127">
         <v>30</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D65" s="72">
         <v>133</v>
       </c>
-      <c r="E65" s="99">
+      <c r="E65" s="98">
         <v>2</v>
       </c>
       <c r="F65" s="75" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G65" s="75" t="s">
-        <v>647</v>
-      </c>
-      <c r="H65" s="112" t="s">
-        <v>644</v>
+        <v>648</v>
+      </c>
+      <c r="H65" s="111" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="49"/>
       <c r="B66" s="49"/>
       <c r="C66" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D66" s="79">
         <v>134</v>
@@ -9810,20 +9771,20 @@
         <v>2</v>
       </c>
       <c r="F66" s="91" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G66" s="91" t="s">
-        <v>649</v>
-      </c>
-      <c r="H66" s="115" t="s">
-        <v>644</v>
+        <v>650</v>
+      </c>
+      <c r="H66" s="114" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="54"/>
       <c r="B67" s="54"/>
       <c r="C67" s="55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D67" s="85">
         <v>135</v>
@@ -9832,68 +9793,68 @@
         <v>2</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="H67" s="159" t="s">
-        <v>644</v>
+        <v>652</v>
+      </c>
+      <c r="H67" s="158" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="128">
+      <c r="A68" s="127">
         <v>20</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D68" s="72">
         <v>83</v>
       </c>
-      <c r="E68" s="99">
+      <c r="E68" s="98">
         <v>2</v>
       </c>
-      <c r="F68" s="120" t="s">
-        <v>653</v>
+      <c r="F68" s="119" t="s">
+        <v>654</v>
       </c>
       <c r="G68" s="75" t="s">
-        <v>654</v>
-      </c>
-      <c r="H68" s="112" t="s">
         <v>655</v>
+      </c>
+      <c r="H68" s="111" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="49"/>
       <c r="B69" s="49"/>
       <c r="C69" s="50" t="s">
-        <v>456</v>
-      </c>
-      <c r="D69" s="171">
+        <v>457</v>
+      </c>
+      <c r="D69" s="170">
         <v>84</v>
       </c>
-      <c r="E69" s="172">
+      <c r="E69" s="171">
         <v>3</v>
       </c>
-      <c r="F69" s="173" t="s">
-        <v>656</v>
-      </c>
-      <c r="G69" s="173" t="s">
+      <c r="F69" s="172" t="s">
         <v>657</v>
       </c>
-      <c r="H69" s="174" t="s">
+      <c r="G69" s="172" t="s">
         <v>658</v>
+      </c>
+      <c r="H69" s="173" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="54"/>
       <c r="B70" s="54"/>
       <c r="C70" s="55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D70" s="85">
         <v>85</v>
@@ -9901,47 +9862,47 @@
       <c r="E70" s="86">
         <v>4</v>
       </c>
-      <c r="F70" s="98" t="s">
-        <v>659</v>
+      <c r="F70" s="97" t="s">
+        <v>660</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="H70" s="159" t="s">
         <v>661</v>
       </c>
+      <c r="H70" s="158" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="102" t="s">
-        <v>475</v>
+      <c r="A71" s="101" t="s">
+        <v>476</v>
       </c>
       <c r="B71" s="70" t="s">
-        <v>662</v>
-      </c>
-      <c r="C71" s="103">
+        <v>663</v>
+      </c>
+      <c r="C71" s="102">
         <v>1.04</v>
       </c>
       <c r="D71" s="72">
         <v>95</v>
       </c>
-      <c r="E71" s="99">
+      <c r="E71" s="98">
         <v>2</v>
       </c>
-      <c r="F71" s="161" t="s">
-        <v>663</v>
-      </c>
-      <c r="G71" s="175" t="s">
+      <c r="F71" s="160" t="s">
         <v>664</v>
       </c>
-      <c r="H71" s="112" t="s">
+      <c r="G71" s="174" t="s">
         <v>665</v>
       </c>
+      <c r="H71" s="111" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="106"/>
+      <c r="A72" s="105"/>
       <c r="B72" s="77"/>
-      <c r="C72" s="162" t="s">
-        <v>491</v>
+      <c r="C72" s="161" t="s">
+        <v>492</v>
       </c>
       <c r="D72" s="79">
         <v>96</v>
@@ -9949,21 +9910,21 @@
       <c r="E72" s="80">
         <v>3</v>
       </c>
-      <c r="F72" s="141" t="s">
-        <v>666</v>
+      <c r="F72" s="140" t="s">
+        <v>667</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>667</v>
-      </c>
-      <c r="H72" s="115" t="s">
         <v>668</v>
       </c>
+      <c r="H72" s="114" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="108"/>
+      <c r="A73" s="107"/>
       <c r="B73" s="83"/>
-      <c r="C73" s="168" t="s">
-        <v>491</v>
+      <c r="C73" s="167" t="s">
+        <v>492</v>
       </c>
       <c r="D73" s="85">
         <v>97</v>
@@ -9971,47 +9932,47 @@
       <c r="E73" s="86">
         <v>4</v>
       </c>
-      <c r="F73" s="169" t="s">
-        <v>669</v>
+      <c r="F73" s="168" t="s">
+        <v>670</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="H73" s="159" t="s">
         <v>671</v>
       </c>
+      <c r="H73" s="158" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="74" ht="27" spans="1:8">
-      <c r="A74" s="128">
+      <c r="A74" s="127">
         <v>20</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>672</v>
-      </c>
-      <c r="C74" s="100" t="s">
-        <v>456</v>
+        <v>673</v>
+      </c>
+      <c r="C74" s="99" t="s">
+        <v>457</v>
       </c>
       <c r="D74" s="72">
         <v>121</v>
       </c>
-      <c r="E74" s="99">
+      <c r="E74" s="98">
         <v>4</v>
       </c>
       <c r="F74" s="75" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G74" s="75" t="s">
-        <v>674</v>
-      </c>
-      <c r="H74" s="176" t="s">
         <v>675</v>
+      </c>
+      <c r="H74" s="175" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="49"/>
       <c r="B75" s="49"/>
       <c r="C75" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D75" s="79">
         <v>122</v>
@@ -10020,20 +9981,20 @@
         <v>4</v>
       </c>
       <c r="F75" s="91" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G75" s="91" t="s">
-        <v>677</v>
-      </c>
-      <c r="H75" s="115" t="s">
-        <v>644</v>
+        <v>678</v>
+      </c>
+      <c r="H75" s="114" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="54"/>
       <c r="B76" s="54"/>
       <c r="C76" s="55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D76" s="85">
         <v>123</v>
@@ -10042,46 +10003,46 @@
         <v>4</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="H76" s="159" t="s">
-        <v>644</v>
+        <v>680</v>
+      </c>
+      <c r="H76" s="158" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="77" ht="27" spans="1:8">
-      <c r="A77" s="128">
+      <c r="A77" s="127">
         <v>20</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>680</v>
-      </c>
-      <c r="C77" s="100" t="s">
-        <v>456</v>
+        <v>681</v>
+      </c>
+      <c r="C77" s="99" t="s">
+        <v>457</v>
       </c>
       <c r="D77" s="72">
         <v>139</v>
       </c>
-      <c r="E77" s="99">
+      <c r="E77" s="98">
         <v>3</v>
       </c>
       <c r="F77" s="75" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G77" s="75" t="s">
-        <v>682</v>
-      </c>
-      <c r="H77" s="176" t="s">
         <v>683</v>
+      </c>
+      <c r="H77" s="175" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="49"/>
       <c r="B78" s="49"/>
       <c r="C78" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D78" s="79">
         <v>140</v>
@@ -10090,20 +10051,20 @@
         <v>3</v>
       </c>
       <c r="F78" s="91" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G78" s="91" t="s">
-        <v>685</v>
-      </c>
-      <c r="H78" s="115" t="s">
         <v>686</v>
+      </c>
+      <c r="H78" s="114" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="54"/>
       <c r="B79" s="54"/>
       <c r="C79" s="55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D79" s="85">
         <v>141</v>
@@ -10112,43 +10073,43 @@
         <v>3</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="H79" s="159" t="s">
         <v>689</v>
       </c>
+      <c r="H79" s="158" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="102" t="s">
-        <v>553</v>
+      <c r="A80" s="101" t="s">
+        <v>554</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>690</v>
-      </c>
-      <c r="C80" s="100">
+        <v>691</v>
+      </c>
+      <c r="C80" s="99">
         <v>1.02</v>
       </c>
       <c r="D80" s="72">
         <v>148</v>
       </c>
-      <c r="E80" s="99">
+      <c r="E80" s="98">
         <v>2</v>
       </c>
       <c r="F80" s="74" t="s">
-        <v>691</v>
-      </c>
-      <c r="G80" s="175" t="s">
         <v>692</v>
       </c>
-      <c r="H80" s="177" t="s">
+      <c r="G80" s="174" t="s">
         <v>693</v>
       </c>
+      <c r="H80" s="176" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="106"/>
+      <c r="A81" s="105"/>
       <c r="B81" s="49"/>
       <c r="C81" s="50">
         <v>1.03</v>
@@ -10160,76 +10121,76 @@
         <v>2</v>
       </c>
       <c r="F81" s="90" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G81" s="91" t="s">
-        <v>695</v>
-      </c>
-      <c r="H81" s="115"/>
+        <v>696</v>
+      </c>
+      <c r="H81" s="114"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="108"/>
+      <c r="A82" s="107"/>
       <c r="B82" s="54"/>
-      <c r="C82" s="178">
+      <c r="C82" s="177">
         <v>1.04</v>
       </c>
-      <c r="D82" s="179">
+      <c r="D82" s="178">
         <v>150</v>
       </c>
-      <c r="E82" s="180">
+      <c r="E82" s="179">
         <v>2</v>
       </c>
-      <c r="F82" s="181" t="s">
-        <v>696</v>
-      </c>
-      <c r="G82" s="182" t="s">
+      <c r="F82" s="180" t="s">
         <v>697</v>
       </c>
-      <c r="H82" s="183" t="s">
+      <c r="G82" s="181" t="s">
         <v>698</v>
       </c>
+      <c r="H82" s="182" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="83" spans="4:8">
-      <c r="D83" s="184"/>
-      <c r="E83" s="99"/>
+      <c r="D83" s="183"/>
+      <c r="E83" s="98"/>
       <c r="F83" s="75"/>
       <c r="G83" s="75"/>
-      <c r="H83" s="112"/>
+      <c r="H83" s="111"/>
     </row>
     <row r="84" spans="4:8">
       <c r="D84" s="6"/>
       <c r="E84" s="89"/>
       <c r="F84" s="91"/>
       <c r="G84" s="91"/>
-      <c r="H84" s="115"/>
+      <c r="H84" s="114"/>
     </row>
     <row r="85" spans="4:8">
       <c r="D85" s="16"/>
       <c r="E85" s="86"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="159"/>
+      <c r="H85" s="158"/>
     </row>
     <row r="86" spans="4:8">
-      <c r="D86" s="184"/>
-      <c r="E86" s="99"/>
+      <c r="D86" s="183"/>
+      <c r="E86" s="98"/>
       <c r="F86" s="75"/>
       <c r="G86" s="75"/>
-      <c r="H86" s="112"/>
+      <c r="H86" s="111"/>
     </row>
     <row r="87" spans="4:8">
       <c r="D87" s="6"/>
       <c r="E87" s="89"/>
       <c r="F87" s="91"/>
       <c r="G87" s="91"/>
-      <c r="H87" s="115"/>
+      <c r="H87" s="114"/>
     </row>
     <row r="88" spans="4:8">
       <c r="D88" s="16"/>
       <c r="E88" s="86"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="159"/>
+      <c r="H88" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -10347,15 +10308,15 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="35" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="1" spans="2:2">
       <c r="B2" s="36" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10363,10 +10324,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10374,10 +10335,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10385,10 +10346,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10396,10 +10357,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10407,10 +10368,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -10418,10 +10379,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C8" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10429,10 +10390,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C9" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10440,10 +10401,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -10451,15 +10412,15 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C11" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -10467,10 +10428,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C13" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -10478,15 +10439,15 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C14" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10494,13 +10455,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C16" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D16" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10508,13 +10469,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C17" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D17" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -10522,13 +10483,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C18" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D18" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -10536,13 +10497,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C19" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D19" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -10550,10 +10511,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C20" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -10561,13 +10522,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C21" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D21" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10575,13 +10536,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D22" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -10589,10 +10550,10 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C23" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -10600,10 +10561,10 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C24" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -10611,10 +10572,10 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C25" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -10622,10 +10583,10 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C26" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -10633,15 +10594,15 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C27" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" s="34" customFormat="1" spans="2:2">
       <c r="B28" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -10649,10 +10610,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C29" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -10660,10 +10621,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C30" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -10671,10 +10632,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C31" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -10682,10 +10643,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C32" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -10693,10 +10654,10 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C33" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -10704,15 +10665,15 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C34" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="2:2">
       <c r="B35" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -10720,10 +10681,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C36" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -10731,10 +10692,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C37" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -10742,10 +10703,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C38" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -10753,10 +10714,10 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C39" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -10764,10 +10725,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C40" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -10775,10 +10736,10 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C41" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -10786,10 +10747,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C42" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -10797,129 +10758,129 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C43" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="44" s="34" customFormat="1" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C45" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D45" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C46" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D46" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C47" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D47" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C48" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D48" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C49" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D49" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C50" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D50" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C51" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D51" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C52" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D52" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C53" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C54" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -10948,69 +10909,69 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8"/>
       <c r="B2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E3">
         <v>64</v>
@@ -11018,16 +10979,16 @@
     </row>
     <row r="4" ht="27" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E4">
         <v>65</v>
@@ -11035,16 +10996,16 @@
     </row>
     <row r="5" ht="27" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E5">
         <v>66</v>
@@ -11052,16 +11013,16 @@
     </row>
     <row r="6" ht="27" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D6" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E6">
         <v>67</v>
@@ -11069,16 +11030,16 @@
     </row>
     <row r="7" ht="27" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D7" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E7">
         <v>68</v>
@@ -11086,16 +11047,16 @@
     </row>
     <row r="8" ht="27" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B8" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D8" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E8">
         <v>69</v>
@@ -11103,16 +11064,16 @@
     </row>
     <row r="9" ht="27" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D9" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E9">
         <v>70</v>
@@ -11120,16 +11081,16 @@
     </row>
     <row r="10" ht="27" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D10" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E10">
         <v>71</v>
@@ -11137,10 +11098,10 @@
     </row>
     <row r="11" s="2" customFormat="1" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F11" s="7"/>
       <c r="M11" s="7"/>
@@ -11148,10 +11109,10 @@
     <row r="12" spans="1:5">
       <c r="A12" s="8"/>
       <c r="B12" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C12" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E12">
         <v>160</v>
@@ -11160,13 +11121,13 @@
     <row r="13" ht="27" spans="1:5">
       <c r="A13" s="8"/>
       <c r="B13" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D13" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E13">
         <v>165</v>
@@ -11175,13 +11136,13 @@
     <row r="14" ht="27" spans="1:5">
       <c r="A14" s="8"/>
       <c r="B14" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D14" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E14">
         <v>162</v>
@@ -11190,13 +11151,13 @@
     <row r="15" spans="1:5">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C15" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D15" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E15">
         <v>84</v>
@@ -11204,22 +11165,22 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F16" s="7"/>
       <c r="M16" s="7" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C17" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -11234,13 +11195,13 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C18" t="s">
+        <v>870</v>
+      </c>
+      <c r="D18" t="s">
         <v>869</v>
-      </c>
-      <c r="D18" t="s">
-        <v>868</v>
       </c>
       <c r="E18">
         <v>82</v>
@@ -11250,287 +11211,287 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="32" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
     <row r="19" ht="27" spans="2:13">
       <c r="B19" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="D19" t="s">
         <v>872</v>
-      </c>
-      <c r="D19" t="s">
-        <v>871</v>
       </c>
       <c r="E19">
         <v>101</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="12" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="32" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="20" ht="27" spans="2:12">
       <c r="B20" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="D20" t="s">
         <v>877</v>
-      </c>
-      <c r="D20" t="s">
-        <v>876</v>
       </c>
       <c r="E20">
         <v>102</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="31"/>
       <c r="K20" s="12" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L20" s="11"/>
     </row>
     <row r="21" ht="27" spans="2:13">
       <c r="B21" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D21" t="s">
         <v>881</v>
-      </c>
-      <c r="D21" t="s">
-        <v>880</v>
       </c>
       <c r="E21">
         <v>71</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="32" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="6" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="22" ht="27" spans="2:13">
       <c r="B22" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="D22" t="s">
         <v>887</v>
-      </c>
-      <c r="D22" t="s">
-        <v>886</v>
       </c>
       <c r="E22">
         <v>223</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="14" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="32" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="23" ht="27" spans="2:13">
       <c r="B23" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="D23" t="s">
         <v>892</v>
-      </c>
-      <c r="D23" t="s">
-        <v>891</v>
       </c>
       <c r="E23">
         <v>140</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="12" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="33"/>
       <c r="K23" s="12" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="24" ht="27" spans="2:12">
       <c r="B24" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="D24" t="s">
         <v>895</v>
-      </c>
-      <c r="D24" t="s">
-        <v>894</v>
       </c>
       <c r="E24">
         <v>142</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="12" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="31"/>
       <c r="K24" s="11" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" ht="27" spans="2:12">
       <c r="B25" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="D25" t="s">
         <v>898</v>
-      </c>
-      <c r="D25" t="s">
-        <v>897</v>
       </c>
       <c r="E25">
         <v>105</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="12" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="31"/>
       <c r="K25" s="12" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="L25" s="11"/>
     </row>
     <row r="26" ht="27" spans="2:12">
       <c r="B26" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="D26" t="s">
         <v>902</v>
-      </c>
-      <c r="D26" t="s">
-        <v>901</v>
       </c>
       <c r="E26">
         <v>100</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="12" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="31"/>
       <c r="K26" s="12" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="L26" s="11"/>
     </row>
     <row r="27" ht="27" spans="2:12">
       <c r="B27" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="D27" t="s">
         <v>906</v>
-      </c>
-      <c r="D27" t="s">
-        <v>905</v>
       </c>
       <c r="E27">
         <v>99</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="12" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="31"/>
       <c r="K27" s="12" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="L27" s="11"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F28" s="7"/>
       <c r="M28" s="7"/>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D29" s="15"/>
       <c r="F29" s="16"/>
@@ -11538,1139 +11499,1139 @@
     </row>
     <row r="30" s="4" customFormat="1" spans="1:13">
       <c r="A30" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>915</v>
-      </c>
       <c r="D30" s="17" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F30" s="19"/>
       <c r="M30" s="19"/>
     </row>
     <row r="31" customFormat="1" spans="1:13">
       <c r="A31" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C31" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F31" s="6"/>
       <c r="M31" s="6"/>
     </row>
     <row r="32" customFormat="1" spans="1:13">
       <c r="A32" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C32" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F32" s="6"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" customFormat="1" spans="1:13">
       <c r="A33" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C33" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F33" s="6"/>
       <c r="M33" s="6"/>
     </row>
     <row r="34" s="3" customFormat="1" spans="1:13">
       <c r="A34" s="3" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F34" s="16"/>
       <c r="M34" s="16"/>
     </row>
     <row r="35" customFormat="1" spans="1:13">
       <c r="A35" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C35" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F35" s="6"/>
       <c r="M35" s="6"/>
     </row>
     <row r="36" s="4" customFormat="1" spans="1:13">
       <c r="A36" s="4" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F36" s="19"/>
       <c r="M36" s="19"/>
     </row>
     <row r="37" customFormat="1" spans="1:13">
       <c r="A37" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C37" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F37" s="6"/>
       <c r="M37" s="6"/>
     </row>
     <row r="38" customFormat="1" spans="1:13">
       <c r="A38" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C38" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" s="3" customFormat="1" spans="1:13">
       <c r="A39" s="3" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F39" s="16"/>
       <c r="M39" s="16"/>
     </row>
     <row r="40" customFormat="1" spans="1:13">
       <c r="A40" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C40" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F40" s="6"/>
       <c r="M40" s="6"/>
     </row>
     <row r="41" customFormat="1" spans="1:13">
       <c r="A41" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C41" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F41" s="6"/>
       <c r="M41" s="6"/>
     </row>
     <row r="42" s="4" customFormat="1" spans="1:13">
       <c r="A42" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F42" s="19"/>
       <c r="M42" s="19"/>
     </row>
     <row r="43" customFormat="1" spans="1:13">
       <c r="A43" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C43" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F43" s="6"/>
       <c r="M43" s="6"/>
     </row>
     <row r="44" s="3" customFormat="1" spans="1:13">
       <c r="A44" s="3" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F44" s="16"/>
       <c r="M44" s="16"/>
     </row>
     <row r="45" customFormat="1" spans="1:13">
       <c r="A45" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C45" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F45" s="6"/>
       <c r="M45" s="6"/>
     </row>
     <row r="46" customFormat="1" spans="1:13">
       <c r="A46" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C46" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F46" s="6"/>
       <c r="M46" s="6"/>
     </row>
     <row r="47" customFormat="1" spans="1:13">
       <c r="A47" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C47" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F47" s="6"/>
       <c r="M47" s="6"/>
     </row>
     <row r="48" s="4" customFormat="1" spans="1:13">
       <c r="A48" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F48" s="19"/>
       <c r="M48" s="19"/>
     </row>
     <row r="49" s="3" customFormat="1" spans="1:13">
       <c r="A49" s="3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F49" s="16"/>
       <c r="M49" s="16"/>
     </row>
     <row r="50" customFormat="1" spans="1:13">
       <c r="A50" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C50" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F50" s="6"/>
       <c r="M50" s="6"/>
     </row>
     <row r="51" customFormat="1" spans="1:13">
       <c r="A51" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B51" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C51" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F51" s="6"/>
       <c r="M51" s="6"/>
     </row>
     <row r="52" customFormat="1" spans="1:13">
       <c r="A52" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B52" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C52" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F52" s="6"/>
       <c r="M52" s="6"/>
     </row>
     <row r="53" customFormat="1" spans="1:13">
       <c r="A53" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B53" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C53" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F53" s="6"/>
       <c r="M53" s="6"/>
     </row>
     <row r="54" s="5" customFormat="1" spans="1:13">
       <c r="A54" s="5" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F54" s="28"/>
       <c r="M54" s="28"/>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:13">
       <c r="A55" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F55" s="7"/>
       <c r="M55" s="7"/>
     </row>
     <row r="56" customFormat="1" spans="1:13">
       <c r="A56" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B56" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F56" s="6"/>
       <c r="M56" s="6"/>
     </row>
     <row r="57" customFormat="1" ht="27" spans="1:13">
       <c r="A57" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B57" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D57" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F57" s="6"/>
       <c r="M57" s="6"/>
     </row>
     <row r="58" customFormat="1" ht="27" spans="1:13">
       <c r="A58" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B58" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D58" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F58" s="6"/>
       <c r="M58" s="6"/>
     </row>
     <row r="59" customFormat="1" ht="27" spans="1:13">
       <c r="A59" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B59" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D59" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F59" s="6"/>
       <c r="M59" s="6"/>
     </row>
     <row r="60" customFormat="1" ht="27" spans="1:13">
       <c r="A60" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B60" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D60" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F60" s="6"/>
       <c r="M60" s="6"/>
     </row>
     <row r="61" customFormat="1" ht="27" spans="1:13">
       <c r="A61" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B61" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D61" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F61" s="6"/>
       <c r="M61" s="6"/>
     </row>
     <row r="62" customFormat="1" ht="27" spans="1:13">
       <c r="A62" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B62" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D62" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F62" s="6"/>
       <c r="M62" s="6"/>
     </row>
     <row r="63" customFormat="1" ht="27" spans="1:13">
       <c r="A63" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B63" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D63" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F63" s="6"/>
       <c r="M63" s="6"/>
     </row>
     <row r="64" customFormat="1" ht="27" spans="1:13">
       <c r="A64" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B64" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D64" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F64" s="6"/>
       <c r="M64" s="6"/>
     </row>
     <row r="65" s="2" customFormat="1" spans="1:13">
       <c r="A65" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F65" s="7"/>
       <c r="M65" s="7"/>
     </row>
     <row r="66" customFormat="1" spans="1:13">
       <c r="A66" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B66" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C66" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F66" s="6"/>
       <c r="M66" s="6"/>
     </row>
     <row r="67" customFormat="1" spans="1:13">
       <c r="A67" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B67" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C67" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F67" s="6"/>
       <c r="M67" s="6"/>
     </row>
     <row r="68" customFormat="1" spans="1:13">
       <c r="A68" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B68" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C68" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F68" s="6"/>
       <c r="M68" s="6"/>
     </row>
     <row r="69" customFormat="1" spans="1:13">
       <c r="A69" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B69" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C69" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F69" s="6"/>
       <c r="M69" s="6"/>
     </row>
     <row r="70" customFormat="1" spans="1:13">
       <c r="A70" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B70" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C70" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F70" s="6"/>
       <c r="M70" s="6"/>
     </row>
     <row r="71" customFormat="1" spans="1:13">
       <c r="A71" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B71" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C71" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="F71" s="6"/>
       <c r="M71" s="6"/>
     </row>
     <row r="72" customFormat="1" spans="1:13">
       <c r="A72" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B72" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C72" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F72" s="6"/>
       <c r="M72" s="6"/>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:13">
       <c r="A73" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F73" s="7"/>
       <c r="M73" s="7"/>
     </row>
     <row r="74" customFormat="1" spans="1:13">
       <c r="A74" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B74" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C74" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F74" s="6"/>
       <c r="M74" s="6"/>
     </row>
     <row r="75" customFormat="1" spans="1:13">
       <c r="A75" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B75" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C75" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F75" s="6"/>
       <c r="M75" s="6"/>
     </row>
     <row r="76" customFormat="1" spans="1:13">
       <c r="A76" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B76" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C76" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F76" s="6"/>
       <c r="M76" s="6"/>
     </row>
     <row r="77" customFormat="1" spans="1:13">
       <c r="A77" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B77" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C77" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F77" s="6"/>
       <c r="M77" s="6"/>
     </row>
     <row r="78" customFormat="1" spans="1:13">
       <c r="A78" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B78" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C78" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F78" s="6"/>
       <c r="M78" s="6"/>
     </row>
     <row r="79" customFormat="1" spans="1:13">
       <c r="A79" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B79" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C79" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F79" s="6"/>
       <c r="M79" s="6"/>
     </row>
     <row r="80" customFormat="1" spans="1:13">
       <c r="A80" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B80" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C80" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F80" s="6"/>
       <c r="M80" s="6"/>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:13">
       <c r="A81" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F81" s="7"/>
       <c r="M81" s="7"/>
     </row>
     <row r="82" customFormat="1" spans="1:13">
       <c r="A82" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B82" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C82" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F82" s="6"/>
       <c r="M82" s="6"/>
     </row>
     <row r="83" customFormat="1" spans="1:13">
       <c r="A83" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B83" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C83" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F83" s="6"/>
       <c r="M83" s="6"/>
     </row>
     <row r="84" customFormat="1" spans="1:13">
       <c r="A84" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B84" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C84" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F84" s="6"/>
       <c r="M84" s="6"/>
     </row>
     <row r="85" customFormat="1" spans="1:13">
       <c r="A85" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B85" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C85" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="F85" s="6"/>
       <c r="M85" s="6"/>
     </row>
     <row r="86" customFormat="1" spans="1:13">
       <c r="A86" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B86" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C86" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F86" s="6"/>
       <c r="M86" s="6"/>
     </row>
     <row r="87" customFormat="1" spans="1:13">
       <c r="A87" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B87" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C87" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F87" s="6"/>
       <c r="M87" s="6"/>
     </row>
     <row r="88" customFormat="1" spans="1:13">
       <c r="A88" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B88" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C88" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="F88" s="6"/>
       <c r="M88" s="6"/>
     </row>
     <row r="89" customFormat="1" spans="1:13">
       <c r="A89" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B89" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C89" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F89" s="6"/>
       <c r="M89" s="6"/>
     </row>
     <row r="90" customFormat="1" spans="1:13">
       <c r="A90" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B90" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C90" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="F90" s="6"/>
       <c r="M90" s="6"/>
     </row>
     <row r="91" customFormat="1" spans="1:13">
       <c r="A91" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B91" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C91" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="F91" s="6"/>
       <c r="M91" s="6"/>
     </row>
     <row r="92" customFormat="1" spans="1:13">
       <c r="A92" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B92" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C92" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F92" s="6"/>
       <c r="M92" s="6"/>
     </row>
     <row r="93" customFormat="1" spans="1:13">
       <c r="A93" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B93" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C93" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F93" s="6"/>
       <c r="M93" s="6"/>
     </row>
     <row r="94" customFormat="1" spans="1:13">
       <c r="A94" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B94" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C94" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F94" s="6"/>
       <c r="M94" s="6"/>
     </row>
     <row r="95" customFormat="1" spans="1:13">
       <c r="A95" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B95" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C95" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="F95" s="6"/>
       <c r="M95" s="6"/>
     </row>
     <row r="96" s="2" customFormat="1" spans="1:13">
       <c r="A96" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="F96" s="7"/>
       <c r="M96" s="7"/>
     </row>
     <row r="97" customFormat="1" spans="1:13">
       <c r="A97" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B97" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C97" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D97" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="F97" s="6"/>
       <c r="M97" s="6"/>
     </row>
     <row r="98" customFormat="1" spans="1:13">
       <c r="A98" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B98" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C98" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D98" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="F98" s="6"/>
       <c r="M98" s="6"/>
     </row>
     <row r="99" customFormat="1" spans="1:13">
       <c r="A99" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D99" t="s">
         <v>1115</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1114</v>
       </c>
       <c r="F99" s="6"/>
       <c r="M99" s="6"/>
     </row>
     <row r="100" customFormat="1" spans="1:13">
       <c r="A100" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B100" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C100" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D100" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="F100" s="6"/>
       <c r="M100" s="6"/>
     </row>
     <row r="101" customFormat="1" spans="1:13">
       <c r="A101" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B101" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C101" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D101" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="F101" s="6"/>
       <c r="M101" s="6"/>
     </row>
     <row r="102" customFormat="1" spans="1:13">
       <c r="A102" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D102" t="s">
         <v>1125</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D102" t="s">
-        <v>1124</v>
       </c>
       <c r="F102" s="6"/>
       <c r="M102" s="6"/>
     </row>
     <row r="103" customFormat="1" spans="1:13">
       <c r="A103" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B103" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C103" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D103" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="F103" s="6"/>
       <c r="M103" s="6"/>
@@ -12718,7 +12679,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
